--- a/publipostage/02ppyfa04/liste_essais_cliniques_identifies_02ppyfa04.xlsx
+++ b/publipostage/02ppyfa04/liste_essais_cliniques_identifies_02ppyfa04.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I124"/>
+  <dimension ref="A1:J124"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -441,40 +441,45 @@
       </c>
       <c r="B1" s="1" t="inlineStr">
         <is>
+          <t>status_label</t>
+        </is>
+      </c>
+      <c r="C1" s="1" t="inlineStr">
+        <is>
           <t>NCTId</t>
         </is>
       </c>
-      <c r="C1" s="1" t="inlineStr">
+      <c r="D1" s="1" t="inlineStr">
         <is>
           <t>eudraCT</t>
         </is>
       </c>
-      <c r="D1" s="1" t="inlineStr">
+      <c r="E1" s="1" t="inlineStr">
         <is>
           <t>completion_year</t>
         </is>
       </c>
-      <c r="E1" s="1" t="inlineStr">
+      <c r="F1" s="1" t="inlineStr">
         <is>
           <t>clinical_trial_title</t>
         </is>
       </c>
-      <c r="F1" s="1" t="inlineStr">
+      <c r="G1" s="1" t="inlineStr">
         <is>
           <t>acronym</t>
         </is>
       </c>
-      <c r="G1" s="1" t="inlineStr">
+      <c r="H1" s="1" t="inlineStr">
         <is>
           <t>results_1y</t>
         </is>
       </c>
-      <c r="H1" s="1" t="inlineStr">
+      <c r="I1" s="1" t="inlineStr">
         <is>
           <t>results_3y</t>
         </is>
       </c>
-      <c r="I1" s="1" t="inlineStr">
+      <c r="J1" s="1" t="inlineStr">
         <is>
           <t>results</t>
         </is>
@@ -488,32 +493,37 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
+          <t>rouge</t>
+        </is>
+      </c>
+      <c r="C2" t="inlineStr">
+        <is>
           <t>NCT01512277</t>
         </is>
       </c>
-      <c r="C2" t="inlineStr"/>
-      <c r="D2" t="inlineStr">
+      <c r="D2" t="inlineStr"/>
+      <c r="E2" t="inlineStr">
         <is>
           <t>1999</t>
         </is>
       </c>
-      <c r="E2" t="inlineStr">
+      <c r="F2" t="inlineStr">
         <is>
           <t>Phase 1 Study Evaluating Safety and Immunological Criteria of Efficacy of the Recombinant Vaccine Candidate Bilhvax Against Schistosomiasis</t>
         </is>
       </c>
-      <c r="F2" t="inlineStr">
+      <c r="G2" t="inlineStr">
         <is>
           <t>Bilhvax1a</t>
         </is>
       </c>
-      <c r="G2" t="b">
-        <v>0</v>
-      </c>
       <c r="H2" t="b">
         <v>0</v>
       </c>
       <c r="I2" t="b">
+        <v>0</v>
+      </c>
+      <c r="J2" t="b">
         <v>1</v>
       </c>
     </row>
@@ -525,28 +535,33 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
+          <t>rouge</t>
+        </is>
+      </c>
+      <c r="C3" t="inlineStr">
+        <is>
           <t>NCT00367185</t>
         </is>
       </c>
-      <c r="C3" t="inlineStr"/>
-      <c r="D3" t="inlineStr">
+      <c r="D3" t="inlineStr"/>
+      <c r="E3" t="inlineStr">
         <is>
           <t>2005</t>
         </is>
       </c>
-      <c r="E3" t="inlineStr">
+      <c r="F3" t="inlineStr">
         <is>
           <t>Comparison of Melphalan-Prednisone(MP),MP-THALIDOMIDE,and Autologous Stem Cell Transplantation in the Treatment of Newly Diagnosed Elderly Patients With Multiple Myeloma.</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr"/>
-      <c r="G3" t="b">
-        <v>0</v>
-      </c>
+      <c r="G3" t="inlineStr"/>
       <c r="H3" t="b">
         <v>0</v>
       </c>
       <c r="I3" t="b">
+        <v>0</v>
+      </c>
+      <c r="J3" t="b">
         <v>1</v>
       </c>
     </row>
@@ -558,32 +573,37 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
+          <t>rouge</t>
+        </is>
+      </c>
+      <c r="C4" t="inlineStr">
+        <is>
           <t>NCT00682292</t>
         </is>
       </c>
-      <c r="C4" t="inlineStr"/>
-      <c r="D4" t="inlineStr">
+      <c r="D4" t="inlineStr"/>
+      <c r="E4" t="inlineStr">
         <is>
           <t>2006</t>
         </is>
       </c>
-      <c r="E4" t="inlineStr">
+      <c r="F4" t="inlineStr">
         <is>
           <t>Multicenter Randomized Study to Compare Induction Therapy With Polyclonal Antithymocytes Globulins (ATG) Versus Monoclonal Anti-IL2R Antibody (Daclizumab) in a Triple Drug Regimen in Renal Transplant Recipients With High Immunological Risk.</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
+      <c r="G4" t="inlineStr">
         <is>
           <t>TAXI</t>
         </is>
       </c>
-      <c r="G4" t="b">
-        <v>0</v>
-      </c>
       <c r="H4" t="b">
         <v>0</v>
       </c>
       <c r="I4" t="b">
+        <v>0</v>
+      </c>
+      <c r="J4" t="b">
         <v>0</v>
       </c>
     </row>
@@ -595,95 +615,110 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
+          <t>rouge</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
           <t>NCT00122057</t>
         </is>
       </c>
-      <c r="C5" t="inlineStr"/>
-      <c r="D5" t="inlineStr">
+      <c r="D5" t="inlineStr"/>
+      <c r="E5" t="inlineStr">
         <is>
           <t>2007</t>
         </is>
       </c>
-      <c r="E5" t="inlineStr"/>
       <c r="F5" t="inlineStr"/>
-      <c r="G5" t="b">
-        <v>0</v>
-      </c>
+      <c r="G5" t="inlineStr"/>
       <c r="H5" t="b">
         <v>0</v>
       </c>
       <c r="I5" t="b">
+        <v>0</v>
+      </c>
+      <c r="J5" t="b">
         <v>1</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="inlineStr">
         <is>
-          <t>🟩</t>
+          <t>🟥</t>
         </is>
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>NCT00446264</t>
-        </is>
-      </c>
-      <c r="C6" t="inlineStr"/>
-      <c r="D6" t="inlineStr">
+          <t>rouge</t>
+        </is>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>NCT02385565</t>
+        </is>
+      </c>
+      <c r="D6" t="inlineStr"/>
+      <c r="E6" t="inlineStr">
         <is>
           <t>2009</t>
         </is>
       </c>
-      <c r="E6" t="inlineStr">
-        <is>
-          <t>Sequential Islet Transplantation With Steroid Free Immunosuppression for Type 1 Diabetes</t>
-        </is>
-      </c>
-      <c r="F6" t="inlineStr"/>
-      <c r="G6" t="b">
-        <v>1</v>
+      <c r="F6" t="inlineStr">
+        <is>
+          <t>Effect Of The System In The Enriched Fat Metabolism Of The Child Reached Mitochondrial Cytopathy</t>
+        </is>
+      </c>
+      <c r="G6" t="inlineStr">
+        <is>
+          <t>MITOX</t>
+        </is>
       </c>
       <c r="H6" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I6" t="b">
-        <v>1</v>
+        <v>0</v>
+      </c>
+      <c r="J6" t="b">
+        <v>0</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="inlineStr">
         <is>
-          <t>🟥</t>
+          <t>🟩</t>
         </is>
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>NCT02385565</t>
-        </is>
-      </c>
-      <c r="C7" t="inlineStr"/>
-      <c r="D7" t="inlineStr">
+          <t>vert</t>
+        </is>
+      </c>
+      <c r="C7" t="inlineStr">
+        <is>
+          <t>NCT00446264</t>
+        </is>
+      </c>
+      <c r="D7" t="inlineStr"/>
+      <c r="E7" t="inlineStr">
         <is>
           <t>2009</t>
         </is>
       </c>
-      <c r="E7" t="inlineStr">
-        <is>
-          <t>Effect Of The System In The Enriched Fat Metabolism Of The Child Reached Mitochondrial Cytopathy</t>
-        </is>
-      </c>
       <c r="F7" t="inlineStr">
         <is>
-          <t>MITOX</t>
-        </is>
-      </c>
-      <c r="G7" t="b">
-        <v>0</v>
-      </c>
+          <t>Sequential Islet Transplantation With Steroid Free Immunosuppression for Type 1 Diabetes</t>
+        </is>
+      </c>
+      <c r="G7" t="inlineStr"/>
       <c r="H7" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I7" t="b">
-        <v>0</v>
+        <v>1</v>
+      </c>
+      <c r="J7" t="b">
+        <v>1</v>
       </c>
     </row>
     <row r="8">
@@ -694,33 +729,34 @@
       </c>
       <c r="B8" t="inlineStr">
         <is>
-          <t>NCT01108029</t>
-        </is>
-      </c>
-      <c r="C8" t="inlineStr"/>
-      <c r="D8" t="inlineStr">
+          <t>rouge</t>
+        </is>
+      </c>
+      <c r="C8" t="inlineStr">
+        <is>
+          <t>NCT01082666</t>
+        </is>
+      </c>
+      <c r="D8" t="inlineStr"/>
+      <c r="E8" t="inlineStr">
         <is>
           <t>2010</t>
         </is>
       </c>
-      <c r="E8" t="inlineStr">
-        <is>
-          <t>Study of Memantine to Treat Gait Disorders And Attention Deficit In Parkinson's Disease: A Randomized, Double-Blind, Placebo-Controlled, Parallel-Group, Monocentric Trial</t>
-        </is>
-      </c>
       <c r="F8" t="inlineStr">
         <is>
-          <t>FOGG-I</t>
-        </is>
-      </c>
-      <c r="G8" t="b">
-        <v>0</v>
-      </c>
+          <t>Phase 4 Study of Continuous Control of Tracheal Cuff Pressure and Microaspiration in Critically Ill Patients</t>
+        </is>
+      </c>
+      <c r="G8" t="inlineStr"/>
       <c r="H8" t="b">
         <v>0</v>
       </c>
       <c r="I8" t="b">
-        <v>1</v>
+        <v>0</v>
+      </c>
+      <c r="J8" t="b">
+        <v>0</v>
       </c>
     </row>
     <row r="9">
@@ -731,29 +767,38 @@
       </c>
       <c r="B9" t="inlineStr">
         <is>
-          <t>NCT01082666</t>
-        </is>
-      </c>
-      <c r="C9" t="inlineStr"/>
-      <c r="D9" t="inlineStr">
+          <t>rouge</t>
+        </is>
+      </c>
+      <c r="C9" t="inlineStr">
+        <is>
+          <t>NCT01108029</t>
+        </is>
+      </c>
+      <c r="D9" t="inlineStr"/>
+      <c r="E9" t="inlineStr">
         <is>
           <t>2010</t>
         </is>
       </c>
-      <c r="E9" t="inlineStr">
-        <is>
-          <t>Phase 4 Study of Continuous Control of Tracheal Cuff Pressure and Microaspiration in Critically Ill Patients</t>
-        </is>
-      </c>
-      <c r="F9" t="inlineStr"/>
-      <c r="G9" t="b">
-        <v>0</v>
+      <c r="F9" t="inlineStr">
+        <is>
+          <t>Study of Memantine to Treat Gait Disorders And Attention Deficit In Parkinson's Disease: A Randomized, Double-Blind, Placebo-Controlled, Parallel-Group, Monocentric Trial</t>
+        </is>
+      </c>
+      <c r="G9" t="inlineStr">
+        <is>
+          <t>FOGG-I</t>
+        </is>
       </c>
       <c r="H9" t="b">
         <v>0</v>
       </c>
       <c r="I9" t="b">
         <v>0</v>
+      </c>
+      <c r="J9" t="b">
+        <v>1</v>
       </c>
     </row>
     <row r="10">
@@ -764,218 +809,248 @@
       </c>
       <c r="B10" t="inlineStr">
         <is>
+          <t>rouge</t>
+        </is>
+      </c>
+      <c r="C10" t="inlineStr">
+        <is>
           <t>NCT01487590</t>
         </is>
       </c>
-      <c r="C10" t="inlineStr"/>
-      <c r="D10" t="inlineStr">
+      <c r="D10" t="inlineStr"/>
+      <c r="E10" t="inlineStr">
         <is>
           <t>2010</t>
         </is>
       </c>
-      <c r="E10" t="inlineStr">
+      <c r="F10" t="inlineStr">
         <is>
           <t>A Simple Blind Controlled Randomized Trial: Cephalic Version by Acupuncture-moxibustion vs Placebo for Breech Presentation</t>
         </is>
       </c>
-      <c r="F10" t="inlineStr">
+      <c r="G10" t="inlineStr">
         <is>
           <t>ACUVERSE</t>
         </is>
       </c>
-      <c r="G10" t="b">
-        <v>0</v>
-      </c>
       <c r="H10" t="b">
         <v>0</v>
       </c>
       <c r="I10" t="b">
+        <v>0</v>
+      </c>
+      <c r="J10" t="b">
         <v>1</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" t="inlineStr">
         <is>
-          <t>🟥</t>
-        </is>
-      </c>
-      <c r="B11" t="inlineStr"/>
+          <t>🟧</t>
+        </is>
+      </c>
+      <c r="B11" t="inlineStr">
+        <is>
+          <t>orange</t>
+        </is>
+      </c>
       <c r="C11" t="inlineStr">
         <is>
-          <t>2008-005801-20</t>
-        </is>
-      </c>
-      <c r="D11" t="inlineStr">
+          <t>NCT01214226</t>
+        </is>
+      </c>
+      <c r="D11" t="inlineStr"/>
+      <c r="E11" t="inlineStr">
         <is>
           <t>2011</t>
         </is>
       </c>
-      <c r="E11" t="inlineStr">
-        <is>
-          <t>Etude d’efficacité et d’acceptabilité du méthylphénidate dans les troubles de la marche de la maladie de Parkinson : Etude multicentrique en double aveugle versus placebo.</t>
-        </is>
-      </c>
       <c r="F11" t="inlineStr">
         <is>
-          <t>PARGKAIT II</t>
-        </is>
-      </c>
-      <c r="G11" t="b">
-        <v>0</v>
+          <t>Evaluation of the Survival Benefit of the Adjunction of Pentoxifylline to Corticosteroids in Patients Suffering From Severe Alcoholic Hepatitis</t>
+        </is>
+      </c>
+      <c r="G11" t="inlineStr">
+        <is>
+          <t>CorpentoxHAA</t>
+        </is>
       </c>
       <c r="H11" t="b">
         <v>0</v>
       </c>
       <c r="I11" t="b">
+        <v>1</v>
+      </c>
+      <c r="J11" t="b">
         <v>1</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" t="inlineStr">
         <is>
-          <t>🟧</t>
+          <t>🟥</t>
         </is>
       </c>
       <c r="B12" t="inlineStr">
         <is>
-          <t>NCT00943748</t>
-        </is>
-      </c>
-      <c r="C12" t="inlineStr"/>
-      <c r="D12" t="inlineStr">
+          <t>rouge</t>
+        </is>
+      </c>
+      <c r="C12" t="inlineStr">
+        <is>
+          <t>NCT00642980</t>
+        </is>
+      </c>
+      <c r="D12" t="inlineStr"/>
+      <c r="E12" t="inlineStr">
         <is>
           <t>2011</t>
         </is>
       </c>
-      <c r="E12" t="inlineStr">
-        <is>
-          <t>Efficacy and Safety of the Iron Chelator Deferiprone on Iron Overload in the Brain in Parkinson's Disease</t>
-        </is>
-      </c>
       <c r="F12" t="inlineStr">
         <is>
-          <t>FAIR-PARK-I</t>
-        </is>
-      </c>
-      <c r="G12" t="b">
-        <v>0</v>
+          <t>Randomized Multicenter Trial for the Prevention of Preterm Delivery by Testing for and Treatment of Bacterial Vaginosis in the First Trimester of Pregnancy</t>
+        </is>
+      </c>
+      <c r="G12" t="inlineStr">
+        <is>
+          <t>PREMEVA</t>
+        </is>
       </c>
       <c r="H12" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I12" t="b">
+        <v>0</v>
+      </c>
+      <c r="J12" t="b">
         <v>1</v>
       </c>
     </row>
     <row r="13">
       <c r="A13" t="inlineStr">
         <is>
-          <t>🟥</t>
+          <t>🟧</t>
         </is>
       </c>
       <c r="B13" t="inlineStr">
         <is>
-          <t>NCT00642980</t>
-        </is>
-      </c>
-      <c r="C13" t="inlineStr"/>
-      <c r="D13" t="inlineStr">
+          <t>orange</t>
+        </is>
+      </c>
+      <c r="C13" t="inlineStr">
+        <is>
+          <t>NCT00943748</t>
+        </is>
+      </c>
+      <c r="D13" t="inlineStr"/>
+      <c r="E13" t="inlineStr">
         <is>
           <t>2011</t>
         </is>
       </c>
-      <c r="E13" t="inlineStr">
-        <is>
-          <t>Randomized Multicenter Trial for the Prevention of Preterm Delivery by Testing for and Treatment of Bacterial Vaginosis in the First Trimester of Pregnancy</t>
-        </is>
-      </c>
       <c r="F13" t="inlineStr">
         <is>
-          <t>PREMEVA</t>
-        </is>
-      </c>
-      <c r="G13" t="b">
-        <v>0</v>
+          <t>Efficacy and Safety of the Iron Chelator Deferiprone on Iron Overload in the Brain in Parkinson's Disease</t>
+        </is>
+      </c>
+      <c r="G13" t="inlineStr">
+        <is>
+          <t>FAIR-PARK-I</t>
+        </is>
       </c>
       <c r="H13" t="b">
         <v>0</v>
       </c>
       <c r="I13" t="b">
+        <v>1</v>
+      </c>
+      <c r="J13" t="b">
         <v>1</v>
       </c>
     </row>
     <row r="14">
       <c r="A14" t="inlineStr">
         <is>
-          <t>🟧</t>
+          <t>🟥</t>
         </is>
       </c>
       <c r="B14" t="inlineStr">
         <is>
-          <t>NCT00914095</t>
+          <t>rouge</t>
         </is>
       </c>
       <c r="C14" t="inlineStr"/>
       <c r="D14" t="inlineStr">
         <is>
+          <t>2006-006944-78</t>
+        </is>
+      </c>
+      <c r="E14" t="inlineStr">
+        <is>
           <t>2011</t>
         </is>
       </c>
-      <c r="E14" t="inlineStr">
-        <is>
-          <t>Study of Methylphenidate to Treat Gait Disorders And Attention Deficit In Parkinson's Disease: A Randomized, Double-Blind, Placebo-Controlled, Parallel-Group, Multicentric Trial</t>
-        </is>
-      </c>
       <c r="F14" t="inlineStr">
         <is>
-          <t>PARKGAIT-II</t>
-        </is>
-      </c>
-      <c r="G14" t="b">
-        <v>0</v>
+          <t>Evaluation du bénéfice de survie lors de l'adjonction de pentoxifylline à la corticothérapie dans l'hépatite alcoolique sévère</t>
+        </is>
+      </c>
+      <c r="G14" t="inlineStr">
+        <is>
+          <t>CorpentoxHAA</t>
+        </is>
       </c>
       <c r="H14" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I14" t="b">
+        <v>0</v>
+      </c>
+      <c r="J14" t="b">
         <v>1</v>
       </c>
     </row>
     <row r="15">
       <c r="A15" t="inlineStr">
         <is>
-          <t>🟥</t>
+          <t>🟧</t>
         </is>
       </c>
       <c r="B15" t="inlineStr">
         <is>
-          <t>NCT01679093</t>
-        </is>
-      </c>
-      <c r="C15" t="inlineStr"/>
-      <c r="D15" t="inlineStr">
+          <t>orange</t>
+        </is>
+      </c>
+      <c r="C15" t="inlineStr">
+        <is>
+          <t>NCT01351259</t>
+        </is>
+      </c>
+      <c r="D15" t="inlineStr"/>
+      <c r="E15" t="inlineStr">
         <is>
           <t>2011</t>
         </is>
       </c>
-      <c r="E15" t="inlineStr">
-        <is>
-          <t>Antagonism Research Between Antiemetics Agents (Droperidol, Dexametasone, Ondansetron) and Acetaminophen in Thyroidectomy's Post-operative Analgesia.</t>
-        </is>
-      </c>
       <c r="F15" t="inlineStr">
         <is>
-          <t>ANPATHY</t>
-        </is>
-      </c>
-      <c r="G15" t="b">
-        <v>0</v>
+          <t>Continuous Control of Polyurethane Tracheal-cuff Pressure: Efficiency of a Pneumatic Device</t>
+        </is>
+      </c>
+      <c r="G15" t="inlineStr">
+        <is>
+          <t>Nosten</t>
+        </is>
       </c>
       <c r="H15" t="b">
         <v>0</v>
       </c>
       <c r="I15" t="b">
-        <v>0</v>
+        <v>1</v>
+      </c>
+      <c r="J15" t="b">
+        <v>1</v>
       </c>
     </row>
     <row r="16">
@@ -986,69 +1061,79 @@
       </c>
       <c r="B16" t="inlineStr">
         <is>
-          <t>NCT01214226</t>
-        </is>
-      </c>
-      <c r="C16" t="inlineStr"/>
-      <c r="D16" t="inlineStr">
+          <t>orange</t>
+        </is>
+      </c>
+      <c r="C16" t="inlineStr">
+        <is>
+          <t>NCT00914095</t>
+        </is>
+      </c>
+      <c r="D16" t="inlineStr"/>
+      <c r="E16" t="inlineStr">
         <is>
           <t>2011</t>
         </is>
       </c>
-      <c r="E16" t="inlineStr">
-        <is>
-          <t>Evaluation of the Survival Benefit of the Adjunction of Pentoxifylline to Corticosteroids in Patients Suffering From Severe Alcoholic Hepatitis</t>
-        </is>
-      </c>
       <c r="F16" t="inlineStr">
         <is>
-          <t>CorpentoxHAA</t>
-        </is>
-      </c>
-      <c r="G16" t="b">
-        <v>0</v>
+          <t>Study of Methylphenidate to Treat Gait Disorders And Attention Deficit In Parkinson's Disease: A Randomized, Double-Blind, Placebo-Controlled, Parallel-Group, Multicentric Trial</t>
+        </is>
+      </c>
+      <c r="G16" t="inlineStr">
+        <is>
+          <t>PARKGAIT-II</t>
+        </is>
       </c>
       <c r="H16" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I16" t="b">
+        <v>1</v>
+      </c>
+      <c r="J16" t="b">
         <v>1</v>
       </c>
     </row>
     <row r="17">
       <c r="A17" t="inlineStr">
         <is>
-          <t>🟧</t>
+          <t>🟥</t>
         </is>
       </c>
       <c r="B17" t="inlineStr">
         <is>
-          <t>NCT01351259</t>
+          <t>rouge</t>
         </is>
       </c>
       <c r="C17" t="inlineStr"/>
       <c r="D17" t="inlineStr">
         <is>
+          <t>2008-005801-20</t>
+        </is>
+      </c>
+      <c r="E17" t="inlineStr">
+        <is>
           <t>2011</t>
         </is>
       </c>
-      <c r="E17" t="inlineStr">
-        <is>
-          <t>Continuous Control of Polyurethane Tracheal-cuff Pressure: Efficiency of a Pneumatic Device</t>
-        </is>
-      </c>
       <c r="F17" t="inlineStr">
         <is>
-          <t>Nosten</t>
-        </is>
-      </c>
-      <c r="G17" t="b">
-        <v>0</v>
+          <t>Etude d’efficacité et d’acceptabilité du méthylphénidate dans les troubles de la marche de la maladie de Parkinson : Etude multicentrique en double aveugle versus placebo.</t>
+        </is>
+      </c>
+      <c r="G17" t="inlineStr">
+        <is>
+          <t>PARGKAIT II</t>
+        </is>
       </c>
       <c r="H17" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I17" t="b">
+        <v>0</v>
+      </c>
+      <c r="J17" t="b">
         <v>1</v>
       </c>
     </row>
@@ -1058,35 +1143,40 @@
           <t>🟥</t>
         </is>
       </c>
-      <c r="B18" t="inlineStr"/>
+      <c r="B18" t="inlineStr">
+        <is>
+          <t>rouge</t>
+        </is>
+      </c>
       <c r="C18" t="inlineStr">
         <is>
-          <t>2006-006944-78</t>
-        </is>
-      </c>
-      <c r="D18" t="inlineStr">
+          <t>NCT01679093</t>
+        </is>
+      </c>
+      <c r="D18" t="inlineStr"/>
+      <c r="E18" t="inlineStr">
         <is>
           <t>2011</t>
         </is>
       </c>
-      <c r="E18" t="inlineStr">
-        <is>
-          <t>Evaluation du bénéfice de survie lors de l'adjonction de pentoxifylline à la corticothérapie dans l'hépatite alcoolique sévère</t>
-        </is>
-      </c>
       <c r="F18" t="inlineStr">
         <is>
-          <t>CorpentoxHAA</t>
-        </is>
-      </c>
-      <c r="G18" t="b">
-        <v>0</v>
+          <t>Antagonism Research Between Antiemetics Agents (Droperidol, Dexametasone, Ondansetron) and Acetaminophen in Thyroidectomy's Post-operative Analgesia.</t>
+        </is>
+      </c>
+      <c r="G18" t="inlineStr">
+        <is>
+          <t>ANPATHY</t>
+        </is>
       </c>
       <c r="H18" t="b">
         <v>0</v>
       </c>
       <c r="I18" t="b">
-        <v>1</v>
+        <v>0</v>
+      </c>
+      <c r="J18" t="b">
+        <v>0</v>
       </c>
     </row>
     <row r="19">
@@ -1097,107 +1187,122 @@
       </c>
       <c r="B19" t="inlineStr">
         <is>
+          <t>orange</t>
+        </is>
+      </c>
+      <c r="C19" t="inlineStr">
+        <is>
           <t>NCT00767091</t>
         </is>
       </c>
-      <c r="C19" t="inlineStr"/>
-      <c r="D19" t="inlineStr">
+      <c r="D19" t="inlineStr"/>
+      <c r="E19" t="inlineStr">
         <is>
           <t>2012</t>
         </is>
       </c>
-      <c r="E19" t="inlineStr">
+      <c r="F19" t="inlineStr">
         <is>
           <t>A Randomized, Double-blind, Placebo-controlled, Parallel-group, Multicentric Trial</t>
         </is>
       </c>
-      <c r="F19" t="inlineStr">
+      <c r="G19" t="inlineStr">
         <is>
           <t>CHoPA-I</t>
         </is>
       </c>
-      <c r="G19" t="b">
-        <v>0</v>
-      </c>
       <c r="H19" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I19" t="b">
+        <v>1</v>
+      </c>
+      <c r="J19" t="b">
         <v>1</v>
       </c>
     </row>
     <row r="20">
       <c r="A20" t="inlineStr">
         <is>
-          <t>🟧</t>
+          <t>🟥</t>
         </is>
       </c>
       <c r="B20" t="inlineStr">
         <is>
-          <t>NCT01295736</t>
-        </is>
-      </c>
-      <c r="C20" t="inlineStr"/>
-      <c r="D20" t="inlineStr">
+          <t>rouge</t>
+        </is>
+      </c>
+      <c r="C20" t="inlineStr">
+        <is>
+          <t>NCT00766519</t>
+        </is>
+      </c>
+      <c r="D20" t="inlineStr"/>
+      <c r="E20" t="inlineStr">
         <is>
           <t>2013</t>
         </is>
       </c>
-      <c r="E20" t="inlineStr">
-        <is>
-          <t>Evaluation of the Efficacy of Sildenafil on Time to Healing in Patients With Scleroderma and Ischaemic Digital Ulcers: a Prospective, Longitudinal, Randomized, Comparative, Double-blind, 2-parallel-arm, Placebo-controlled Study</t>
-        </is>
-      </c>
       <c r="F20" t="inlineStr">
         <is>
-          <t>SEDUCE</t>
-        </is>
-      </c>
-      <c r="G20" t="b">
-        <v>0</v>
+          <t>Effect of Intraoperative Volume Optimization on Outcome After Intrabdominal Surgery: a Multicenter, Randomized, Double-blind, Comparative Study</t>
+        </is>
+      </c>
+      <c r="G20" t="inlineStr">
+        <is>
+          <t>EVOLUTION</t>
+        </is>
       </c>
       <c r="H20" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I20" t="b">
-        <v>1</v>
+        <v>0</v>
+      </c>
+      <c r="J20" t="b">
+        <v>0</v>
       </c>
     </row>
     <row r="21">
       <c r="A21" t="inlineStr">
         <is>
-          <t>🟥</t>
+          <t>🟧</t>
         </is>
       </c>
       <c r="B21" t="inlineStr">
         <is>
-          <t>NCT00639964</t>
-        </is>
-      </c>
-      <c r="C21" t="inlineStr"/>
-      <c r="D21" t="inlineStr">
+          <t>orange</t>
+        </is>
+      </c>
+      <c r="C21" t="inlineStr">
+        <is>
+          <t>NCT01295736</t>
+        </is>
+      </c>
+      <c r="D21" t="inlineStr"/>
+      <c r="E21" t="inlineStr">
         <is>
           <t>2013</t>
         </is>
       </c>
-      <c r="E21" t="inlineStr">
-        <is>
-          <t>Exploration of the Lipid Metabolism During the Diabetic Pregnancies and Research for New Biological Predictors to Nutritional Interventions</t>
-        </is>
-      </c>
       <c r="F21" t="inlineStr">
         <is>
-          <t>DIAMANT</t>
-        </is>
-      </c>
-      <c r="G21" t="b">
-        <v>0</v>
+          <t>Evaluation of the Efficacy of Sildenafil on Time to Healing in Patients With Scleroderma and Ischaemic Digital Ulcers: a Prospective, Longitudinal, Randomized, Comparative, Double-blind, 2-parallel-arm, Placebo-controlled Study</t>
+        </is>
+      </c>
+      <c r="G21" t="inlineStr">
+        <is>
+          <t>SEDUCE</t>
+        </is>
       </c>
       <c r="H21" t="b">
         <v>0</v>
       </c>
       <c r="I21" t="b">
-        <v>0</v>
+        <v>1</v>
+      </c>
+      <c r="J21" t="b">
+        <v>1</v>
       </c>
     </row>
     <row r="22">
@@ -1208,32 +1313,37 @@
       </c>
       <c r="B22" t="inlineStr">
         <is>
-          <t>NCT00766519</t>
-        </is>
-      </c>
-      <c r="C22" t="inlineStr"/>
-      <c r="D22" t="inlineStr">
+          <t>rouge</t>
+        </is>
+      </c>
+      <c r="C22" t="inlineStr">
+        <is>
+          <t>NCT01279096</t>
+        </is>
+      </c>
+      <c r="D22" t="inlineStr"/>
+      <c r="E22" t="inlineStr">
         <is>
           <t>2013</t>
         </is>
       </c>
-      <c r="E22" t="inlineStr">
-        <is>
-          <t>Effect of Intraoperative Volume Optimization on Outcome After Intrabdominal Surgery: a Multicenter, Randomized, Double-blind, Comparative Study</t>
-        </is>
-      </c>
       <c r="F22" t="inlineStr">
         <is>
-          <t>EVOLUTION</t>
-        </is>
-      </c>
-      <c r="G22" t="b">
-        <v>0</v>
+          <t>A Phase I Dose Escalation Study of Clofarabine Given in Combination With Multi-agent Therapy for Remission Induction in Pediatric Patients With Acute Lymphoblastic Leukemia in First Relapse or Refractory to First Line Therapy -</t>
+        </is>
+      </c>
+      <c r="G22" t="inlineStr">
+        <is>
+          <t>Vandevol</t>
+        </is>
       </c>
       <c r="H22" t="b">
         <v>0</v>
       </c>
       <c r="I22" t="b">
+        <v>0</v>
+      </c>
+      <c r="J22" t="b">
         <v>0</v>
       </c>
     </row>
@@ -1245,33 +1355,34 @@
       </c>
       <c r="B23" t="inlineStr">
         <is>
-          <t>NCT01487395</t>
-        </is>
-      </c>
-      <c r="C23" t="inlineStr"/>
-      <c r="D23" t="inlineStr">
+          <t>rouge</t>
+        </is>
+      </c>
+      <c r="C23" t="inlineStr">
+        <is>
+          <t>NCT01415219</t>
+        </is>
+      </c>
+      <c r="D23" t="inlineStr"/>
+      <c r="E23" t="inlineStr">
         <is>
           <t>2013</t>
         </is>
       </c>
-      <c r="E23" t="inlineStr">
-        <is>
-          <t>Effect of a 15-day Donepezil Treatment on Biomarkers of AD in Healthy Volunteers</t>
-        </is>
-      </c>
       <c r="F23" t="inlineStr">
         <is>
-          <t>PharmacogWP3</t>
-        </is>
-      </c>
-      <c r="G23" t="b">
-        <v>0</v>
-      </c>
+          <t>Efficacy of an Individual Rehabilitation Program in Polymyositis and Dermatomyositis</t>
+        </is>
+      </c>
+      <c r="G23" t="inlineStr"/>
       <c r="H23" t="b">
         <v>0</v>
       </c>
       <c r="I23" t="b">
         <v>0</v>
+      </c>
+      <c r="J23" t="b">
+        <v>1</v>
       </c>
     </row>
     <row r="24">
@@ -1282,29 +1393,38 @@
       </c>
       <c r="B24" t="inlineStr">
         <is>
-          <t>NCT01415219</t>
-        </is>
-      </c>
-      <c r="C24" t="inlineStr"/>
-      <c r="D24" t="inlineStr">
+          <t>rouge</t>
+        </is>
+      </c>
+      <c r="C24" t="inlineStr">
+        <is>
+          <t>NCT01487395</t>
+        </is>
+      </c>
+      <c r="D24" t="inlineStr"/>
+      <c r="E24" t="inlineStr">
         <is>
           <t>2013</t>
         </is>
       </c>
-      <c r="E24" t="inlineStr">
-        <is>
-          <t>Efficacy of an Individual Rehabilitation Program in Polymyositis and Dermatomyositis</t>
-        </is>
-      </c>
-      <c r="F24" t="inlineStr"/>
-      <c r="G24" t="b">
-        <v>0</v>
+      <c r="F24" t="inlineStr">
+        <is>
+          <t>Effect of a 15-day Donepezil Treatment on Biomarkers of AD in Healthy Volunteers</t>
+        </is>
+      </c>
+      <c r="G24" t="inlineStr">
+        <is>
+          <t>PharmacogWP3</t>
+        </is>
       </c>
       <c r="H24" t="b">
         <v>0</v>
       </c>
       <c r="I24" t="b">
-        <v>1</v>
+        <v>0</v>
+      </c>
+      <c r="J24" t="b">
+        <v>0</v>
       </c>
     </row>
     <row r="25">
@@ -1315,69 +1435,79 @@
       </c>
       <c r="B25" t="inlineStr">
         <is>
-          <t>NCT01279096</t>
-        </is>
-      </c>
-      <c r="C25" t="inlineStr"/>
-      <c r="D25" t="inlineStr">
+          <t>rouge</t>
+        </is>
+      </c>
+      <c r="C25" t="inlineStr">
+        <is>
+          <t>NCT00639964</t>
+        </is>
+      </c>
+      <c r="D25" t="inlineStr"/>
+      <c r="E25" t="inlineStr">
         <is>
           <t>2013</t>
         </is>
       </c>
-      <c r="E25" t="inlineStr">
-        <is>
-          <t>A Phase I Dose Escalation Study of Clofarabine Given in Combination With Multi-agent Therapy for Remission Induction in Pediatric Patients With Acute Lymphoblastic Leukemia in First Relapse or Refractory to First Line Therapy -</t>
-        </is>
-      </c>
       <c r="F25" t="inlineStr">
         <is>
-          <t>Vandevol</t>
-        </is>
-      </c>
-      <c r="G25" t="b">
-        <v>0</v>
+          <t>Exploration of the Lipid Metabolism During the Diabetic Pregnancies and Research for New Biological Predictors to Nutritional Interventions</t>
+        </is>
+      </c>
+      <c r="G25" t="inlineStr">
+        <is>
+          <t>DIAMANT</t>
+        </is>
       </c>
       <c r="H25" t="b">
         <v>0</v>
       </c>
       <c r="I25" t="b">
+        <v>0</v>
+      </c>
+      <c r="J25" t="b">
         <v>0</v>
       </c>
     </row>
     <row r="26">
       <c r="A26" t="inlineStr">
         <is>
-          <t>🟧</t>
+          <t>🟥</t>
         </is>
       </c>
       <c r="B26" t="inlineStr">
         <is>
-          <t>NCT01965821</t>
-        </is>
-      </c>
-      <c r="C26" t="inlineStr"/>
-      <c r="D26" t="inlineStr">
+          <t>rouge</t>
+        </is>
+      </c>
+      <c r="C26" t="inlineStr">
+        <is>
+          <t>NCT03164746</t>
+        </is>
+      </c>
+      <c r="D26" t="inlineStr"/>
+      <c r="E26" t="inlineStr">
         <is>
           <t>2014</t>
         </is>
       </c>
-      <c r="E26" t="inlineStr">
-        <is>
-          <t>Impact of Mallinckrodt Electronic Device on Continuous Control of Tracheal Cuff Pressure</t>
-        </is>
-      </c>
       <c r="F26" t="inlineStr">
         <is>
-          <t>RCPBALSTAT</t>
-        </is>
-      </c>
-      <c r="G26" t="b">
-        <v>0</v>
+          <t>Demonstration of the Effectiveness of Treatment by Therapeutic Body Wraps in Children and Adolescents Suffering From Autism Spectrum Disorder With Severe Injurious Behavior.</t>
+        </is>
+      </c>
+      <c r="G26" t="inlineStr">
+        <is>
+          <t>PACKING</t>
+        </is>
       </c>
       <c r="H26" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I26" t="b">
+        <v>0</v>
+      </c>
+      <c r="J26" t="b">
         <v>1</v>
       </c>
     </row>
@@ -1389,32 +1519,33 @@
       </c>
       <c r="B27" t="inlineStr">
         <is>
-          <t>NCT03066362</t>
-        </is>
-      </c>
-      <c r="C27" t="inlineStr"/>
-      <c r="D27" t="inlineStr">
+          <t>rouge</t>
+        </is>
+      </c>
+      <c r="C27" t="inlineStr">
+        <is>
+          <t>NCT01341002</t>
+        </is>
+      </c>
+      <c r="D27" t="inlineStr"/>
+      <c r="E27" t="inlineStr">
         <is>
           <t>2014</t>
         </is>
       </c>
-      <c r="E27" t="inlineStr">
-        <is>
-          <t>Respiratory Variations of the Inferior Vena Cava and Femoral Artery Flow to Predict Fluid Responsiveness in Spontaneously Breathing Patients With Sepsis, Acute Circulatory Failure, and Regular Cardiac Rhythm</t>
-        </is>
-      </c>
       <c r="F27" t="inlineStr">
         <is>
-          <t>ReVaPreF</t>
-        </is>
-      </c>
-      <c r="G27" t="b">
-        <v>0</v>
-      </c>
+          <t>Red Blood Cells (RBC) Transfusion Related to Central Venous O2 Saturation</t>
+        </is>
+      </c>
+      <c r="G27" t="inlineStr"/>
       <c r="H27" t="b">
         <v>0</v>
       </c>
       <c r="I27" t="b">
+        <v>0</v>
+      </c>
+      <c r="J27" t="b">
         <v>0</v>
       </c>
     </row>
@@ -1426,69 +1557,79 @@
       </c>
       <c r="B28" t="inlineStr">
         <is>
-          <t>NCT03164746</t>
-        </is>
-      </c>
-      <c r="C28" t="inlineStr"/>
-      <c r="D28" t="inlineStr">
+          <t>rouge</t>
+        </is>
+      </c>
+      <c r="C28" t="inlineStr">
+        <is>
+          <t>NCT04354311</t>
+        </is>
+      </c>
+      <c r="D28" t="inlineStr"/>
+      <c r="E28" t="inlineStr">
         <is>
           <t>2014</t>
         </is>
       </c>
-      <c r="E28" t="inlineStr">
-        <is>
-          <t>Demonstration of the Effectiveness of Treatment by Therapeutic Body Wraps in Children and Adolescents Suffering From Autism Spectrum Disorder With Severe Injurious Behavior.</t>
-        </is>
-      </c>
       <c r="F28" t="inlineStr">
         <is>
-          <t>PACKING</t>
-        </is>
-      </c>
-      <c r="G28" t="b">
-        <v>0</v>
+          <t>Relationship Between the ANI Score During Standardized Painful Stimulation and the Nociceptive Response to Laryngoscopy Intubation</t>
+        </is>
+      </c>
+      <c r="G28" t="inlineStr">
+        <is>
+          <t>ANI_LARYNGO</t>
+        </is>
       </c>
       <c r="H28" t="b">
         <v>0</v>
       </c>
       <c r="I28" t="b">
+        <v>0</v>
+      </c>
+      <c r="J28" t="b">
         <v>1</v>
       </c>
     </row>
     <row r="29">
       <c r="A29" t="inlineStr">
         <is>
-          <t>🟥</t>
+          <t>🟧</t>
         </is>
       </c>
       <c r="B29" t="inlineStr">
         <is>
-          <t>NCT04354311</t>
-        </is>
-      </c>
-      <c r="C29" t="inlineStr"/>
-      <c r="D29" t="inlineStr">
+          <t>orange</t>
+        </is>
+      </c>
+      <c r="C29" t="inlineStr">
+        <is>
+          <t>NCT01965821</t>
+        </is>
+      </c>
+      <c r="D29" t="inlineStr"/>
+      <c r="E29" t="inlineStr">
         <is>
           <t>2014</t>
         </is>
       </c>
-      <c r="E29" t="inlineStr">
-        <is>
-          <t>Relationship Between the ANI Score During Standardized Painful Stimulation and the Nociceptive Response to Laryngoscopy Intubation</t>
-        </is>
-      </c>
       <c r="F29" t="inlineStr">
         <is>
-          <t>ANI_LARYNGO</t>
-        </is>
-      </c>
-      <c r="G29" t="b">
-        <v>0</v>
+          <t>Impact of Mallinckrodt Electronic Device on Continuous Control of Tracheal Cuff Pressure</t>
+        </is>
+      </c>
+      <c r="G29" t="inlineStr">
+        <is>
+          <t>RCPBALSTAT</t>
+        </is>
       </c>
       <c r="H29" t="b">
         <v>0</v>
       </c>
       <c r="I29" t="b">
+        <v>1</v>
+      </c>
+      <c r="J29" t="b">
         <v>1</v>
       </c>
     </row>
@@ -1500,29 +1641,38 @@
       </c>
       <c r="B30" t="inlineStr">
         <is>
-          <t>NCT01341002</t>
-        </is>
-      </c>
-      <c r="C30" t="inlineStr"/>
-      <c r="D30" t="inlineStr">
+          <t>rouge</t>
+        </is>
+      </c>
+      <c r="C30" t="inlineStr">
+        <is>
+          <t>NCT01123174</t>
+        </is>
+      </c>
+      <c r="D30" t="inlineStr"/>
+      <c r="E30" t="inlineStr">
         <is>
           <t>2014</t>
         </is>
       </c>
-      <c r="E30" t="inlineStr">
-        <is>
-          <t>Red Blood Cells (RBC) Transfusion Related to Central Venous O2 Saturation</t>
-        </is>
-      </c>
-      <c r="F30" t="inlineStr"/>
-      <c r="G30" t="b">
-        <v>0</v>
+      <c r="F30" t="inlineStr">
+        <is>
+          <t>Effectiveness of a "Case Management Algorithm" After a Suicide Attempt in Terms of Repetition of the Suicidal Behaviors and Medico-economic Impact</t>
+        </is>
+      </c>
+      <c r="G30" t="inlineStr">
+        <is>
+          <t>ALGOS</t>
+        </is>
       </c>
       <c r="H30" t="b">
         <v>0</v>
       </c>
       <c r="I30" t="b">
         <v>0</v>
+      </c>
+      <c r="J30" t="b">
+        <v>1</v>
       </c>
     </row>
     <row r="31">
@@ -1533,33 +1683,38 @@
       </c>
       <c r="B31" t="inlineStr">
         <is>
-          <t>NCT01123174</t>
-        </is>
-      </c>
-      <c r="C31" t="inlineStr"/>
-      <c r="D31" t="inlineStr">
+          <t>rouge</t>
+        </is>
+      </c>
+      <c r="C31" t="inlineStr">
+        <is>
+          <t>NCT03066362</t>
+        </is>
+      </c>
+      <c r="D31" t="inlineStr"/>
+      <c r="E31" t="inlineStr">
         <is>
           <t>2014</t>
         </is>
       </c>
-      <c r="E31" t="inlineStr">
-        <is>
-          <t>Effectiveness of a "Case Management Algorithm" After a Suicide Attempt in Terms of Repetition of the Suicidal Behaviors and Medico-economic Impact</t>
-        </is>
-      </c>
       <c r="F31" t="inlineStr">
         <is>
-          <t>ALGOS</t>
-        </is>
-      </c>
-      <c r="G31" t="b">
-        <v>0</v>
+          <t>Respiratory Variations of the Inferior Vena Cava and Femoral Artery Flow to Predict Fluid Responsiveness in Spontaneously Breathing Patients With Sepsis, Acute Circulatory Failure, and Regular Cardiac Rhythm</t>
+        </is>
+      </c>
+      <c r="G31" t="inlineStr">
+        <is>
+          <t>ReVaPreF</t>
+        </is>
       </c>
       <c r="H31" t="b">
         <v>0</v>
       </c>
       <c r="I31" t="b">
-        <v>1</v>
+        <v>0</v>
+      </c>
+      <c r="J31" t="b">
+        <v>0</v>
       </c>
     </row>
     <row r="32">
@@ -1570,33 +1725,34 @@
       </c>
       <c r="B32" t="inlineStr">
         <is>
-          <t>NCT02662725</t>
-        </is>
-      </c>
-      <c r="C32" t="inlineStr"/>
-      <c r="D32" t="inlineStr">
+          <t>rouge</t>
+        </is>
+      </c>
+      <c r="C32" t="inlineStr">
+        <is>
+          <t>NCT00937456</t>
+        </is>
+      </c>
+      <c r="D32" t="inlineStr"/>
+      <c r="E32" t="inlineStr">
         <is>
           <t>2015</t>
         </is>
       </c>
-      <c r="E32" t="inlineStr">
-        <is>
-          <t>A Multicenter Phase II Study of Ipilimumab Combined With a Stereotactic Radiosurgery in Melanoma Patients With Brain Metastases</t>
-        </is>
-      </c>
       <c r="F32" t="inlineStr">
         <is>
-          <t>IPI+RTS</t>
-        </is>
-      </c>
-      <c r="G32" t="b">
-        <v>0</v>
-      </c>
+          <t>Open vs Laparoscopically-assisted Esophagectomy for Cancer: A Multicentric Phase III Prospective Randomized Controlled Trial</t>
+        </is>
+      </c>
+      <c r="G32" t="inlineStr"/>
       <c r="H32" t="b">
         <v>0</v>
       </c>
       <c r="I32" t="b">
         <v>0</v>
+      </c>
+      <c r="J32" t="b">
+        <v>1</v>
       </c>
     </row>
     <row r="33">
@@ -1607,66 +1763,80 @@
       </c>
       <c r="B33" t="inlineStr">
         <is>
-          <t>NCT00937456</t>
-        </is>
-      </c>
-      <c r="C33" t="inlineStr"/>
-      <c r="D33" t="inlineStr">
+          <t>rouge</t>
+        </is>
+      </c>
+      <c r="C33" t="inlineStr">
+        <is>
+          <t>NCT01637441</t>
+        </is>
+      </c>
+      <c r="D33" t="inlineStr"/>
+      <c r="E33" t="inlineStr">
         <is>
           <t>2015</t>
         </is>
       </c>
-      <c r="E33" t="inlineStr">
-        <is>
-          <t>Open vs Laparoscopically-assisted Esophagectomy for Cancer: A Multicentric Phase III Prospective Randomized Controlled Trial</t>
-        </is>
-      </c>
-      <c r="F33" t="inlineStr"/>
-      <c r="G33" t="b">
-        <v>0</v>
+      <c r="F33" t="inlineStr">
+        <is>
+          <t>Randomized Study Comparing Laparoscopic Sacropexy and Vaginal Mesh Surgery in Cystocele Repair</t>
+        </is>
+      </c>
+      <c r="G33" t="inlineStr">
+        <is>
+          <t>PROSPERE</t>
+        </is>
       </c>
       <c r="H33" t="b">
         <v>0</v>
       </c>
       <c r="I33" t="b">
-        <v>1</v>
+        <v>0</v>
+      </c>
+      <c r="J33" t="b">
+        <v>0</v>
       </c>
     </row>
     <row r="34">
       <c r="A34" t="inlineStr">
         <is>
-          <t>🟧</t>
+          <t>🟥</t>
         </is>
       </c>
       <c r="B34" t="inlineStr">
         <is>
-          <t>NCT01948635</t>
-        </is>
-      </c>
-      <c r="C34" t="inlineStr"/>
-      <c r="D34" t="inlineStr">
+          <t>rouge</t>
+        </is>
+      </c>
+      <c r="C34" t="inlineStr">
+        <is>
+          <t>NCT03066375</t>
+        </is>
+      </c>
+      <c r="D34" t="inlineStr"/>
+      <c r="E34" t="inlineStr">
         <is>
           <t>2015</t>
         </is>
       </c>
-      <c r="E34" t="inlineStr">
-        <is>
-          <t>Impact of Tracheal Cuff Shape on Microaspiration in Intensive Care Units</t>
-        </is>
-      </c>
       <c r="F34" t="inlineStr">
         <is>
-          <t>BestCuff</t>
-        </is>
-      </c>
-      <c r="G34" t="b">
-        <v>0</v>
+          <t>Diagnostic Accuracy of the Inferior Vena Cava Collapsibility to Predict Fluid Responsiveness in Spontaneously Breathing Patients With Sepsis, Acute Circulatory Failure, and Irregular Cardiac Rhythm</t>
+        </is>
+      </c>
+      <c r="G34" t="inlineStr">
+        <is>
+          <t>ReVaPreF2</t>
+        </is>
       </c>
       <c r="H34" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I34" t="b">
-        <v>1</v>
+        <v>0</v>
+      </c>
+      <c r="J34" t="b">
+        <v>0</v>
       </c>
     </row>
     <row r="35">
@@ -1677,32 +1847,37 @@
       </c>
       <c r="B35" t="inlineStr">
         <is>
-          <t>NCT01637441</t>
-        </is>
-      </c>
-      <c r="C35" t="inlineStr"/>
-      <c r="D35" t="inlineStr">
+          <t>rouge</t>
+        </is>
+      </c>
+      <c r="C35" t="inlineStr">
+        <is>
+          <t>NCT01641627</t>
+        </is>
+      </c>
+      <c r="D35" t="inlineStr"/>
+      <c r="E35" t="inlineStr">
         <is>
           <t>2015</t>
         </is>
       </c>
-      <c r="E35" t="inlineStr">
-        <is>
-          <t>Randomized Study Comparing Laparoscopic Sacropexy and Vaginal Mesh Surgery in Cystocele Repair</t>
-        </is>
-      </c>
       <c r="F35" t="inlineStr">
         <is>
-          <t>PROSPERE</t>
-        </is>
-      </c>
-      <c r="G35" t="b">
-        <v>0</v>
+          <t>Phase 2 Randomized Clinical Trial, Efficy of a Proprioceptive Stimulation Device in Term of Prevention of Muscle Atrophy of the Calf After Total Knee Replacement</t>
+        </is>
+      </c>
+      <c r="G35" t="inlineStr">
+        <is>
+          <t>PrevAtrophy</t>
+        </is>
       </c>
       <c r="H35" t="b">
         <v>0</v>
       </c>
       <c r="I35" t="b">
+        <v>0</v>
+      </c>
+      <c r="J35" t="b">
         <v>0</v>
       </c>
     </row>
@@ -1714,69 +1889,79 @@
       </c>
       <c r="B36" t="inlineStr">
         <is>
-          <t>NCT01053949</t>
-        </is>
-      </c>
-      <c r="C36" t="inlineStr"/>
-      <c r="D36" t="inlineStr">
+          <t>vert</t>
+        </is>
+      </c>
+      <c r="C36" t="inlineStr">
+        <is>
+          <t>NCT01745640</t>
+        </is>
+      </c>
+      <c r="D36" t="inlineStr"/>
+      <c r="E36" t="inlineStr">
         <is>
           <t>2015</t>
         </is>
       </c>
-      <c r="E36" t="inlineStr">
-        <is>
-          <t>A Multicenter Randomized Open Label Phase II Study of Pomalidomide and Dexamethasone in Relapse and Refractory Multiple Myeloma Patients Who Are Progressive and Did Not Achieve at Least a Partial Response to Bortezomib and Lenalidomide</t>
-        </is>
-      </c>
       <c r="F36" t="inlineStr">
         <is>
-          <t>IFM2009-02</t>
-        </is>
-      </c>
-      <c r="G36" t="b">
-        <v>1</v>
+          <t>A Multicenter Open Label Phase II Study of Pomalidomide and Dexamethasone in Progressive Relapsed or Refractory Multiple Myeloma Patients With Deletion 17p or Translocation (4;14) Adverse Karyotypic Abnormalities-IFM2010-02</t>
+        </is>
+      </c>
+      <c r="G36" t="inlineStr">
+        <is>
+          <t>IFM2010-02</t>
+        </is>
       </c>
       <c r="H36" t="b">
         <v>1</v>
       </c>
       <c r="I36" t="b">
+        <v>1</v>
+      </c>
+      <c r="J36" t="b">
         <v>1</v>
       </c>
     </row>
     <row r="37">
       <c r="A37" t="inlineStr">
         <is>
-          <t>🟩</t>
+          <t>🟧</t>
         </is>
       </c>
       <c r="B37" t="inlineStr">
         <is>
-          <t>NCT01745640</t>
-        </is>
-      </c>
-      <c r="C37" t="inlineStr"/>
-      <c r="D37" t="inlineStr">
+          <t>orange</t>
+        </is>
+      </c>
+      <c r="C37" t="inlineStr">
+        <is>
+          <t>NCT02844101</t>
+        </is>
+      </c>
+      <c r="D37" t="inlineStr"/>
+      <c r="E37" t="inlineStr">
         <is>
           <t>2015</t>
         </is>
       </c>
-      <c r="E37" t="inlineStr">
-        <is>
-          <t>A Multicenter Open Label Phase II Study of Pomalidomide and Dexamethasone in Progressive Relapsed or Refractory Multiple Myeloma Patients With Deletion 17p or Translocation (4;14) Adverse Karyotypic Abnormalities-IFM2010-02</t>
-        </is>
-      </c>
       <c r="F37" t="inlineStr">
         <is>
-          <t>IFM2010-02</t>
-        </is>
-      </c>
-      <c r="G37" t="b">
-        <v>1</v>
+          <t>Assess Whether Knowledge by the Children and Adolescents of the Function of the Accelerometer Determines Its Amount of Physical Activity</t>
+        </is>
+      </c>
+      <c r="G37" t="inlineStr">
+        <is>
+          <t>ACCELORIX2</t>
+        </is>
       </c>
       <c r="H37" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I37" t="b">
+        <v>1</v>
+      </c>
+      <c r="J37" t="b">
         <v>1</v>
       </c>
     </row>
@@ -1788,107 +1973,122 @@
       </c>
       <c r="B38" t="inlineStr">
         <is>
-          <t>NCT02250755</t>
-        </is>
-      </c>
-      <c r="C38" t="inlineStr"/>
-      <c r="D38" t="inlineStr">
+          <t>rouge</t>
+        </is>
+      </c>
+      <c r="C38" t="inlineStr">
+        <is>
+          <t>NCT01713504</t>
+        </is>
+      </c>
+      <c r="D38" t="inlineStr"/>
+      <c r="E38" t="inlineStr">
         <is>
           <t>2015</t>
         </is>
       </c>
-      <c r="E38" t="inlineStr">
-        <is>
-          <t>Comparison of MRI Sequences T1 and T2 * Cerebral Perfusion to Aid in the Diagnosis and Evaluation of Brain Therapeutic Response With Chemotherapy or Targeted Therapy(s) Lesion(s) in Patients Treated and Followed for a Pulmonary Neoplasia</t>
-        </is>
-      </c>
       <c r="F38" t="inlineStr">
         <is>
-          <t>METAPERF</t>
-        </is>
-      </c>
-      <c r="G38" t="b">
-        <v>0</v>
+          <t>Identification of New Markers in the Hypereosinophilic Syndrome</t>
+        </is>
+      </c>
+      <c r="G38" t="inlineStr">
+        <is>
+          <t>SHE</t>
+        </is>
       </c>
       <c r="H38" t="b">
         <v>0</v>
       </c>
       <c r="I38" t="b">
+        <v>0</v>
+      </c>
+      <c r="J38" t="b">
         <v>0</v>
       </c>
     </row>
     <row r="39">
       <c r="A39" t="inlineStr">
         <is>
-          <t>🟧</t>
+          <t>🟩</t>
         </is>
       </c>
       <c r="B39" t="inlineStr">
         <is>
-          <t>NCT02844101</t>
-        </is>
-      </c>
-      <c r="C39" t="inlineStr"/>
-      <c r="D39" t="inlineStr">
+          <t>vert</t>
+        </is>
+      </c>
+      <c r="C39" t="inlineStr">
+        <is>
+          <t>NCT01053949</t>
+        </is>
+      </c>
+      <c r="D39" t="inlineStr"/>
+      <c r="E39" t="inlineStr">
         <is>
           <t>2015</t>
         </is>
       </c>
-      <c r="E39" t="inlineStr">
-        <is>
-          <t>Assess Whether Knowledge by the Children and Adolescents of the Function of the Accelerometer Determines Its Amount of Physical Activity</t>
-        </is>
-      </c>
       <c r="F39" t="inlineStr">
         <is>
-          <t>ACCELORIX2</t>
-        </is>
-      </c>
-      <c r="G39" t="b">
-        <v>0</v>
+          <t>A Multicenter Randomized Open Label Phase II Study of Pomalidomide and Dexamethasone in Relapse and Refractory Multiple Myeloma Patients Who Are Progressive and Did Not Achieve at Least a Partial Response to Bortezomib and Lenalidomide</t>
+        </is>
+      </c>
+      <c r="G39" t="inlineStr">
+        <is>
+          <t>IFM2009-02</t>
+        </is>
       </c>
       <c r="H39" t="b">
         <v>1</v>
       </c>
       <c r="I39" t="b">
+        <v>1</v>
+      </c>
+      <c r="J39" t="b">
         <v>1</v>
       </c>
     </row>
     <row r="40">
       <c r="A40" t="inlineStr">
         <is>
-          <t>🟥</t>
+          <t>🟧</t>
         </is>
       </c>
       <c r="B40" t="inlineStr">
         <is>
-          <t>NCT01713504</t>
-        </is>
-      </c>
-      <c r="C40" t="inlineStr"/>
-      <c r="D40" t="inlineStr">
+          <t>orange</t>
+        </is>
+      </c>
+      <c r="C40" t="inlineStr">
+        <is>
+          <t>NCT01948635</t>
+        </is>
+      </c>
+      <c r="D40" t="inlineStr"/>
+      <c r="E40" t="inlineStr">
         <is>
           <t>2015</t>
         </is>
       </c>
-      <c r="E40" t="inlineStr">
-        <is>
-          <t>Identification of New Markers in the Hypereosinophilic Syndrome</t>
-        </is>
-      </c>
       <c r="F40" t="inlineStr">
         <is>
-          <t>SHE</t>
-        </is>
-      </c>
-      <c r="G40" t="b">
-        <v>0</v>
+          <t>Impact of Tracheal Cuff Shape on Microaspiration in Intensive Care Units</t>
+        </is>
+      </c>
+      <c r="G40" t="inlineStr">
+        <is>
+          <t>BestCuff</t>
+        </is>
       </c>
       <c r="H40" t="b">
         <v>0</v>
       </c>
       <c r="I40" t="b">
-        <v>0</v>
+        <v>1</v>
+      </c>
+      <c r="J40" t="b">
+        <v>1</v>
       </c>
     </row>
     <row r="41">
@@ -1899,32 +2099,37 @@
       </c>
       <c r="B41" t="inlineStr">
         <is>
-          <t>NCT01641627</t>
-        </is>
-      </c>
-      <c r="C41" t="inlineStr"/>
-      <c r="D41" t="inlineStr">
+          <t>rouge</t>
+        </is>
+      </c>
+      <c r="C41" t="inlineStr">
+        <is>
+          <t>NCT02662725</t>
+        </is>
+      </c>
+      <c r="D41" t="inlineStr"/>
+      <c r="E41" t="inlineStr">
         <is>
           <t>2015</t>
         </is>
       </c>
-      <c r="E41" t="inlineStr">
-        <is>
-          <t>Phase 2 Randomized Clinical Trial, Efficy of a Proprioceptive Stimulation Device in Term of Prevention of Muscle Atrophy of the Calf After Total Knee Replacement</t>
-        </is>
-      </c>
       <c r="F41" t="inlineStr">
         <is>
-          <t>PrevAtrophy</t>
-        </is>
-      </c>
-      <c r="G41" t="b">
-        <v>0</v>
+          <t>A Multicenter Phase II Study of Ipilimumab Combined With a Stereotactic Radiosurgery in Melanoma Patients With Brain Metastases</t>
+        </is>
+      </c>
+      <c r="G41" t="inlineStr">
+        <is>
+          <t>IPI+RTS</t>
+        </is>
       </c>
       <c r="H41" t="b">
         <v>0</v>
       </c>
       <c r="I41" t="b">
+        <v>0</v>
+      </c>
+      <c r="J41" t="b">
         <v>0</v>
       </c>
     </row>
@@ -1936,32 +2141,37 @@
       </c>
       <c r="B42" t="inlineStr">
         <is>
-          <t>NCT03066375</t>
-        </is>
-      </c>
-      <c r="C42" t="inlineStr"/>
-      <c r="D42" t="inlineStr">
+          <t>rouge</t>
+        </is>
+      </c>
+      <c r="C42" t="inlineStr">
+        <is>
+          <t>NCT02250755</t>
+        </is>
+      </c>
+      <c r="D42" t="inlineStr"/>
+      <c r="E42" t="inlineStr">
         <is>
           <t>2015</t>
         </is>
       </c>
-      <c r="E42" t="inlineStr">
-        <is>
-          <t>Diagnostic Accuracy of the Inferior Vena Cava Collapsibility to Predict Fluid Responsiveness in Spontaneously Breathing Patients With Sepsis, Acute Circulatory Failure, and Irregular Cardiac Rhythm</t>
-        </is>
-      </c>
       <c r="F42" t="inlineStr">
         <is>
-          <t>ReVaPreF2</t>
-        </is>
-      </c>
-      <c r="G42" t="b">
-        <v>0</v>
+          <t>Comparison of MRI Sequences T1 and T2 * Cerebral Perfusion to Aid in the Diagnosis and Evaluation of Brain Therapeutic Response With Chemotherapy or Targeted Therapy(s) Lesion(s) in Patients Treated and Followed for a Pulmonary Neoplasia</t>
+        </is>
+      </c>
+      <c r="G42" t="inlineStr">
+        <is>
+          <t>METAPERF</t>
+        </is>
       </c>
       <c r="H42" t="b">
         <v>0</v>
       </c>
       <c r="I42" t="b">
+        <v>0</v>
+      </c>
+      <c r="J42" t="b">
         <v>0</v>
       </c>
     </row>
@@ -1973,29 +2183,38 @@
       </c>
       <c r="B43" t="inlineStr">
         <is>
-          <t>NCT02213302</t>
-        </is>
-      </c>
-      <c r="C43" t="inlineStr"/>
-      <c r="D43" t="inlineStr">
+          <t>rouge</t>
+        </is>
+      </c>
+      <c r="C43" t="inlineStr">
+        <is>
+          <t>NCT02164253</t>
+        </is>
+      </c>
+      <c r="D43" t="inlineStr"/>
+      <c r="E43" t="inlineStr">
         <is>
           <t>2016</t>
         </is>
       </c>
-      <c r="E43" t="inlineStr">
-        <is>
-          <t>Effects of Premedication by Midazolam on Preoperative Anxiety for Emergency Surgery</t>
-        </is>
-      </c>
-      <c r="F43" t="inlineStr"/>
-      <c r="G43" t="b">
-        <v>0</v>
+      <c r="F43" t="inlineStr">
+        <is>
+          <t>Feasibility and Safety Pilot Therapeutic Study of the Iron Chelator Deferiprone in Amyotrophic Lateral Sclerosis</t>
+        </is>
+      </c>
+      <c r="G43" t="inlineStr">
+        <is>
+          <t>SAFEFAIRALS</t>
+        </is>
       </c>
       <c r="H43" t="b">
         <v>0</v>
       </c>
       <c r="I43" t="b">
-        <v>1</v>
+        <v>0</v>
+      </c>
+      <c r="J43" t="b">
+        <v>0</v>
       </c>
     </row>
     <row r="44">
@@ -2006,99 +2225,118 @@
       </c>
       <c r="B44" t="inlineStr">
         <is>
-          <t>NCT01622400</t>
-        </is>
-      </c>
-      <c r="C44" t="inlineStr"/>
-      <c r="D44" t="inlineStr">
+          <t>rouge</t>
+        </is>
+      </c>
+      <c r="C44" t="inlineStr">
+        <is>
+          <t>NCT03751787</t>
+        </is>
+      </c>
+      <c r="D44" t="inlineStr"/>
+      <c r="E44" t="inlineStr">
         <is>
           <t>2016</t>
         </is>
       </c>
-      <c r="E44" t="inlineStr">
-        <is>
-          <t>Randomized Prospective Trial Evaluating the Efficacy of a Dedicated Therapeutic Education Program on the Blood Pressure and Other Cardiovascular Risk Factors Control in General Practice Patients at High Cardiovascular Risk</t>
-        </is>
-      </c>
-      <c r="F44" t="inlineStr"/>
-      <c r="G44" t="b">
-        <v>0</v>
-      </c>
+      <c r="F44" t="inlineStr">
+        <is>
+          <t>Interest of Treatment With Cranial Osteopathy in Functional Disorders of the Newborn</t>
+        </is>
+      </c>
+      <c r="G44" t="inlineStr"/>
       <c r="H44" t="b">
         <v>0</v>
       </c>
       <c r="I44" t="b">
+        <v>0</v>
+      </c>
+      <c r="J44" t="b">
         <v>0</v>
       </c>
     </row>
     <row r="45">
       <c r="A45" t="inlineStr">
         <is>
-          <t>🟥</t>
+          <t>🟩</t>
         </is>
       </c>
       <c r="B45" t="inlineStr">
         <is>
-          <t>NCT02242955</t>
-        </is>
-      </c>
-      <c r="C45" t="inlineStr"/>
-      <c r="D45" t="inlineStr">
+          <t>vert</t>
+        </is>
+      </c>
+      <c r="C45" t="inlineStr">
+        <is>
+          <t>NCT02154178</t>
+        </is>
+      </c>
+      <c r="D45" t="inlineStr"/>
+      <c r="E45" t="inlineStr">
         <is>
           <t>2016</t>
         </is>
       </c>
-      <c r="E45" t="inlineStr">
-        <is>
-          <t>Impact of a One-month Long Detoxification Diazepam Treatment on Early Alcohol Relapse</t>
-        </is>
-      </c>
       <c r="F45" t="inlineStr">
         <is>
-          <t>DIAMA</t>
-        </is>
-      </c>
-      <c r="G45" t="b">
-        <v>0</v>
+          <t>Fungal Biomarkers to Reduce Duration of Empirical Antifungal Therapy: a Randomized Comparative Study</t>
+        </is>
+      </c>
+      <c r="G45" t="inlineStr">
+        <is>
+          <t>STAFE</t>
+        </is>
       </c>
       <c r="H45" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I45" t="b">
-        <v>0</v>
+        <v>1</v>
+      </c>
+      <c r="J45" t="b">
+        <v>1</v>
       </c>
     </row>
     <row r="46">
       <c r="A46" t="inlineStr">
         <is>
-          <t>🟩</t>
+          <t>🟥</t>
         </is>
       </c>
       <c r="B46" t="inlineStr">
         <is>
-          <t>NCT01123187</t>
-        </is>
-      </c>
-      <c r="C46" t="inlineStr"/>
-      <c r="D46" t="inlineStr">
+          <t>rouge</t>
+        </is>
+      </c>
+      <c r="C46" t="inlineStr">
+        <is>
+          <t>NCT04146675</t>
+        </is>
+      </c>
+      <c r="D46" t="inlineStr"/>
+      <c r="E46" t="inlineStr">
         <is>
           <t>2016</t>
         </is>
       </c>
-      <c r="E46" t="inlineStr">
-        <is>
-          <t>Phase 2 Study of Islet Cell Transplantation in Patients With Type I Diabetes With Previous Kidney Transplantation With Steroid Free Immunosuppression</t>
-        </is>
-      </c>
-      <c r="F46" t="inlineStr"/>
-      <c r="G46" t="b">
-        <v>1</v>
+      <c r="F46" t="inlineStr">
+        <is>
+          <t>Pilot Study for the Evaluation of a T-shirt "Balance" Containing Ceramic Fibers</t>
+        </is>
+      </c>
+      <c r="G46" t="inlineStr">
+        <is>
+          <t>Equi-tee-shirt</t>
+        </is>
       </c>
       <c r="H46" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I46" t="b">
-        <v>1</v>
+        <v>0</v>
+      </c>
+      <c r="J46" t="b">
+        <v>0</v>
       </c>
     </row>
     <row r="47">
@@ -2109,32 +2347,37 @@
       </c>
       <c r="B47" t="inlineStr">
         <is>
-          <t>NCT04146675</t>
-        </is>
-      </c>
-      <c r="C47" t="inlineStr"/>
-      <c r="D47" t="inlineStr">
+          <t>rouge</t>
+        </is>
+      </c>
+      <c r="C47" t="inlineStr">
+        <is>
+          <t>NCT00946959</t>
+        </is>
+      </c>
+      <c r="D47" t="inlineStr"/>
+      <c r="E47" t="inlineStr">
         <is>
           <t>2016</t>
         </is>
       </c>
-      <c r="E47" t="inlineStr">
-        <is>
-          <t>Pilot Study for the Evaluation of a T-shirt "Balance" Containing Ceramic Fibers</t>
-        </is>
-      </c>
       <c r="F47" t="inlineStr">
         <is>
-          <t>Equi-tee-shirt</t>
-        </is>
-      </c>
-      <c r="G47" t="b">
-        <v>0</v>
+          <t>Characterization of Factors Influencing the Occurrence of Cognitive Decline in Patients With Coronary Artery Disease and Undergoing Cardiac Surgery and Coronary Angioplasty</t>
+        </is>
+      </c>
+      <c r="G47" t="inlineStr">
+        <is>
+          <t>COGCAR</t>
+        </is>
       </c>
       <c r="H47" t="b">
         <v>0</v>
       </c>
       <c r="I47" t="b">
+        <v>0</v>
+      </c>
+      <c r="J47" t="b">
         <v>0</v>
       </c>
     </row>
@@ -2146,32 +2389,33 @@
       </c>
       <c r="B48" t="inlineStr">
         <is>
-          <t>NCT00946959</t>
-        </is>
-      </c>
-      <c r="C48" t="inlineStr"/>
-      <c r="D48" t="inlineStr">
+          <t>rouge</t>
+        </is>
+      </c>
+      <c r="C48" t="inlineStr">
+        <is>
+          <t>NCT01622400</t>
+        </is>
+      </c>
+      <c r="D48" t="inlineStr"/>
+      <c r="E48" t="inlineStr">
         <is>
           <t>2016</t>
         </is>
       </c>
-      <c r="E48" t="inlineStr">
-        <is>
-          <t>Characterization of Factors Influencing the Occurrence of Cognitive Decline in Patients With Coronary Artery Disease and Undergoing Cardiac Surgery and Coronary Angioplasty</t>
-        </is>
-      </c>
       <c r="F48" t="inlineStr">
         <is>
-          <t>COGCAR</t>
-        </is>
-      </c>
-      <c r="G48" t="b">
-        <v>0</v>
-      </c>
+          <t>Randomized Prospective Trial Evaluating the Efficacy of a Dedicated Therapeutic Education Program on the Blood Pressure and Other Cardiovascular Risk Factors Control in General Practice Patients at High Cardiovascular Risk</t>
+        </is>
+      </c>
+      <c r="G48" t="inlineStr"/>
       <c r="H48" t="b">
         <v>0</v>
       </c>
       <c r="I48" t="b">
+        <v>0</v>
+      </c>
+      <c r="J48" t="b">
         <v>0</v>
       </c>
     </row>
@@ -2183,32 +2427,33 @@
       </c>
       <c r="B49" t="inlineStr">
         <is>
-          <t>NCT02154178</t>
-        </is>
-      </c>
-      <c r="C49" t="inlineStr"/>
-      <c r="D49" t="inlineStr">
+          <t>vert</t>
+        </is>
+      </c>
+      <c r="C49" t="inlineStr">
+        <is>
+          <t>NCT01123187</t>
+        </is>
+      </c>
+      <c r="D49" t="inlineStr"/>
+      <c r="E49" t="inlineStr">
         <is>
           <t>2016</t>
         </is>
       </c>
-      <c r="E49" t="inlineStr">
-        <is>
-          <t>Fungal Biomarkers to Reduce Duration of Empirical Antifungal Therapy: a Randomized Comparative Study</t>
-        </is>
-      </c>
       <c r="F49" t="inlineStr">
         <is>
-          <t>STAFE</t>
-        </is>
-      </c>
-      <c r="G49" t="b">
-        <v>1</v>
-      </c>
+          <t>Phase 2 Study of Islet Cell Transplantation in Patients With Type I Diabetes With Previous Kidney Transplantation With Steroid Free Immunosuppression</t>
+        </is>
+      </c>
+      <c r="G49" t="inlineStr"/>
       <c r="H49" t="b">
         <v>1</v>
       </c>
       <c r="I49" t="b">
+        <v>1</v>
+      </c>
+      <c r="J49" t="b">
         <v>1</v>
       </c>
     </row>
@@ -2220,32 +2465,37 @@
       </c>
       <c r="B50" t="inlineStr">
         <is>
-          <t>NCT02164253</t>
-        </is>
-      </c>
-      <c r="C50" t="inlineStr"/>
-      <c r="D50" t="inlineStr">
+          <t>rouge</t>
+        </is>
+      </c>
+      <c r="C50" t="inlineStr">
+        <is>
+          <t>NCT02364908</t>
+        </is>
+      </c>
+      <c r="D50" t="inlineStr"/>
+      <c r="E50" t="inlineStr">
         <is>
           <t>2016</t>
         </is>
       </c>
-      <c r="E50" t="inlineStr">
-        <is>
-          <t>Feasibility and Safety Pilot Therapeutic Study of the Iron Chelator Deferiprone in Amyotrophic Lateral Sclerosis</t>
-        </is>
-      </c>
       <c r="F50" t="inlineStr">
         <is>
-          <t>SAFEFAIRALS</t>
-        </is>
-      </c>
-      <c r="G50" t="b">
-        <v>0</v>
+          <t>Prospective Evaluation of Adherence to Antimalarials in Patients With Systemic Lupus and Role of Therapeutic Education</t>
+        </is>
+      </c>
+      <c r="G50" t="inlineStr">
+        <is>
+          <t>ESSTIM</t>
+        </is>
       </c>
       <c r="H50" t="b">
         <v>0</v>
       </c>
       <c r="I50" t="b">
+        <v>0</v>
+      </c>
+      <c r="J50" t="b">
         <v>0</v>
       </c>
     </row>
@@ -2257,28 +2507,37 @@
       </c>
       <c r="B51" t="inlineStr">
         <is>
-          <t>NCT03751787</t>
-        </is>
-      </c>
-      <c r="C51" t="inlineStr"/>
-      <c r="D51" t="inlineStr">
+          <t>rouge</t>
+        </is>
+      </c>
+      <c r="C51" t="inlineStr">
+        <is>
+          <t>NCT02750150</t>
+        </is>
+      </c>
+      <c r="D51" t="inlineStr"/>
+      <c r="E51" t="inlineStr">
         <is>
           <t>2016</t>
         </is>
       </c>
-      <c r="E51" t="inlineStr">
-        <is>
-          <t>Interest of Treatment With Cranial Osteopathy in Functional Disorders of the Newborn</t>
-        </is>
-      </c>
-      <c r="F51" t="inlineStr"/>
-      <c r="G51" t="b">
-        <v>0</v>
+      <c r="F51" t="inlineStr">
+        <is>
+          <t>A Randomized Trial to Evaluate Freezed-dried Plasma in the Initial Management of Coagulopathy in Trauma Patients</t>
+        </is>
+      </c>
+      <c r="G51" t="inlineStr">
+        <is>
+          <t>TrauCC</t>
+        </is>
       </c>
       <c r="H51" t="b">
         <v>0</v>
       </c>
       <c r="I51" t="b">
+        <v>0</v>
+      </c>
+      <c r="J51" t="b">
         <v>0</v>
       </c>
     </row>
@@ -2290,32 +2549,37 @@
       </c>
       <c r="B52" t="inlineStr">
         <is>
-          <t>NCT02364908</t>
-        </is>
-      </c>
-      <c r="C52" t="inlineStr"/>
-      <c r="D52" t="inlineStr">
+          <t>rouge</t>
+        </is>
+      </c>
+      <c r="C52" t="inlineStr">
+        <is>
+          <t>NCT02242955</t>
+        </is>
+      </c>
+      <c r="D52" t="inlineStr"/>
+      <c r="E52" t="inlineStr">
         <is>
           <t>2016</t>
         </is>
       </c>
-      <c r="E52" t="inlineStr">
-        <is>
-          <t>Prospective Evaluation of Adherence to Antimalarials in Patients With Systemic Lupus and Role of Therapeutic Education</t>
-        </is>
-      </c>
       <c r="F52" t="inlineStr">
         <is>
-          <t>ESSTIM</t>
-        </is>
-      </c>
-      <c r="G52" t="b">
-        <v>0</v>
+          <t>Impact of a One-month Long Detoxification Diazepam Treatment on Early Alcohol Relapse</t>
+        </is>
+      </c>
+      <c r="G52" t="inlineStr">
+        <is>
+          <t>DIAMA</t>
+        </is>
       </c>
       <c r="H52" t="b">
         <v>0</v>
       </c>
       <c r="I52" t="b">
+        <v>0</v>
+      </c>
+      <c r="J52" t="b">
         <v>0</v>
       </c>
     </row>
@@ -2327,107 +2591,118 @@
       </c>
       <c r="B53" t="inlineStr">
         <is>
-          <t>NCT02750150</t>
-        </is>
-      </c>
-      <c r="C53" t="inlineStr"/>
-      <c r="D53" t="inlineStr">
+          <t>rouge</t>
+        </is>
+      </c>
+      <c r="C53" t="inlineStr">
+        <is>
+          <t>NCT02213302</t>
+        </is>
+      </c>
+      <c r="D53" t="inlineStr"/>
+      <c r="E53" t="inlineStr">
         <is>
           <t>2016</t>
         </is>
       </c>
-      <c r="E53" t="inlineStr">
-        <is>
-          <t>A Randomized Trial to Evaluate Freezed-dried Plasma in the Initial Management of Coagulopathy in Trauma Patients</t>
-        </is>
-      </c>
       <c r="F53" t="inlineStr">
         <is>
-          <t>TrauCC</t>
-        </is>
-      </c>
-      <c r="G53" t="b">
-        <v>0</v>
-      </c>
+          <t>Effects of Premedication by Midazolam on Preoperative Anxiety for Emergency Surgery</t>
+        </is>
+      </c>
+      <c r="G53" t="inlineStr"/>
       <c r="H53" t="b">
         <v>0</v>
       </c>
       <c r="I53" t="b">
         <v>0</v>
+      </c>
+      <c r="J53" t="b">
+        <v>1</v>
       </c>
     </row>
     <row r="54">
       <c r="A54" t="inlineStr">
         <is>
-          <t>🟩</t>
+          <t>🟥</t>
         </is>
       </c>
       <c r="B54" t="inlineStr">
         <is>
-          <t>NCT02302469</t>
-        </is>
-      </c>
-      <c r="C54" t="inlineStr"/>
-      <c r="D54" t="inlineStr">
+          <t>rouge</t>
+        </is>
+      </c>
+      <c r="C54" t="inlineStr">
+        <is>
+          <t>NCT03280290</t>
+        </is>
+      </c>
+      <c r="D54" t="inlineStr"/>
+      <c r="E54" t="inlineStr">
         <is>
           <t>2017</t>
         </is>
       </c>
-      <c r="E54" t="inlineStr">
-        <is>
-          <t>A Multicenter Phase I/II Dose Escalation Study of Lenalidomide in Relapse/Refractory Waldenstrom Macroglobulinemia</t>
-        </is>
-      </c>
       <c r="F54" t="inlineStr">
         <is>
-          <t>RV-WM-0426</t>
-        </is>
-      </c>
-      <c r="G54" t="b">
-        <v>1</v>
+          <t>Partial Selective Depletion in Lymphocytes Transplant T CD4+ CCR7+ in Hematopoeitic Stem Cells Allograft</t>
+        </is>
+      </c>
+      <c r="G54" t="inlineStr">
+        <is>
+          <t>CCR7-CD4-DPL</t>
+        </is>
       </c>
       <c r="H54" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I54" t="b">
-        <v>1</v>
+        <v>0</v>
+      </c>
+      <c r="J54" t="b">
+        <v>0</v>
       </c>
     </row>
     <row r="55">
       <c r="A55" t="inlineStr">
         <is>
-          <t>🟥</t>
+          <t>🟧</t>
         </is>
       </c>
       <c r="B55" t="inlineStr">
         <is>
-          <t>NCT02969733</t>
-        </is>
-      </c>
-      <c r="C55" t="inlineStr"/>
-      <c r="D55" t="inlineStr">
+          <t>orange</t>
+        </is>
+      </c>
+      <c r="C55" t="inlineStr">
+        <is>
+          <t>NCT03286660</t>
+        </is>
+      </c>
+      <c r="D55" t="inlineStr"/>
+      <c r="E55" t="inlineStr">
         <is>
           <t>2017</t>
         </is>
       </c>
-      <c r="E55" t="inlineStr">
-        <is>
-          <t>The Interest of the Xylocaine® and Ketamine on the Per and Postoperative Management of Acute and Chronic Postoperative Pain After Colectomy by Laparoscopy</t>
-        </is>
-      </c>
       <c r="F55" t="inlineStr">
         <is>
-          <t>KETALIDO</t>
-        </is>
-      </c>
-      <c r="G55" t="b">
-        <v>0</v>
+          <t>Chair Rise Tests for a Simplified Evaluation of Functional Response After a Rehabilitation Program in Patients COPD.</t>
+        </is>
+      </c>
+      <c r="G55" t="inlineStr">
+        <is>
+          <t>3CRT</t>
+        </is>
       </c>
       <c r="H55" t="b">
         <v>0</v>
       </c>
       <c r="I55" t="b">
-        <v>0</v>
+        <v>1</v>
+      </c>
+      <c r="J55" t="b">
+        <v>1</v>
       </c>
     </row>
     <row r="56">
@@ -2438,32 +2713,37 @@
       </c>
       <c r="B56" t="inlineStr">
         <is>
+          <t>orange</t>
+        </is>
+      </c>
+      <c r="C56" t="inlineStr">
+        <is>
           <t>NCT02905071</t>
         </is>
       </c>
-      <c r="C56" t="inlineStr"/>
-      <c r="D56" t="inlineStr">
+      <c r="D56" t="inlineStr"/>
+      <c r="E56" t="inlineStr">
         <is>
           <t>2017</t>
         </is>
       </c>
-      <c r="E56" t="inlineStr">
+      <c r="F56" t="inlineStr">
         <is>
           <t>Study of the Psychometric Properties of the Scale of Well-being at Work: The Serenat Study</t>
         </is>
       </c>
-      <c r="F56" t="inlineStr">
+      <c r="G56" t="inlineStr">
         <is>
           <t>SERENAT</t>
         </is>
       </c>
-      <c r="G56" t="b">
-        <v>0</v>
-      </c>
       <c r="H56" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I56" t="b">
+        <v>1</v>
+      </c>
+      <c r="J56" t="b">
         <v>1</v>
       </c>
     </row>
@@ -2475,28 +2755,37 @@
       </c>
       <c r="B57" t="inlineStr">
         <is>
-          <t>NCT02902016</t>
-        </is>
-      </c>
-      <c r="C57" t="inlineStr"/>
-      <c r="D57" t="inlineStr">
+          <t>rouge</t>
+        </is>
+      </c>
+      <c r="C57" t="inlineStr">
+        <is>
+          <t>NCT02969733</t>
+        </is>
+      </c>
+      <c r="D57" t="inlineStr"/>
+      <c r="E57" t="inlineStr">
         <is>
           <t>2017</t>
         </is>
       </c>
-      <c r="E57" t="inlineStr">
-        <is>
-          <t>Modulation of Lactase Expression by a New Synthetic PPARgamma Ligand in Ex-vivo Cultures of Duodenal Biopsies</t>
-        </is>
-      </c>
-      <c r="F57" t="inlineStr"/>
-      <c r="G57" t="b">
-        <v>0</v>
+      <c r="F57" t="inlineStr">
+        <is>
+          <t>The Interest of the Xylocaine® and Ketamine on the Per and Postoperative Management of Acute and Chronic Postoperative Pain After Colectomy by Laparoscopy</t>
+        </is>
+      </c>
+      <c r="G57" t="inlineStr">
+        <is>
+          <t>KETALIDO</t>
+        </is>
       </c>
       <c r="H57" t="b">
         <v>0</v>
       </c>
       <c r="I57" t="b">
+        <v>0</v>
+      </c>
+      <c r="J57" t="b">
         <v>0</v>
       </c>
     </row>
@@ -2508,65 +2797,79 @@
       </c>
       <c r="B58" t="inlineStr">
         <is>
-          <t>NCT02193412</t>
-        </is>
-      </c>
-      <c r="C58" t="inlineStr"/>
-      <c r="D58" t="inlineStr">
+          <t>rouge</t>
+        </is>
+      </c>
+      <c r="C58" t="inlineStr">
+        <is>
+          <t>NCT01488214</t>
+        </is>
+      </c>
+      <c r="D58" t="inlineStr"/>
+      <c r="E58" t="inlineStr">
         <is>
           <t>2017</t>
         </is>
       </c>
-      <c r="E58" t="inlineStr">
-        <is>
-          <t>Influence of Variations of Systemic Venous Return on Analgesia Nociception Index (ANI) During General Anaesthesia</t>
-        </is>
-      </c>
-      <c r="F58" t="inlineStr"/>
-      <c r="G58" t="b">
-        <v>0</v>
+      <c r="F58" t="inlineStr">
+        <is>
+          <t>Assessment of Neuropsychiatric Involvement in Systemic Sclerosis.</t>
+        </is>
+      </c>
+      <c r="G58" t="inlineStr">
+        <is>
+          <t>NeuroScS</t>
+        </is>
       </c>
       <c r="H58" t="b">
         <v>0</v>
       </c>
       <c r="I58" t="b">
         <v>0</v>
+      </c>
+      <c r="J58" t="b">
+        <v>1</v>
       </c>
     </row>
     <row r="59">
       <c r="A59" t="inlineStr">
         <is>
-          <t>🟥</t>
+          <t>🟧</t>
         </is>
       </c>
       <c r="B59" t="inlineStr">
         <is>
-          <t>NCT01488214</t>
-        </is>
-      </c>
-      <c r="C59" t="inlineStr"/>
-      <c r="D59" t="inlineStr">
+          <t>orange</t>
+        </is>
+      </c>
+      <c r="C59" t="inlineStr">
+        <is>
+          <t>NCT03076892</t>
+        </is>
+      </c>
+      <c r="D59" t="inlineStr"/>
+      <c r="E59" t="inlineStr">
         <is>
           <t>2017</t>
         </is>
       </c>
-      <c r="E59" t="inlineStr">
-        <is>
-          <t>Assessment of Neuropsychiatric Involvement in Systemic Sclerosis.</t>
-        </is>
-      </c>
       <c r="F59" t="inlineStr">
         <is>
-          <t>NeuroScS</t>
-        </is>
-      </c>
-      <c r="G59" t="b">
-        <v>0</v>
+          <t>A Phase II Study Evaluating the Non-inferiority and Better Tolerability of the Device PHOS-ISTOS Compared to the Conventional Photodynamic Therapy (PDT)</t>
+        </is>
+      </c>
+      <c r="G59" t="inlineStr">
+        <is>
+          <t>PHOS-ISTOS</t>
+        </is>
       </c>
       <c r="H59" t="b">
         <v>0</v>
       </c>
       <c r="I59" t="b">
+        <v>1</v>
+      </c>
+      <c r="J59" t="b">
         <v>1</v>
       </c>
     </row>
@@ -2578,70 +2881,80 @@
       </c>
       <c r="B60" t="inlineStr">
         <is>
+          <t>rouge</t>
+        </is>
+      </c>
+      <c r="C60" t="inlineStr">
+        <is>
           <t>NCT03749304</t>
         </is>
       </c>
-      <c r="C60" t="inlineStr"/>
-      <c r="D60" t="inlineStr">
+      <c r="D60" t="inlineStr"/>
+      <c r="E60" t="inlineStr">
         <is>
           <t>2017</t>
         </is>
       </c>
-      <c r="E60" t="inlineStr">
+      <c r="F60" t="inlineStr">
         <is>
           <t>Monitoring Analgesia by ANI (Analgesia The Nociception Index) During Surgery Inflammatory Bowel</t>
         </is>
       </c>
-      <c r="F60" t="inlineStr">
+      <c r="G60" t="inlineStr">
         <is>
           <t>ANI-MICI</t>
         </is>
       </c>
-      <c r="G60" t="b">
-        <v>0</v>
-      </c>
       <c r="H60" t="b">
         <v>0</v>
       </c>
       <c r="I60" t="b">
+        <v>0</v>
+      </c>
+      <c r="J60" t="b">
         <v>0</v>
       </c>
     </row>
     <row r="61">
       <c r="A61" t="inlineStr">
         <is>
-          <t>🟥</t>
-        </is>
-      </c>
-      <c r="B61" t="inlineStr"/>
+          <t>🟩</t>
+        </is>
+      </c>
+      <c r="B61" t="inlineStr">
+        <is>
+          <t>vert</t>
+        </is>
+      </c>
       <c r="C61" t="inlineStr">
         <is>
-          <t>2012-000770-36</t>
-        </is>
-      </c>
-      <c r="D61" t="inlineStr">
+          <t>NCT02302469</t>
+        </is>
+      </c>
+      <c r="D61" t="inlineStr"/>
+      <c r="E61" t="inlineStr">
         <is>
           <t>2017</t>
         </is>
       </c>
-      <c r="E61" t="inlineStr">
-        <is>
-          <t>Efficacité et tolérance du nilotinib chez les patients atteints d'une maladie chronique du greffon contre l’hôte (Graft Versus Host, GVH) n'ayant pas répondu à l'imatinib mésilate.</t>
-        </is>
-      </c>
       <c r="F61" t="inlineStr">
         <is>
-          <t>Double ITK-GVHc</t>
-        </is>
-      </c>
-      <c r="G61" t="b">
-        <v>0</v>
+          <t>A Multicenter Phase I/II Dose Escalation Study of Lenalidomide in Relapse/Refractory Waldenstrom Macroglobulinemia</t>
+        </is>
+      </c>
+      <c r="G61" t="inlineStr">
+        <is>
+          <t>RV-WM-0426</t>
+        </is>
       </c>
       <c r="H61" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I61" t="b">
-        <v>0</v>
+        <v>1</v>
+      </c>
+      <c r="J61" t="b">
+        <v>1</v>
       </c>
     </row>
     <row r="62">
@@ -2652,28 +2965,33 @@
       </c>
       <c r="B62" t="inlineStr">
         <is>
-          <t>NCT03509805</t>
-        </is>
-      </c>
-      <c r="C62" t="inlineStr"/>
-      <c r="D62" t="inlineStr">
+          <t>rouge</t>
+        </is>
+      </c>
+      <c r="C62" t="inlineStr">
+        <is>
+          <t>NCT02902016</t>
+        </is>
+      </c>
+      <c r="D62" t="inlineStr"/>
+      <c r="E62" t="inlineStr">
         <is>
           <t>2017</t>
         </is>
       </c>
-      <c r="E62" t="inlineStr">
-        <is>
-          <t>Sleep Apnea Syndrome in Obese Women During Pregnancy</t>
-        </is>
-      </c>
-      <c r="F62" t="inlineStr"/>
-      <c r="G62" t="b">
-        <v>0</v>
-      </c>
+      <c r="F62" t="inlineStr">
+        <is>
+          <t>Modulation of Lactase Expression by a New Synthetic PPARgamma Ligand in Ex-vivo Cultures of Duodenal Biopsies</t>
+        </is>
+      </c>
+      <c r="G62" t="inlineStr"/>
       <c r="H62" t="b">
         <v>0</v>
       </c>
       <c r="I62" t="b">
+        <v>0</v>
+      </c>
+      <c r="J62" t="b">
         <v>0</v>
       </c>
     </row>
@@ -2685,144 +3003,160 @@
       </c>
       <c r="B63" t="inlineStr">
         <is>
-          <t>NCT02778178</t>
-        </is>
-      </c>
-      <c r="C63" t="inlineStr"/>
-      <c r="D63" t="inlineStr">
+          <t>rouge</t>
+        </is>
+      </c>
+      <c r="C63" t="inlineStr">
+        <is>
+          <t>NCT02193412</t>
+        </is>
+      </c>
+      <c r="D63" t="inlineStr"/>
+      <c r="E63" t="inlineStr">
         <is>
           <t>2017</t>
         </is>
       </c>
-      <c r="E63" t="inlineStr">
-        <is>
-          <t>Analgesic Efficacy of Transversus Abdominis Plane (TAP) Block After Lumbar Spine Surgery Through Anterior Approach (Anterior Lumbar or Direct Lateral Interbody Fusion): a Prospective, Randomized, Double-blind Placebo-controlled Study</t>
-        </is>
-      </c>
       <c r="F63" t="inlineStr">
         <is>
-          <t>TAP-LIF</t>
-        </is>
-      </c>
-      <c r="G63" t="b">
-        <v>0</v>
-      </c>
+          <t>Influence of Variations of Systemic Venous Return on Analgesia Nociception Index (ANI) During General Anaesthesia</t>
+        </is>
+      </c>
+      <c r="G63" t="inlineStr"/>
       <c r="H63" t="b">
         <v>0</v>
       </c>
       <c r="I63" t="b">
+        <v>0</v>
+      </c>
+      <c r="J63" t="b">
         <v>0</v>
       </c>
     </row>
     <row r="64">
       <c r="A64" t="inlineStr">
         <is>
-          <t>🟥</t>
+          <t>🟩</t>
         </is>
       </c>
       <c r="B64" t="inlineStr">
         <is>
-          <t>NCT02891395</t>
-        </is>
-      </c>
-      <c r="C64" t="inlineStr"/>
-      <c r="D64" t="inlineStr">
+          <t>vert</t>
+        </is>
+      </c>
+      <c r="C64" t="inlineStr">
+        <is>
+          <t>NCT02812901</t>
+        </is>
+      </c>
+      <c r="D64" t="inlineStr"/>
+      <c r="E64" t="inlineStr">
         <is>
           <t>2017</t>
         </is>
       </c>
-      <c r="E64" t="inlineStr">
-        <is>
-          <t>Efficacy and Safety of Nilotinib in Patients With a Chronic Disease of the Graft Against the Host (Graft Versus Host, GVH) Did Not Respond to Imatinib Mesylate.</t>
-        </is>
-      </c>
       <c r="F64" t="inlineStr">
         <is>
-          <t>DoubleITK</t>
-        </is>
-      </c>
-      <c r="G64" t="b">
-        <v>0</v>
+          <t>Morning / Afternoon Variation in Myocardial Ischemia Tolerance</t>
+        </is>
+      </c>
+      <c r="G64" t="inlineStr">
+        <is>
+          <t>TOMIS</t>
+        </is>
       </c>
       <c r="H64" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I64" t="b">
-        <v>0</v>
+        <v>1</v>
+      </c>
+      <c r="J64" t="b">
+        <v>1</v>
       </c>
     </row>
     <row r="65">
       <c r="A65" t="inlineStr">
         <is>
-          <t>🟩</t>
+          <t>🟥</t>
         </is>
       </c>
       <c r="B65" t="inlineStr">
         <is>
-          <t>NCT02812901</t>
-        </is>
-      </c>
-      <c r="C65" t="inlineStr"/>
-      <c r="D65" t="inlineStr">
+          <t>rouge</t>
+        </is>
+      </c>
+      <c r="C65" t="inlineStr">
+        <is>
+          <t>NCT03185403</t>
+        </is>
+      </c>
+      <c r="D65" t="inlineStr"/>
+      <c r="E65" t="inlineStr">
         <is>
           <t>2017</t>
         </is>
       </c>
-      <c r="E65" t="inlineStr">
-        <is>
-          <t>Morning / Afternoon Variation in Myocardial Ischemia Tolerance</t>
-        </is>
-      </c>
       <c r="F65" t="inlineStr">
         <is>
-          <t>TOMIS</t>
-        </is>
-      </c>
-      <c r="G65" t="b">
-        <v>1</v>
+          <t>Comparison of the Hemodynamic Effect Between the Paravertebral Block and Thoracic Epidural in Esophageal Surgery With Thoracotomy .</t>
+        </is>
+      </c>
+      <c r="G65" t="inlineStr">
+        <is>
+          <t>HEMOBLOC</t>
+        </is>
       </c>
       <c r="H65" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I65" t="b">
-        <v>1</v>
+        <v>0</v>
+      </c>
+      <c r="J65" t="b">
+        <v>0</v>
       </c>
     </row>
     <row r="66">
       <c r="A66" t="inlineStr">
         <is>
-          <t>🟧</t>
+          <t>🟥</t>
         </is>
       </c>
       <c r="B66" t="inlineStr">
         <is>
-          <t>NCT03286660</t>
-        </is>
-      </c>
-      <c r="C66" t="inlineStr"/>
-      <c r="D66" t="inlineStr">
+          <t>rouge</t>
+        </is>
+      </c>
+      <c r="C66" t="inlineStr">
+        <is>
+          <t>NCT02778178</t>
+        </is>
+      </c>
+      <c r="D66" t="inlineStr"/>
+      <c r="E66" t="inlineStr">
         <is>
           <t>2017</t>
         </is>
       </c>
-      <c r="E66" t="inlineStr">
-        <is>
-          <t>Chair Rise Tests for a Simplified Evaluation of Functional Response After a Rehabilitation Program in Patients COPD.</t>
-        </is>
-      </c>
       <c r="F66" t="inlineStr">
         <is>
-          <t>3CRT</t>
-        </is>
-      </c>
-      <c r="G66" t="b">
-        <v>0</v>
+          <t>Analgesic Efficacy of Transversus Abdominis Plane (TAP) Block After Lumbar Spine Surgery Through Anterior Approach (Anterior Lumbar or Direct Lateral Interbody Fusion): a Prospective, Randomized, Double-blind Placebo-controlled Study</t>
+        </is>
+      </c>
+      <c r="G66" t="inlineStr">
+        <is>
+          <t>TAP-LIF</t>
+        </is>
       </c>
       <c r="H66" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I66" t="b">
-        <v>1</v>
+        <v>0</v>
+      </c>
+      <c r="J66" t="b">
+        <v>0</v>
       </c>
     </row>
     <row r="67">
@@ -2833,32 +3167,33 @@
       </c>
       <c r="B67" t="inlineStr">
         <is>
-          <t>NCT03280290</t>
-        </is>
-      </c>
-      <c r="C67" t="inlineStr"/>
-      <c r="D67" t="inlineStr">
+          <t>rouge</t>
+        </is>
+      </c>
+      <c r="C67" t="inlineStr">
+        <is>
+          <t>NCT03509805</t>
+        </is>
+      </c>
+      <c r="D67" t="inlineStr"/>
+      <c r="E67" t="inlineStr">
         <is>
           <t>2017</t>
         </is>
       </c>
-      <c r="E67" t="inlineStr">
-        <is>
-          <t>Partial Selective Depletion in Lymphocytes Transplant T CD4+ CCR7+ in Hematopoeitic Stem Cells Allograft</t>
-        </is>
-      </c>
       <c r="F67" t="inlineStr">
         <is>
-          <t>CCR7-CD4-DPL</t>
-        </is>
-      </c>
-      <c r="G67" t="b">
-        <v>0</v>
-      </c>
+          <t>Sleep Apnea Syndrome in Obese Women During Pregnancy</t>
+        </is>
+      </c>
+      <c r="G67" t="inlineStr"/>
       <c r="H67" t="b">
         <v>0</v>
       </c>
       <c r="I67" t="b">
+        <v>0</v>
+      </c>
+      <c r="J67" t="b">
         <v>0</v>
       </c>
     </row>
@@ -2870,32 +3205,37 @@
       </c>
       <c r="B68" t="inlineStr">
         <is>
+          <t>rouge</t>
+        </is>
+      </c>
+      <c r="C68" t="inlineStr">
+        <is>
           <t>NCT03381456</t>
         </is>
       </c>
-      <c r="C68" t="inlineStr"/>
-      <c r="D68" t="inlineStr">
+      <c r="D68" t="inlineStr"/>
+      <c r="E68" t="inlineStr">
         <is>
           <t>2017</t>
         </is>
       </c>
-      <c r="E68" t="inlineStr">
+      <c r="F68" t="inlineStr">
         <is>
           <t>Task-dependent Operation of a Mechanism Intracortical Inhibition in Dystonia</t>
         </is>
       </c>
-      <c r="F68" t="inlineStr">
+      <c r="G68" t="inlineStr">
         <is>
           <t>LICIdystonie</t>
         </is>
       </c>
-      <c r="G68" t="b">
-        <v>0</v>
-      </c>
       <c r="H68" t="b">
         <v>0</v>
       </c>
       <c r="I68" t="b">
+        <v>0</v>
+      </c>
+      <c r="J68" t="b">
         <v>0</v>
       </c>
     </row>
@@ -2907,70 +3247,80 @@
       </c>
       <c r="B69" t="inlineStr">
         <is>
-          <t>NCT03185403</t>
+          <t>rouge</t>
         </is>
       </c>
       <c r="C69" t="inlineStr"/>
       <c r="D69" t="inlineStr">
         <is>
+          <t>2012-000770-36</t>
+        </is>
+      </c>
+      <c r="E69" t="inlineStr">
+        <is>
           <t>2017</t>
         </is>
       </c>
-      <c r="E69" t="inlineStr">
-        <is>
-          <t>Comparison of the Hemodynamic Effect Between the Paravertebral Block and Thoracic Epidural in Esophageal Surgery With Thoracotomy .</t>
-        </is>
-      </c>
       <c r="F69" t="inlineStr">
         <is>
-          <t>HEMOBLOC</t>
-        </is>
-      </c>
-      <c r="G69" t="b">
-        <v>0</v>
+          <t>Efficacité et tolérance du nilotinib chez les patients atteints d'une maladie chronique du greffon contre l’hôte (Graft Versus Host, GVH) n'ayant pas répondu à l'imatinib mésilate.</t>
+        </is>
+      </c>
+      <c r="G69" t="inlineStr">
+        <is>
+          <t>Double ITK-GVHc</t>
+        </is>
       </c>
       <c r="H69" t="b">
         <v>0</v>
       </c>
       <c r="I69" t="b">
+        <v>0</v>
+      </c>
+      <c r="J69" t="b">
         <v>0</v>
       </c>
     </row>
     <row r="70">
       <c r="A70" t="inlineStr">
         <is>
-          <t>🟧</t>
+          <t>🟥</t>
         </is>
       </c>
       <c r="B70" t="inlineStr">
         <is>
-          <t>NCT03076892</t>
-        </is>
-      </c>
-      <c r="C70" t="inlineStr"/>
-      <c r="D70" t="inlineStr">
+          <t>rouge</t>
+        </is>
+      </c>
+      <c r="C70" t="inlineStr">
+        <is>
+          <t>NCT02891395</t>
+        </is>
+      </c>
+      <c r="D70" t="inlineStr"/>
+      <c r="E70" t="inlineStr">
         <is>
           <t>2017</t>
         </is>
       </c>
-      <c r="E70" t="inlineStr">
-        <is>
-          <t>A Phase II Study Evaluating the Non-inferiority and Better Tolerability of the Device PHOS-ISTOS Compared to the Conventional Photodynamic Therapy (PDT)</t>
-        </is>
-      </c>
       <c r="F70" t="inlineStr">
         <is>
-          <t>PHOS-ISTOS</t>
-        </is>
-      </c>
-      <c r="G70" t="b">
-        <v>0</v>
+          <t>Efficacy and Safety of Nilotinib in Patients With a Chronic Disease of the Graft Against the Host (Graft Versus Host, GVH) Did Not Respond to Imatinib Mesylate.</t>
+        </is>
+      </c>
+      <c r="G70" t="inlineStr">
+        <is>
+          <t>DoubleITK</t>
+        </is>
       </c>
       <c r="H70" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I70" t="b">
-        <v>1</v>
+        <v>0</v>
+      </c>
+      <c r="J70" t="b">
+        <v>0</v>
       </c>
     </row>
     <row r="71">
@@ -2981,66 +3331,80 @@
       </c>
       <c r="B71" t="inlineStr">
         <is>
-          <t>NCT02881437</t>
-        </is>
-      </c>
-      <c r="C71" t="inlineStr"/>
-      <c r="D71" t="inlineStr">
+          <t>rouge</t>
+        </is>
+      </c>
+      <c r="C71" t="inlineStr">
+        <is>
+          <t>NCT02662504</t>
+        </is>
+      </c>
+      <c r="D71" t="inlineStr"/>
+      <c r="E71" t="inlineStr">
         <is>
           <t>2018</t>
         </is>
       </c>
-      <c r="E71" t="inlineStr">
-        <is>
-          <t>Assessment of the IgG Trough Level in Subjects With Primary Immunodeficiency Switching From Standard Subcutaneous Immunoglobulin (SCIG) to Every Other Week HyQvia</t>
-        </is>
-      </c>
-      <c r="F71" t="inlineStr"/>
-      <c r="G71" t="b">
-        <v>0</v>
+      <c r="F71" t="inlineStr">
+        <is>
+          <t>Pilot Study of the Feasibility of Intrapleural Photodynamic Therapy in a Multimodal Treatment Combining Extended Pleurectomy/Decortication, Adjuvant Chemotherapy and Prophylactic Radiotherapy in Patients With Malignant Pleural Mesothelioma</t>
+        </is>
+      </c>
+      <c r="G71" t="inlineStr">
+        <is>
+          <t>MesoPDT</t>
+        </is>
       </c>
       <c r="H71" t="b">
         <v>0</v>
       </c>
       <c r="I71" t="b">
+        <v>0</v>
+      </c>
+      <c r="J71" t="b">
         <v>0</v>
       </c>
     </row>
     <row r="72">
       <c r="A72" t="inlineStr">
         <is>
-          <t>🟥</t>
+          <t>🟧</t>
         </is>
       </c>
       <c r="B72" t="inlineStr">
         <is>
-          <t>NCT02702128</t>
-        </is>
-      </c>
-      <c r="C72" t="inlineStr"/>
-      <c r="D72" t="inlineStr">
+          <t>orange</t>
+        </is>
+      </c>
+      <c r="C72" t="inlineStr">
+        <is>
+          <t>NCT02525705</t>
+        </is>
+      </c>
+      <c r="D72" t="inlineStr"/>
+      <c r="E72" t="inlineStr">
         <is>
           <t>2018</t>
         </is>
       </c>
-      <c r="E72" t="inlineStr">
-        <is>
-          <t>Preventive EXACYL® on Perioperative Bleeding During Orthognathism of Maxillary Surgery</t>
-        </is>
-      </c>
       <c r="F72" t="inlineStr">
         <is>
-          <t>LEFORTEXACYL</t>
-        </is>
-      </c>
-      <c r="G72" t="b">
-        <v>0</v>
+          <t>Frequency of Occurrence of Dumping Syndrome After Operation of Esophageal Atresia Type III</t>
+        </is>
+      </c>
+      <c r="G72" t="inlineStr">
+        <is>
+          <t>DUMPING</t>
+        </is>
       </c>
       <c r="H72" t="b">
         <v>0</v>
       </c>
       <c r="I72" t="b">
-        <v>0</v>
+        <v>1</v>
+      </c>
+      <c r="J72" t="b">
+        <v>1</v>
       </c>
     </row>
     <row r="73">
@@ -3051,107 +3415,118 @@
       </c>
       <c r="B73" t="inlineStr">
         <is>
+          <t>rouge</t>
+        </is>
+      </c>
+      <c r="C73" t="inlineStr">
+        <is>
           <t>NCT02272361</t>
         </is>
       </c>
-      <c r="C73" t="inlineStr"/>
-      <c r="D73" t="inlineStr">
+      <c r="D73" t="inlineStr"/>
+      <c r="E73" t="inlineStr">
         <is>
           <t>2018</t>
         </is>
       </c>
-      <c r="E73" t="inlineStr">
+      <c r="F73" t="inlineStr">
         <is>
           <t>Randomized Controlled Trial Comparing Laparoscopic Sacropexy and Vaginal Mesh Surgery for Women Cystocele Repair: Functional and Anatomical Results at Four Years Follow-up</t>
         </is>
       </c>
-      <c r="F73" t="inlineStr">
+      <c r="G73" t="inlineStr">
         <is>
           <t>PROSPERE4</t>
         </is>
       </c>
-      <c r="G73" t="b">
-        <v>0</v>
-      </c>
       <c r="H73" t="b">
         <v>0</v>
       </c>
       <c r="I73" t="b">
+        <v>0</v>
+      </c>
+      <c r="J73" t="b">
         <v>0</v>
       </c>
     </row>
     <row r="74">
       <c r="A74" t="inlineStr">
         <is>
-          <t>🟧</t>
+          <t>🟥</t>
         </is>
       </c>
       <c r="B74" t="inlineStr">
         <is>
-          <t>NCT02525705</t>
-        </is>
-      </c>
-      <c r="C74" t="inlineStr"/>
-      <c r="D74" t="inlineStr">
+          <t>rouge</t>
+        </is>
+      </c>
+      <c r="C74" t="inlineStr">
+        <is>
+          <t>NCT02881437</t>
+        </is>
+      </c>
+      <c r="D74" t="inlineStr"/>
+      <c r="E74" t="inlineStr">
         <is>
           <t>2018</t>
         </is>
       </c>
-      <c r="E74" t="inlineStr">
-        <is>
-          <t>Frequency of Occurrence of Dumping Syndrome After Operation of Esophageal Atresia Type III</t>
-        </is>
-      </c>
       <c r="F74" t="inlineStr">
         <is>
-          <t>DUMPING</t>
-        </is>
-      </c>
-      <c r="G74" t="b">
-        <v>0</v>
-      </c>
+          <t>Assessment of the IgG Trough Level in Subjects With Primary Immunodeficiency Switching From Standard Subcutaneous Immunoglobulin (SCIG) to Every Other Week HyQvia</t>
+        </is>
+      </c>
+      <c r="G74" t="inlineStr"/>
       <c r="H74" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I74" t="b">
-        <v>1</v>
+        <v>0</v>
+      </c>
+      <c r="J74" t="b">
+        <v>0</v>
       </c>
     </row>
     <row r="75">
       <c r="A75" t="inlineStr">
         <is>
-          <t>🟥</t>
+          <t>🟩</t>
         </is>
       </c>
       <c r="B75" t="inlineStr">
         <is>
-          <t>NCT02662504</t>
-        </is>
-      </c>
-      <c r="C75" t="inlineStr"/>
-      <c r="D75" t="inlineStr">
+          <t>vert</t>
+        </is>
+      </c>
+      <c r="C75" t="inlineStr">
+        <is>
+          <t>NCT02621775</t>
+        </is>
+      </c>
+      <c r="D75" t="inlineStr"/>
+      <c r="E75" t="inlineStr">
         <is>
           <t>2018</t>
         </is>
       </c>
-      <c r="E75" t="inlineStr">
-        <is>
-          <t>Pilot Study of the Feasibility of Intrapleural Photodynamic Therapy in a Multimodal Treatment Combining Extended Pleurectomy/Decortication, Adjuvant Chemotherapy and Prophylactic Radiotherapy in Patients With Malignant Pleural Mesothelioma</t>
-        </is>
-      </c>
       <c r="F75" t="inlineStr">
         <is>
-          <t>MesoPDT</t>
-        </is>
-      </c>
-      <c r="G75" t="b">
-        <v>0</v>
+          <t>Effectiveness of Two Stress Management Programs in the Adaptation Disorder With Anxiety (ADA) : Computer-based or Face- to -Face to Face Versus Control Group.Open Multicenter Prospective Randomized Controlled Therapeutic 3 Parallel Groups</t>
+        </is>
+      </c>
+      <c r="G75" t="inlineStr">
+        <is>
+          <t>Seren@ctif</t>
+        </is>
       </c>
       <c r="H75" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I75" t="b">
-        <v>0</v>
+        <v>1</v>
+      </c>
+      <c r="J75" t="b">
+        <v>1</v>
       </c>
     </row>
     <row r="76">
@@ -3162,70 +3537,80 @@
       </c>
       <c r="B76" t="inlineStr">
         <is>
+          <t>orange</t>
+        </is>
+      </c>
+      <c r="C76" t="inlineStr">
+        <is>
           <t>NCT02281916</t>
         </is>
       </c>
-      <c r="C76" t="inlineStr"/>
-      <c r="D76" t="inlineStr">
+      <c r="D76" t="inlineStr"/>
+      <c r="E76" t="inlineStr">
         <is>
           <t>2018</t>
         </is>
       </c>
-      <c r="E76" t="inlineStr">
+      <c r="F76" t="inlineStr">
         <is>
           <t>Safety Study of P28GST Treatment in Crohn's Disease Patients, a Multicenter Phase 2 Clinical Trial</t>
         </is>
       </c>
-      <c r="F76" t="inlineStr">
+      <c r="G76" t="inlineStr">
         <is>
           <t>ACROHNEM</t>
         </is>
       </c>
-      <c r="G76" t="b">
-        <v>0</v>
-      </c>
       <c r="H76" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I76" t="b">
+        <v>1</v>
+      </c>
+      <c r="J76" t="b">
         <v>1</v>
       </c>
     </row>
     <row r="77">
       <c r="A77" t="inlineStr">
         <is>
-          <t>🟩</t>
+          <t>🟥</t>
         </is>
       </c>
       <c r="B77" t="inlineStr">
         <is>
-          <t>NCT02621775</t>
-        </is>
-      </c>
-      <c r="C77" t="inlineStr"/>
-      <c r="D77" t="inlineStr">
+          <t>rouge</t>
+        </is>
+      </c>
+      <c r="C77" t="inlineStr">
+        <is>
+          <t>NCT02702128</t>
+        </is>
+      </c>
+      <c r="D77" t="inlineStr"/>
+      <c r="E77" t="inlineStr">
         <is>
           <t>2018</t>
         </is>
       </c>
-      <c r="E77" t="inlineStr">
-        <is>
-          <t>Effectiveness of Two Stress Management Programs in the Adaptation Disorder With Anxiety (ADA) : Computer-based or Face- to -Face to Face Versus Control Group.Open Multicenter Prospective Randomized Controlled Therapeutic 3 Parallel Groups</t>
-        </is>
-      </c>
       <c r="F77" t="inlineStr">
         <is>
-          <t>Seren@ctif</t>
-        </is>
-      </c>
-      <c r="G77" t="b">
-        <v>1</v>
+          <t>Preventive EXACYL® on Perioperative Bleeding During Orthognathism of Maxillary Surgery</t>
+        </is>
+      </c>
+      <c r="G77" t="inlineStr">
+        <is>
+          <t>LEFORTEXACYL</t>
+        </is>
       </c>
       <c r="H77" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I77" t="b">
-        <v>1</v>
+        <v>0</v>
+      </c>
+      <c r="J77" t="b">
+        <v>0</v>
       </c>
     </row>
     <row r="78">
@@ -3236,32 +3621,37 @@
       </c>
       <c r="B78" t="inlineStr">
         <is>
-          <t>NCT03370627</t>
-        </is>
-      </c>
-      <c r="C78" t="inlineStr"/>
-      <c r="D78" t="inlineStr">
+          <t>rouge</t>
+        </is>
+      </c>
+      <c r="C78" t="inlineStr">
+        <is>
+          <t>NCT03980210</t>
+        </is>
+      </c>
+      <c r="D78" t="inlineStr"/>
+      <c r="E78" t="inlineStr">
         <is>
           <t>2019</t>
         </is>
       </c>
-      <c r="E78" t="inlineStr">
-        <is>
-          <t>Effect of Monoclonal Anti-cd303 on the Inhibition of Type I Interferon Secretion in the Peripheral Blood of Patients With Autoimmune Diseases</t>
-        </is>
-      </c>
       <c r="F78" t="inlineStr">
         <is>
-          <t>ANTI-CD303</t>
-        </is>
-      </c>
-      <c r="G78" t="b">
-        <v>0</v>
+          <t>Effect of Hyperbaric Oxygen Therapy on Healthy Volunteers Microcirculation</t>
+        </is>
+      </c>
+      <c r="G78" t="inlineStr">
+        <is>
+          <t>MICROHB</t>
+        </is>
       </c>
       <c r="H78" t="b">
         <v>0</v>
       </c>
       <c r="I78" t="b">
+        <v>0</v>
+      </c>
+      <c r="J78" t="b">
         <v>0</v>
       </c>
     </row>
@@ -3273,32 +3663,37 @@
       </c>
       <c r="B79" t="inlineStr">
         <is>
+          <t>rouge</t>
+        </is>
+      </c>
+      <c r="C79" t="inlineStr">
+        <is>
           <t>NCT03158376</t>
         </is>
       </c>
-      <c r="C79" t="inlineStr"/>
-      <c r="D79" t="inlineStr">
+      <c r="D79" t="inlineStr"/>
+      <c r="E79" t="inlineStr">
         <is>
           <t>2019</t>
         </is>
       </c>
-      <c r="E79" t="inlineStr">
+      <c r="F79" t="inlineStr">
         <is>
           <t>Perioperative Gabapentin for Chronic Post-thoracotomy Pain: a Randomized, Double Blind, Placebo-controlled Study.</t>
         </is>
       </c>
-      <c r="F79" t="inlineStr">
+      <c r="G79" t="inlineStr">
         <is>
           <t>GABATHOMIE</t>
         </is>
       </c>
-      <c r="G79" t="b">
-        <v>0</v>
-      </c>
       <c r="H79" t="b">
         <v>0</v>
       </c>
       <c r="I79" t="b">
+        <v>0</v>
+      </c>
+      <c r="J79" t="b">
         <v>0</v>
       </c>
     </row>
@@ -3310,70 +3705,80 @@
       </c>
       <c r="B80" t="inlineStr">
         <is>
-          <t>NCT03342820</t>
-        </is>
-      </c>
-      <c r="C80" t="inlineStr"/>
-      <c r="D80" t="inlineStr">
+          <t>rouge</t>
+        </is>
+      </c>
+      <c r="C80" t="inlineStr">
+        <is>
+          <t>NCT03370627</t>
+        </is>
+      </c>
+      <c r="D80" t="inlineStr"/>
+      <c r="E80" t="inlineStr">
         <is>
           <t>2019</t>
         </is>
       </c>
-      <c r="E80" t="inlineStr">
-        <is>
-          <t>Impact of Muscular Fatigability on Spastic Co-contractions Between the Quadriceps and Hamstrings in Stroke Patients</t>
-        </is>
-      </c>
       <c r="F80" t="inlineStr">
         <is>
-          <t>COCON</t>
-        </is>
-      </c>
-      <c r="G80" t="b">
-        <v>0</v>
+          <t>Effect of Monoclonal Anti-cd303 on the Inhibition of Type I Interferon Secretion in the Peripheral Blood of Patients With Autoimmune Diseases</t>
+        </is>
+      </c>
+      <c r="G80" t="inlineStr">
+        <is>
+          <t>ANTI-CD303</t>
+        </is>
       </c>
       <c r="H80" t="b">
         <v>0</v>
       </c>
       <c r="I80" t="b">
+        <v>0</v>
+      </c>
+      <c r="J80" t="b">
         <v>0</v>
       </c>
     </row>
     <row r="81">
       <c r="A81" t="inlineStr">
         <is>
-          <t>🟥</t>
+          <t>🟧</t>
         </is>
       </c>
       <c r="B81" t="inlineStr">
         <is>
-          <t>NCT02884557</t>
-        </is>
-      </c>
-      <c r="C81" t="inlineStr"/>
-      <c r="D81" t="inlineStr">
+          <t>orange</t>
+        </is>
+      </c>
+      <c r="C81" t="inlineStr">
+        <is>
+          <t>NCT02821169</t>
+        </is>
+      </c>
+      <c r="D81" t="inlineStr"/>
+      <c r="E81" t="inlineStr">
         <is>
           <t>2019</t>
         </is>
       </c>
-      <c r="E81" t="inlineStr">
-        <is>
-          <t>Evaluation of the Expression of Natural Killer T Cells (NKT) Marker in the Gut of Patients With Primary Sclerosing Cholangitis (PSC) Complicated by an Inflammatory Bowel Disease (IBD)</t>
-        </is>
-      </c>
       <c r="F81" t="inlineStr">
         <is>
-          <t>NKT-CSP/MICI</t>
-        </is>
-      </c>
-      <c r="G81" t="b">
-        <v>0</v>
+          <t>Impact of Infiltration in the Region of the Palatine Ganglion Spheno by Ropivacaine on Postoperative Pain in the Setting of Endoscopic Sinonasal Surgery.</t>
+        </is>
+      </c>
+      <c r="G81" t="inlineStr">
+        <is>
+          <t>ROPI_POSTOP</t>
+        </is>
       </c>
       <c r="H81" t="b">
         <v>0</v>
       </c>
       <c r="I81" t="b">
-        <v>0</v>
+        <v>1</v>
+      </c>
+      <c r="J81" t="b">
+        <v>1</v>
       </c>
     </row>
     <row r="82">
@@ -3384,70 +3789,80 @@
       </c>
       <c r="B82" t="inlineStr">
         <is>
-          <t>NCT03238430</t>
-        </is>
-      </c>
-      <c r="C82" t="inlineStr"/>
-      <c r="D82" t="inlineStr">
+          <t>rouge</t>
+        </is>
+      </c>
+      <c r="C82" t="inlineStr">
+        <is>
+          <t>NCT03342820</t>
+        </is>
+      </c>
+      <c r="D82" t="inlineStr"/>
+      <c r="E82" t="inlineStr">
         <is>
           <t>2019</t>
         </is>
       </c>
-      <c r="E82" t="inlineStr">
-        <is>
-          <t>Management of Pain Post Hepatectomy : Infiltration of Local Anesthetics Versus Continuous Spinal Analgesia .</t>
-        </is>
-      </c>
       <c r="F82" t="inlineStr">
         <is>
-          <t>CATHEPAT</t>
-        </is>
-      </c>
-      <c r="G82" t="b">
-        <v>0</v>
+          <t>Impact of Muscular Fatigability on Spastic Co-contractions Between the Quadriceps and Hamstrings in Stroke Patients</t>
+        </is>
+      </c>
+      <c r="G82" t="inlineStr">
+        <is>
+          <t>COCON</t>
+        </is>
       </c>
       <c r="H82" t="b">
         <v>0</v>
       </c>
       <c r="I82" t="b">
+        <v>0</v>
+      </c>
+      <c r="J82" t="b">
         <v>0</v>
       </c>
     </row>
     <row r="83">
       <c r="A83" t="inlineStr">
         <is>
-          <t>🟧</t>
+          <t>🟥</t>
         </is>
       </c>
       <c r="B83" t="inlineStr">
         <is>
-          <t>NCT01756794</t>
-        </is>
-      </c>
-      <c r="C83" t="inlineStr"/>
-      <c r="D83" t="inlineStr">
+          <t>rouge</t>
+        </is>
+      </c>
+      <c r="C83" t="inlineStr">
+        <is>
+          <t>NCT03238430</t>
+        </is>
+      </c>
+      <c r="D83" t="inlineStr"/>
+      <c r="E83" t="inlineStr">
         <is>
           <t>2019</t>
         </is>
       </c>
-      <c r="E83" t="inlineStr">
-        <is>
-          <t>Validation of an Accelerated Procedure of Selection in Early Liver Transplantation for Severe Alcoholic Hepatitis Not Responding to Medical Treatment QuickTransHAA.</t>
-        </is>
-      </c>
       <c r="F83" t="inlineStr">
         <is>
-          <t>QuickTrans</t>
-        </is>
-      </c>
-      <c r="G83" t="b">
-        <v>0</v>
+          <t>Management of Pain Post Hepatectomy : Infiltration of Local Anesthetics Versus Continuous Spinal Analgesia .</t>
+        </is>
+      </c>
+      <c r="G83" t="inlineStr">
+        <is>
+          <t>CATHEPAT</t>
+        </is>
       </c>
       <c r="H83" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I83" t="b">
-        <v>1</v>
+        <v>0</v>
+      </c>
+      <c r="J83" t="b">
+        <v>0</v>
       </c>
     </row>
     <row r="84">
@@ -3458,28 +3873,37 @@
       </c>
       <c r="B84" t="inlineStr">
         <is>
-          <t>NCT03808246</t>
-        </is>
-      </c>
-      <c r="C84" t="inlineStr"/>
-      <c r="D84" t="inlineStr">
+          <t>rouge</t>
+        </is>
+      </c>
+      <c r="C84" t="inlineStr">
+        <is>
+          <t>NCT02884557</t>
+        </is>
+      </c>
+      <c r="D84" t="inlineStr"/>
+      <c r="E84" t="inlineStr">
         <is>
           <t>2019</t>
         </is>
       </c>
-      <c r="E84" t="inlineStr">
-        <is>
-          <t>Detection of Usability Errors of a Medical Device Zeneo®</t>
-        </is>
-      </c>
-      <c r="F84" t="inlineStr"/>
-      <c r="G84" t="b">
-        <v>0</v>
+      <c r="F84" t="inlineStr">
+        <is>
+          <t>Evaluation of the Expression of Natural Killer T Cells (NKT) Marker in the Gut of Patients With Primary Sclerosing Cholangitis (PSC) Complicated by an Inflammatory Bowel Disease (IBD)</t>
+        </is>
+      </c>
+      <c r="G84" t="inlineStr">
+        <is>
+          <t>NKT-CSP/MICI</t>
+        </is>
       </c>
       <c r="H84" t="b">
         <v>0</v>
       </c>
       <c r="I84" t="b">
+        <v>0</v>
+      </c>
+      <c r="J84" t="b">
         <v>0</v>
       </c>
     </row>
@@ -3491,32 +3915,37 @@
       </c>
       <c r="B85" t="inlineStr">
         <is>
-          <t>NCT02281929</t>
-        </is>
-      </c>
-      <c r="C85" t="inlineStr"/>
-      <c r="D85" t="inlineStr">
+          <t>rouge</t>
+        </is>
+      </c>
+      <c r="C85" t="inlineStr">
+        <is>
+          <t>NCT03565822</t>
+        </is>
+      </c>
+      <c r="D85" t="inlineStr"/>
+      <c r="E85" t="inlineStr">
         <is>
           <t>2019</t>
         </is>
       </c>
-      <c r="E85" t="inlineStr">
-        <is>
-          <t>Evaluation of the Efficacy of an Antibiotic Combined With Standard Treatment in Severe Alcoholic Hepatitis</t>
-        </is>
-      </c>
       <c r="F85" t="inlineStr">
         <is>
-          <t>AntibioCor</t>
-        </is>
-      </c>
-      <c r="G85" t="b">
-        <v>0</v>
+          <t>Qualitative Study of the Impact of the Birth of a Child With a Rare Abdomino-thoracic Malformation on the Parental Adjustment of the First Year</t>
+        </is>
+      </c>
+      <c r="G85" t="inlineStr">
+        <is>
+          <t>INEMAT</t>
+        </is>
       </c>
       <c r="H85" t="b">
         <v>0</v>
       </c>
       <c r="I85" t="b">
+        <v>0</v>
+      </c>
+      <c r="J85" t="b">
         <v>0</v>
       </c>
     </row>
@@ -3528,69 +3957,79 @@
       </c>
       <c r="B86" t="inlineStr">
         <is>
+          <t>rouge</t>
+        </is>
+      </c>
+      <c r="C86" t="inlineStr">
+        <is>
           <t>NCT03232697</t>
         </is>
       </c>
-      <c r="C86" t="inlineStr"/>
-      <c r="D86" t="inlineStr">
+      <c r="D86" t="inlineStr"/>
+      <c r="E86" t="inlineStr">
         <is>
           <t>2019</t>
         </is>
       </c>
-      <c r="E86" t="inlineStr">
+      <c r="F86" t="inlineStr">
         <is>
           <t>French Language Validation of the Phone Version of the Montreal Cognitive Assessment (MoCA)</t>
         </is>
       </c>
-      <c r="F86" t="inlineStr">
+      <c r="G86" t="inlineStr">
         <is>
           <t>MoCATEL</t>
         </is>
       </c>
-      <c r="G86" t="b">
-        <v>0</v>
-      </c>
       <c r="H86" t="b">
         <v>0</v>
       </c>
       <c r="I86" t="b">
+        <v>0</v>
+      </c>
+      <c r="J86" t="b">
         <v>0</v>
       </c>
     </row>
     <row r="87">
       <c r="A87" t="inlineStr">
         <is>
-          <t>🟩</t>
+          <t>🟧</t>
         </is>
       </c>
       <c r="B87" t="inlineStr">
         <is>
-          <t>NCT01594450</t>
-        </is>
-      </c>
-      <c r="C87" t="inlineStr"/>
-      <c r="D87" t="inlineStr">
+          <t>orange</t>
+        </is>
+      </c>
+      <c r="C87" t="inlineStr">
+        <is>
+          <t>NCT01756794</t>
+        </is>
+      </c>
+      <c r="D87" t="inlineStr"/>
+      <c r="E87" t="inlineStr">
         <is>
           <t>2019</t>
         </is>
       </c>
-      <c r="E87" t="inlineStr">
-        <is>
-          <t>Use of Biological Mesh Versus Standard Wound Care in Infected Incisional Ventral Hernias: a Multicenter Randomized Controlled Trial, the SIMBIOSE Study</t>
-        </is>
-      </c>
       <c r="F87" t="inlineStr">
         <is>
-          <t>SIMBIOSE</t>
-        </is>
-      </c>
-      <c r="G87" t="b">
-        <v>1</v>
+          <t>Validation of an Accelerated Procedure of Selection in Early Liver Transplantation for Severe Alcoholic Hepatitis Not Responding to Medical Treatment QuickTransHAA.</t>
+        </is>
+      </c>
+      <c r="G87" t="inlineStr">
+        <is>
+          <t>QuickTrans</t>
+        </is>
       </c>
       <c r="H87" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I87" t="b">
+        <v>1</v>
+      </c>
+      <c r="J87" t="b">
         <v>1</v>
       </c>
     </row>
@@ -3602,32 +4041,37 @@
       </c>
       <c r="B88" t="inlineStr">
         <is>
+          <t>rouge</t>
+        </is>
+      </c>
+      <c r="C88" t="inlineStr">
+        <is>
           <t>NCT03743831</t>
         </is>
       </c>
-      <c r="C88" t="inlineStr"/>
-      <c r="D88" t="inlineStr">
+      <c r="D88" t="inlineStr"/>
+      <c r="E88" t="inlineStr">
         <is>
           <t>2019</t>
         </is>
       </c>
-      <c r="E88" t="inlineStr">
+      <c r="F88" t="inlineStr">
         <is>
           <t>Comparison of Haemodynamic Effects During Orotracheal Intubation, by Direct or Indirect Laryngoscopy With Airtraq, Controlled, Prospective, Randomized, Simple-blind, Monocentric Study at the Lille University Hospital Specialties Block.</t>
         </is>
       </c>
-      <c r="F88" t="inlineStr">
+      <c r="G88" t="inlineStr">
         <is>
           <t>HEMODAIRTRAQ</t>
         </is>
       </c>
-      <c r="G88" t="b">
-        <v>0</v>
-      </c>
       <c r="H88" t="b">
         <v>0</v>
       </c>
       <c r="I88" t="b">
+        <v>0</v>
+      </c>
+      <c r="J88" t="b">
         <v>0</v>
       </c>
     </row>
@@ -3639,32 +4083,37 @@
       </c>
       <c r="B89" t="inlineStr">
         <is>
-          <t>NCT02994017</t>
-        </is>
-      </c>
-      <c r="C89" t="inlineStr"/>
-      <c r="D89" t="inlineStr">
+          <t>rouge</t>
+        </is>
+      </c>
+      <c r="C89" t="inlineStr">
+        <is>
+          <t>NCT03710096</t>
+        </is>
+      </c>
+      <c r="D89" t="inlineStr"/>
+      <c r="E89" t="inlineStr">
         <is>
           <t>2019</t>
         </is>
       </c>
-      <c r="E89" t="inlineStr">
-        <is>
-          <t>Prognostic Value of Functional Exercise Test (EFX) in Cystic Fibrosis</t>
-        </is>
-      </c>
       <c r="F89" t="inlineStr">
         <is>
-          <t>EFX</t>
-        </is>
-      </c>
-      <c r="G89" t="b">
-        <v>0</v>
+          <t>Comparison of McGrath and Macintosh Laryngoscopes for Insertion of a Double Lumen Tube by Residents</t>
+        </is>
+      </c>
+      <c r="G89" t="inlineStr">
+        <is>
+          <t>MacGrathDES</t>
+        </is>
       </c>
       <c r="H89" t="b">
         <v>0</v>
       </c>
       <c r="I89" t="b">
+        <v>0</v>
+      </c>
+      <c r="J89" t="b">
         <v>0</v>
       </c>
     </row>
@@ -3676,32 +4125,37 @@
       </c>
       <c r="B90" t="inlineStr">
         <is>
+          <t>orange</t>
+        </is>
+      </c>
+      <c r="C90" t="inlineStr">
+        <is>
           <t>NCT03315819</t>
         </is>
       </c>
-      <c r="C90" t="inlineStr"/>
-      <c r="D90" t="inlineStr">
+      <c r="D90" t="inlineStr"/>
+      <c r="E90" t="inlineStr">
         <is>
           <t>2019</t>
         </is>
       </c>
-      <c r="E90" t="inlineStr">
+      <c r="F90" t="inlineStr">
         <is>
           <t>First Episode of Anterior Glenohumeral Dislocation in Adult Patients Under 25 Years of Age: Anterior Capsulo-labral Reinsertion by Arthroscopic Approach Versus Immobilization "</t>
         </is>
       </c>
-      <c r="F90" t="inlineStr">
+      <c r="G90" t="inlineStr">
         <is>
           <t>BANKART</t>
         </is>
       </c>
-      <c r="G90" t="b">
-        <v>0</v>
-      </c>
       <c r="H90" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I90" t="b">
+        <v>1</v>
+      </c>
+      <c r="J90" t="b">
         <v>1</v>
       </c>
     </row>
@@ -3713,32 +4167,37 @@
       </c>
       <c r="B91" t="inlineStr">
         <is>
-          <t>NCT03980210</t>
-        </is>
-      </c>
-      <c r="C91" t="inlineStr"/>
-      <c r="D91" t="inlineStr">
+          <t>rouge</t>
+        </is>
+      </c>
+      <c r="C91" t="inlineStr">
+        <is>
+          <t>NCT02281929</t>
+        </is>
+      </c>
+      <c r="D91" t="inlineStr"/>
+      <c r="E91" t="inlineStr">
         <is>
           <t>2019</t>
         </is>
       </c>
-      <c r="E91" t="inlineStr">
-        <is>
-          <t>Effect of Hyperbaric Oxygen Therapy on Healthy Volunteers Microcirculation</t>
-        </is>
-      </c>
       <c r="F91" t="inlineStr">
         <is>
-          <t>MICROHB</t>
-        </is>
-      </c>
-      <c r="G91" t="b">
-        <v>0</v>
+          <t>Evaluation of the Efficacy of an Antibiotic Combined With Standard Treatment in Severe Alcoholic Hepatitis</t>
+        </is>
+      </c>
+      <c r="G91" t="inlineStr">
+        <is>
+          <t>AntibioCor</t>
+        </is>
       </c>
       <c r="H91" t="b">
         <v>0</v>
       </c>
       <c r="I91" t="b">
+        <v>0</v>
+      </c>
+      <c r="J91" t="b">
         <v>0</v>
       </c>
     </row>
@@ -3750,107 +4209,118 @@
       </c>
       <c r="B92" t="inlineStr">
         <is>
-          <t>NCT03710096</t>
-        </is>
-      </c>
-      <c r="C92" t="inlineStr"/>
-      <c r="D92" t="inlineStr">
+          <t>rouge</t>
+        </is>
+      </c>
+      <c r="C92" t="inlineStr">
+        <is>
+          <t>NCT03808246</t>
+        </is>
+      </c>
+      <c r="D92" t="inlineStr"/>
+      <c r="E92" t="inlineStr">
         <is>
           <t>2019</t>
         </is>
       </c>
-      <c r="E92" t="inlineStr">
-        <is>
-          <t>Comparison of McGrath and Macintosh Laryngoscopes for Insertion of a Double Lumen Tube by Residents</t>
-        </is>
-      </c>
       <c r="F92" t="inlineStr">
         <is>
-          <t>MacGrathDES</t>
-        </is>
-      </c>
-      <c r="G92" t="b">
-        <v>0</v>
-      </c>
+          <t>Detection of Usability Errors of a Medical Device Zeneo®</t>
+        </is>
+      </c>
+      <c r="G92" t="inlineStr"/>
       <c r="H92" t="b">
         <v>0</v>
       </c>
       <c r="I92" t="b">
+        <v>0</v>
+      </c>
+      <c r="J92" t="b">
         <v>0</v>
       </c>
     </row>
     <row r="93">
       <c r="A93" t="inlineStr">
         <is>
-          <t>🟥</t>
+          <t>🟩</t>
         </is>
       </c>
       <c r="B93" t="inlineStr">
         <is>
-          <t>NCT03565822</t>
-        </is>
-      </c>
-      <c r="C93" t="inlineStr"/>
-      <c r="D93" t="inlineStr">
+          <t>vert</t>
+        </is>
+      </c>
+      <c r="C93" t="inlineStr">
+        <is>
+          <t>NCT01594450</t>
+        </is>
+      </c>
+      <c r="D93" t="inlineStr"/>
+      <c r="E93" t="inlineStr">
         <is>
           <t>2019</t>
         </is>
       </c>
-      <c r="E93" t="inlineStr">
-        <is>
-          <t>Qualitative Study of the Impact of the Birth of a Child With a Rare Abdomino-thoracic Malformation on the Parental Adjustment of the First Year</t>
-        </is>
-      </c>
       <c r="F93" t="inlineStr">
         <is>
-          <t>INEMAT</t>
-        </is>
-      </c>
-      <c r="G93" t="b">
-        <v>0</v>
+          <t>Use of Biological Mesh Versus Standard Wound Care in Infected Incisional Ventral Hernias: a Multicenter Randomized Controlled Trial, the SIMBIOSE Study</t>
+        </is>
+      </c>
+      <c r="G93" t="inlineStr">
+        <is>
+          <t>SIMBIOSE</t>
+        </is>
       </c>
       <c r="H93" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I93" t="b">
-        <v>0</v>
+        <v>1</v>
+      </c>
+      <c r="J93" t="b">
+        <v>1</v>
       </c>
     </row>
     <row r="94">
       <c r="A94" t="inlineStr">
         <is>
-          <t>🟧</t>
+          <t>🟥</t>
         </is>
       </c>
       <c r="B94" t="inlineStr">
         <is>
-          <t>NCT02821169</t>
-        </is>
-      </c>
-      <c r="C94" t="inlineStr"/>
-      <c r="D94" t="inlineStr">
+          <t>rouge</t>
+        </is>
+      </c>
+      <c r="C94" t="inlineStr">
+        <is>
+          <t>NCT02994017</t>
+        </is>
+      </c>
+      <c r="D94" t="inlineStr"/>
+      <c r="E94" t="inlineStr">
         <is>
           <t>2019</t>
         </is>
       </c>
-      <c r="E94" t="inlineStr">
-        <is>
-          <t>Impact of Infiltration in the Region of the Palatine Ganglion Spheno by Ropivacaine on Postoperative Pain in the Setting of Endoscopic Sinonasal Surgery.</t>
-        </is>
-      </c>
       <c r="F94" t="inlineStr">
         <is>
-          <t>ROPI_POSTOP</t>
-        </is>
-      </c>
-      <c r="G94" t="b">
-        <v>0</v>
+          <t>Prognostic Value of Functional Exercise Test (EFX) in Cystic Fibrosis</t>
+        </is>
+      </c>
+      <c r="G94" t="inlineStr">
+        <is>
+          <t>EFX</t>
+        </is>
       </c>
       <c r="H94" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I94" t="b">
-        <v>1</v>
+        <v>0</v>
+      </c>
+      <c r="J94" t="b">
+        <v>0</v>
       </c>
     </row>
     <row r="95">
@@ -3861,32 +4331,37 @@
       </c>
       <c r="B95" t="inlineStr">
         <is>
-          <t>NCT03261414</t>
-        </is>
-      </c>
-      <c r="C95" t="inlineStr"/>
-      <c r="D95" t="inlineStr">
+          <t>rouge</t>
+        </is>
+      </c>
+      <c r="C95" t="inlineStr">
+        <is>
+          <t>NCT02667574</t>
+        </is>
+      </c>
+      <c r="D95" t="inlineStr"/>
+      <c r="E95" t="inlineStr">
         <is>
           <t>2020</t>
         </is>
       </c>
-      <c r="E95" t="inlineStr">
-        <is>
-          <t>Prospective Randomized Study Evaluating the Effect of Pre-operative Hypnosis on Anesthesia, Analgesia and Perioperative Stress Laparoscopic Ileo-caecal Resections of Crohn's Disease.</t>
-        </is>
-      </c>
       <c r="F95" t="inlineStr">
         <is>
-          <t>HYSTERIA</t>
-        </is>
-      </c>
-      <c r="G95" t="b">
-        <v>0</v>
+          <t>Phase II Study Evaluating the Interest of Vismodegib as Neo-adjuvant Treatment of Basal Cell Carcinoma (BCC)</t>
+        </is>
+      </c>
+      <c r="G95" t="inlineStr">
+        <is>
+          <t>VISMONEO</t>
+        </is>
       </c>
       <c r="H95" t="b">
         <v>0</v>
       </c>
       <c r="I95" t="b">
+        <v>0</v>
+      </c>
+      <c r="J95" t="b">
         <v>0</v>
       </c>
     </row>
@@ -3898,32 +4373,37 @@
       </c>
       <c r="B96" t="inlineStr">
         <is>
-          <t>NCT02880033</t>
-        </is>
-      </c>
-      <c r="C96" t="inlineStr"/>
-      <c r="D96" t="inlineStr">
+          <t>rouge</t>
+        </is>
+      </c>
+      <c r="C96" t="inlineStr">
+        <is>
+          <t>NCT04173364</t>
+        </is>
+      </c>
+      <c r="D96" t="inlineStr"/>
+      <c r="E96" t="inlineStr">
         <is>
           <t>2020</t>
         </is>
       </c>
-      <c r="E96" t="inlineStr">
-        <is>
-          <t>Modulation of Oxidative Stress and Apoptosis of Energy Metabolism by Deferiprone From the Circulating Lymphocytes of Patients With Parkinson's Disease or Amyotrophic Lateral Sclerosis</t>
-        </is>
-      </c>
       <c r="F96" t="inlineStr">
         <is>
-          <t>LymphoEnergy</t>
-        </is>
-      </c>
-      <c r="G96" t="b">
-        <v>0</v>
+          <t>Interscalene Block and Dysfunction Diaphragmatic: Effect of Low Volume of Ropivacaine 0,1%. A Randomised, Controlled Trial</t>
+        </is>
+      </c>
+      <c r="G96" t="inlineStr">
+        <is>
+          <t>NUMEROBIS</t>
+        </is>
       </c>
       <c r="H96" t="b">
         <v>0</v>
       </c>
       <c r="I96" t="b">
+        <v>0</v>
+      </c>
+      <c r="J96" t="b">
         <v>0</v>
       </c>
     </row>
@@ -3935,177 +4415,207 @@
       </c>
       <c r="B97" t="inlineStr">
         <is>
-          <t>NCT02849236</t>
+          <t>rouge</t>
         </is>
       </c>
       <c r="C97" t="inlineStr"/>
       <c r="D97" t="inlineStr">
         <is>
+          <t>2015-003679-31</t>
+        </is>
+      </c>
+      <c r="E97" t="inlineStr">
+        <is>
           <t>2020</t>
         </is>
       </c>
-      <c r="E97" t="inlineStr">
-        <is>
-          <t>Analgesic Efficacy of the Pectoral Nerve Block Type 1 for Breast Subpectoral Implant Surgery: A Randomized Controlled Study</t>
-        </is>
-      </c>
-      <c r="F97" t="inlineStr"/>
-      <c r="G97" t="b">
-        <v>0</v>
+      <c r="F97" t="inlineStr">
+        <is>
+          <t>Conservative iron chelation as a disease-modifying strategy in Parkinson’s disease 
+ Chélation conservatrice du fer comme stratégie thérapeutique susceptible de ralentir la progression de la maladie de Parkinson</t>
+        </is>
+      </c>
+      <c r="G97" t="inlineStr">
+        <is>
+          <t>FAIRPARK II</t>
+        </is>
       </c>
       <c r="H97" t="b">
         <v>0</v>
       </c>
       <c r="I97" t="b">
+        <v>0</v>
+      </c>
+      <c r="J97" t="b">
         <v>0</v>
       </c>
     </row>
     <row r="98">
       <c r="A98" t="inlineStr">
         <is>
-          <t>🟩</t>
+          <t>🟥</t>
         </is>
       </c>
       <c r="B98" t="inlineStr">
         <is>
-          <t>NCT02655315</t>
-        </is>
-      </c>
-      <c r="C98" t="inlineStr"/>
-      <c r="D98" t="inlineStr">
+          <t>rouge</t>
+        </is>
+      </c>
+      <c r="C98" t="inlineStr">
+        <is>
+          <t>NCT04231656</t>
+        </is>
+      </c>
+      <c r="D98" t="inlineStr"/>
+      <c r="E98" t="inlineStr">
         <is>
           <t>2020</t>
         </is>
       </c>
-      <c r="E98" t="inlineStr">
-        <is>
-          <t>Conservative Iron Chelation as a Disease-modifying Strategy in Parkinson's Disease. European Multicentre, Parallel-group, Placebo-controlled, Randomized Clinical Trial of Deferiprone"</t>
-        </is>
-      </c>
       <c r="F98" t="inlineStr">
         <is>
-          <t>FAIRPARKII</t>
-        </is>
-      </c>
-      <c r="G98" t="b">
-        <v>1</v>
+          <t>Stoke Volume Measurements During Changes in Cardiac Preload: Are Pulse Contour Analysis (CLEARSIGHT) and Transthoracic Bioelectrical Impedance (NICCOMO) Equivalent?</t>
+        </is>
+      </c>
+      <c r="G98" t="inlineStr">
+        <is>
+          <t>ConBi-Car</t>
+        </is>
       </c>
       <c r="H98" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I98" t="b">
-        <v>1</v>
+        <v>0</v>
+      </c>
+      <c r="J98" t="b">
+        <v>0</v>
       </c>
     </row>
     <row r="99">
       <c r="A99" t="inlineStr">
         <is>
-          <t>🟥</t>
+          <t>🟧</t>
         </is>
       </c>
       <c r="B99" t="inlineStr">
         <is>
-          <t>NCT02667574</t>
-        </is>
-      </c>
-      <c r="C99" t="inlineStr"/>
-      <c r="D99" t="inlineStr">
+          <t>orange</t>
+        </is>
+      </c>
+      <c r="C99" t="inlineStr">
+        <is>
+          <t>NCT03735043</t>
+        </is>
+      </c>
+      <c r="D99" t="inlineStr"/>
+      <c r="E99" t="inlineStr">
         <is>
           <t>2020</t>
         </is>
       </c>
-      <c r="E99" t="inlineStr">
-        <is>
-          <t>Phase II Study Evaluating the Interest of Vismodegib as Neo-adjuvant Treatment of Basal Cell Carcinoma (BCC)</t>
-        </is>
-      </c>
       <c r="F99" t="inlineStr">
         <is>
-          <t>VISMONEO</t>
-        </is>
-      </c>
-      <c r="G99" t="b">
-        <v>0</v>
+          <t>Continuous Non-invasive Cardiac Output, an Evaluation of ccNexfin© in a Pregnant Population</t>
+        </is>
+      </c>
+      <c r="G99" t="inlineStr">
+        <is>
+          <t>CoNex</t>
+        </is>
       </c>
       <c r="H99" t="b">
         <v>0</v>
       </c>
       <c r="I99" t="b">
-        <v>0</v>
+        <v>1</v>
+      </c>
+      <c r="J99" t="b">
+        <v>1</v>
       </c>
     </row>
     <row r="100">
       <c r="A100" t="inlineStr">
         <is>
-          <t>🟧</t>
+          <t>🟥</t>
         </is>
       </c>
       <c r="B100" t="inlineStr">
         <is>
-          <t>NCT03735043</t>
-        </is>
-      </c>
-      <c r="C100" t="inlineStr"/>
-      <c r="D100" t="inlineStr">
+          <t>rouge</t>
+        </is>
+      </c>
+      <c r="C100" t="inlineStr">
+        <is>
+          <t>NCT04181502</t>
+        </is>
+      </c>
+      <c r="D100" t="inlineStr"/>
+      <c r="E100" t="inlineStr">
         <is>
           <t>2020</t>
         </is>
       </c>
-      <c r="E100" t="inlineStr">
-        <is>
-          <t>Continuous Non-invasive Cardiac Output, an Evaluation of ccNexfin© in a Pregnant Population</t>
-        </is>
-      </c>
       <c r="F100" t="inlineStr">
         <is>
-          <t>CoNex</t>
-        </is>
-      </c>
-      <c r="G100" t="b">
-        <v>0</v>
+          <t>Randomized, Single-blind Study of Remote Ischemic Preconditioning in Hepatectomies</t>
+        </is>
+      </c>
+      <c r="G100" t="inlineStr">
+        <is>
+          <t>HEPATOPROTECT</t>
+        </is>
       </c>
       <c r="H100" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I100" t="b">
-        <v>1</v>
+        <v>0</v>
+      </c>
+      <c r="J100" t="b">
+        <v>0</v>
       </c>
     </row>
     <row r="101">
       <c r="A101" t="inlineStr">
         <is>
-          <t>🟥</t>
+          <t>🟩</t>
         </is>
       </c>
       <c r="B101" t="inlineStr">
         <is>
-          <t>NCT04231656</t>
-        </is>
-      </c>
-      <c r="C101" t="inlineStr"/>
-      <c r="D101" t="inlineStr">
+          <t>vert</t>
+        </is>
+      </c>
+      <c r="C101" t="inlineStr">
+        <is>
+          <t>NCT02655315</t>
+        </is>
+      </c>
+      <c r="D101" t="inlineStr"/>
+      <c r="E101" t="inlineStr">
         <is>
           <t>2020</t>
         </is>
       </c>
-      <c r="E101" t="inlineStr">
-        <is>
-          <t>Stoke Volume Measurements During Changes in Cardiac Preload: Are Pulse Contour Analysis (CLEARSIGHT) and Transthoracic Bioelectrical Impedance (NICCOMO) Equivalent?</t>
-        </is>
-      </c>
       <c r="F101" t="inlineStr">
         <is>
-          <t>ConBi-Car</t>
-        </is>
-      </c>
-      <c r="G101" t="b">
-        <v>0</v>
+          <t>Conservative Iron Chelation as a Disease-modifying Strategy in Parkinson's Disease. European Multicentre, Parallel-group, Placebo-controlled, Randomized Clinical Trial of Deferiprone"</t>
+        </is>
+      </c>
+      <c r="G101" t="inlineStr">
+        <is>
+          <t>FAIRPARKII</t>
+        </is>
       </c>
       <c r="H101" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I101" t="b">
-        <v>0</v>
+        <v>1</v>
+      </c>
+      <c r="J101" t="b">
+        <v>1</v>
       </c>
     </row>
     <row r="102">
@@ -4116,32 +4626,37 @@
       </c>
       <c r="B102" t="inlineStr">
         <is>
-          <t>NCT04173364</t>
-        </is>
-      </c>
-      <c r="C102" t="inlineStr"/>
-      <c r="D102" t="inlineStr">
+          <t>rouge</t>
+        </is>
+      </c>
+      <c r="C102" t="inlineStr">
+        <is>
+          <t>NCT02880033</t>
+        </is>
+      </c>
+      <c r="D102" t="inlineStr"/>
+      <c r="E102" t="inlineStr">
         <is>
           <t>2020</t>
         </is>
       </c>
-      <c r="E102" t="inlineStr">
-        <is>
-          <t>Interscalene Block and Dysfunction Diaphragmatic: Effect of Low Volume of Ropivacaine 0,1%. A Randomised, Controlled Trial</t>
-        </is>
-      </c>
       <c r="F102" t="inlineStr">
         <is>
-          <t>NUMEROBIS</t>
-        </is>
-      </c>
-      <c r="G102" t="b">
-        <v>0</v>
+          <t>Modulation of Oxidative Stress and Apoptosis of Energy Metabolism by Deferiprone From the Circulating Lymphocytes of Patients With Parkinson's Disease or Amyotrophic Lateral Sclerosis</t>
+        </is>
+      </c>
+      <c r="G102" t="inlineStr">
+        <is>
+          <t>LymphoEnergy</t>
+        </is>
       </c>
       <c r="H102" t="b">
         <v>0</v>
       </c>
       <c r="I102" t="b">
+        <v>0</v>
+      </c>
+      <c r="J102" t="b">
         <v>0</v>
       </c>
     </row>
@@ -4153,32 +4668,37 @@
       </c>
       <c r="B103" t="inlineStr">
         <is>
-          <t>NCT04181502</t>
-        </is>
-      </c>
-      <c r="C103" t="inlineStr"/>
-      <c r="D103" t="inlineStr">
+          <t>rouge</t>
+        </is>
+      </c>
+      <c r="C103" t="inlineStr">
+        <is>
+          <t>NCT03012490</t>
+        </is>
+      </c>
+      <c r="D103" t="inlineStr"/>
+      <c r="E103" t="inlineStr">
         <is>
           <t>2020</t>
         </is>
       </c>
-      <c r="E103" t="inlineStr">
-        <is>
-          <t>Randomized, Single-blind Study of Remote Ischemic Preconditioning in Hepatectomies</t>
-        </is>
-      </c>
       <c r="F103" t="inlineStr">
         <is>
-          <t>HEPATOPROTECT</t>
-        </is>
-      </c>
-      <c r="G103" t="b">
-        <v>0</v>
+          <t>Efficacy, Safety and Cost of Comprehensive Versus Standard Remote Monitoring of Patients With Cardiac Resynchronization Therapy</t>
+        </is>
+      </c>
+      <c r="G103" t="inlineStr">
+        <is>
+          <t>ECOST-CRT</t>
+        </is>
       </c>
       <c r="H103" t="b">
         <v>0</v>
       </c>
       <c r="I103" t="b">
+        <v>0</v>
+      </c>
+      <c r="J103" t="b">
         <v>0</v>
       </c>
     </row>
@@ -4190,32 +4710,37 @@
       </c>
       <c r="B104" t="inlineStr">
         <is>
-          <t>NCT03255863</t>
-        </is>
-      </c>
-      <c r="C104" t="inlineStr"/>
-      <c r="D104" t="inlineStr">
+          <t>rouge</t>
+        </is>
+      </c>
+      <c r="C104" t="inlineStr">
+        <is>
+          <t>NCT02626481</t>
+        </is>
+      </c>
+      <c r="D104" t="inlineStr"/>
+      <c r="E104" t="inlineStr">
         <is>
           <t>2020</t>
         </is>
       </c>
-      <c r="E104" t="inlineStr">
-        <is>
-          <t>Determinants of Patients' Uptake of Therapeutic Education Programme</t>
-        </is>
-      </c>
       <c r="F104" t="inlineStr">
         <is>
-          <t>UTEP</t>
-        </is>
-      </c>
-      <c r="G104" t="b">
-        <v>0</v>
+          <t>A Multicenter Open Label Phase II Study of Daratumumab in Combination With Dexamethasone in Multiple Myeloma Resistant or Refractory to Bortezomib and Lenalidomide and Pomalidomide - an IFM 2014-04 Study</t>
+        </is>
+      </c>
+      <c r="G104" t="inlineStr">
+        <is>
+          <t>IFM2014-04</t>
+        </is>
       </c>
       <c r="H104" t="b">
         <v>0</v>
       </c>
       <c r="I104" t="b">
+        <v>0</v>
+      </c>
+      <c r="J104" t="b">
         <v>0</v>
       </c>
     </row>
@@ -4227,32 +4752,33 @@
       </c>
       <c r="B105" t="inlineStr">
         <is>
-          <t>NCT03012490</t>
-        </is>
-      </c>
-      <c r="C105" t="inlineStr"/>
-      <c r="D105" t="inlineStr">
+          <t>rouge</t>
+        </is>
+      </c>
+      <c r="C105" t="inlineStr">
+        <is>
+          <t>NCT02849236</t>
+        </is>
+      </c>
+      <c r="D105" t="inlineStr"/>
+      <c r="E105" t="inlineStr">
         <is>
           <t>2020</t>
         </is>
       </c>
-      <c r="E105" t="inlineStr">
-        <is>
-          <t>Efficacy, Safety and Cost of Comprehensive Versus Standard Remote Monitoring of Patients With Cardiac Resynchronization Therapy</t>
-        </is>
-      </c>
       <c r="F105" t="inlineStr">
         <is>
-          <t>ECOST-CRT</t>
-        </is>
-      </c>
-      <c r="G105" t="b">
-        <v>0</v>
-      </c>
+          <t>Analgesic Efficacy of the Pectoral Nerve Block Type 1 for Breast Subpectoral Implant Surgery: A Randomized Controlled Study</t>
+        </is>
+      </c>
+      <c r="G105" t="inlineStr"/>
       <c r="H105" t="b">
         <v>0</v>
       </c>
       <c r="I105" t="b">
+        <v>0</v>
+      </c>
+      <c r="J105" t="b">
         <v>0</v>
       </c>
     </row>
@@ -4262,35 +4788,39 @@
           <t>🟥</t>
         </is>
       </c>
-      <c r="B106" t="inlineStr"/>
+      <c r="B106" t="inlineStr">
+        <is>
+          <t>rouge</t>
+        </is>
+      </c>
       <c r="C106" t="inlineStr">
         <is>
-          <t>2015-003679-31</t>
-        </is>
-      </c>
-      <c r="D106" t="inlineStr">
+          <t>NCT03255863</t>
+        </is>
+      </c>
+      <c r="D106" t="inlineStr"/>
+      <c r="E106" t="inlineStr">
         <is>
           <t>2020</t>
         </is>
       </c>
-      <c r="E106" t="inlineStr">
-        <is>
-          <t>Conservative iron chelation as a disease-modifying strategy in Parkinson’s disease 
- Chélation conservatrice du fer comme stratégie thérapeutique susceptible de ralentir la progression de la maladie de Parkinson</t>
-        </is>
-      </c>
       <c r="F106" t="inlineStr">
         <is>
-          <t>FAIRPARK II</t>
-        </is>
-      </c>
-      <c r="G106" t="b">
-        <v>0</v>
+          <t>Determinants of Patients' Uptake of Therapeutic Education Programme</t>
+        </is>
+      </c>
+      <c r="G106" t="inlineStr">
+        <is>
+          <t>UTEP</t>
+        </is>
       </c>
       <c r="H106" t="b">
         <v>0</v>
       </c>
       <c r="I106" t="b">
+        <v>0</v>
+      </c>
+      <c r="J106" t="b">
         <v>0</v>
       </c>
     </row>
@@ -4302,32 +4832,37 @@
       </c>
       <c r="B107" t="inlineStr">
         <is>
-          <t>NCT02891330</t>
-        </is>
-      </c>
-      <c r="C107" t="inlineStr"/>
-      <c r="D107" t="inlineStr">
+          <t>rouge</t>
+        </is>
+      </c>
+      <c r="C107" t="inlineStr">
+        <is>
+          <t>NCT03261414</t>
+        </is>
+      </c>
+      <c r="D107" t="inlineStr"/>
+      <c r="E107" t="inlineStr">
         <is>
           <t>2020</t>
         </is>
       </c>
-      <c r="E107" t="inlineStr">
-        <is>
-          <t>Assessing the Impact of an Educational Personalized Clinical Support Device Preventive and a Referent Nurse in Surgery for Obesity With the Risk of Occurrence of Dumping Syndrome After Gastric Bypass.</t>
-        </is>
-      </c>
       <c r="F107" t="inlineStr">
         <is>
-          <t>IRCO</t>
-        </is>
-      </c>
-      <c r="G107" t="b">
-        <v>0</v>
+          <t>Prospective Randomized Study Evaluating the Effect of Pre-operative Hypnosis on Anesthesia, Analgesia and Perioperative Stress Laparoscopic Ileo-caecal Resections of Crohn's Disease.</t>
+        </is>
+      </c>
+      <c r="G107" t="inlineStr">
+        <is>
+          <t>HYSTERIA</t>
+        </is>
       </c>
       <c r="H107" t="b">
         <v>0</v>
       </c>
       <c r="I107" t="b">
+        <v>0</v>
+      </c>
+      <c r="J107" t="b">
         <v>0</v>
       </c>
     </row>
@@ -4339,32 +4874,37 @@
       </c>
       <c r="B108" t="inlineStr">
         <is>
-          <t>NCT03946046</t>
-        </is>
-      </c>
-      <c r="C108" t="inlineStr"/>
-      <c r="D108" t="inlineStr">
+          <t>rouge</t>
+        </is>
+      </c>
+      <c r="C108" t="inlineStr">
+        <is>
+          <t>NCT02891330</t>
+        </is>
+      </c>
+      <c r="D108" t="inlineStr"/>
+      <c r="E108" t="inlineStr">
         <is>
           <t>2020</t>
         </is>
       </c>
-      <c r="E108" t="inlineStr">
-        <is>
-          <t>Results of Botulinum Toxin Injections for Cervical Dystonia : Benefits of Ultrasonography</t>
-        </is>
-      </c>
       <c r="F108" t="inlineStr">
         <is>
-          <t>RINOCERAUS</t>
-        </is>
-      </c>
-      <c r="G108" t="b">
-        <v>0</v>
+          <t>Assessing the Impact of an Educational Personalized Clinical Support Device Preventive and a Referent Nurse in Surgery for Obesity With the Risk of Occurrence of Dumping Syndrome After Gastric Bypass.</t>
+        </is>
+      </c>
+      <c r="G108" t="inlineStr">
+        <is>
+          <t>IRCO</t>
+        </is>
       </c>
       <c r="H108" t="b">
         <v>0</v>
       </c>
       <c r="I108" t="b">
+        <v>0</v>
+      </c>
+      <c r="J108" t="b">
         <v>0</v>
       </c>
     </row>
@@ -4376,32 +4916,37 @@
       </c>
       <c r="B109" t="inlineStr">
         <is>
-          <t>NCT02626481</t>
-        </is>
-      </c>
-      <c r="C109" t="inlineStr"/>
-      <c r="D109" t="inlineStr">
+          <t>rouge</t>
+        </is>
+      </c>
+      <c r="C109" t="inlineStr">
+        <is>
+          <t>NCT03946046</t>
+        </is>
+      </c>
+      <c r="D109" t="inlineStr"/>
+      <c r="E109" t="inlineStr">
         <is>
           <t>2020</t>
         </is>
       </c>
-      <c r="E109" t="inlineStr">
-        <is>
-          <t>A Multicenter Open Label Phase II Study of Daratumumab in Combination With Dexamethasone in Multiple Myeloma Resistant or Refractory to Bortezomib and Lenalidomide and Pomalidomide - an IFM 2014-04 Study</t>
-        </is>
-      </c>
       <c r="F109" t="inlineStr">
         <is>
-          <t>IFM2014-04</t>
-        </is>
-      </c>
-      <c r="G109" t="b">
-        <v>0</v>
+          <t>Results of Botulinum Toxin Injections for Cervical Dystonia : Benefits of Ultrasonography</t>
+        </is>
+      </c>
+      <c r="G109" t="inlineStr">
+        <is>
+          <t>RINOCERAUS</t>
+        </is>
       </c>
       <c r="H109" t="b">
         <v>0</v>
       </c>
       <c r="I109" t="b">
+        <v>0</v>
+      </c>
+      <c r="J109" t="b">
         <v>0</v>
       </c>
     </row>
@@ -4413,32 +4958,37 @@
       </c>
       <c r="B110" t="inlineStr">
         <is>
-          <t>NCT03801941</t>
-        </is>
-      </c>
-      <c r="C110" t="inlineStr"/>
-      <c r="D110" t="inlineStr">
+          <t>rouge</t>
+        </is>
+      </c>
+      <c r="C110" t="inlineStr">
+        <is>
+          <t>NCT04535115</t>
+        </is>
+      </c>
+      <c r="D110" t="inlineStr"/>
+      <c r="E110" t="inlineStr">
         <is>
           <t>2021</t>
         </is>
       </c>
-      <c r="E110" t="inlineStr">
-        <is>
-          <t>Cross Over Pilot Study for Evaluation of Pain Reduction in Patients With Chronic Low Back Pain (for More Than 3 Month) Using an Innovative Handheld Device</t>
-        </is>
-      </c>
       <c r="F110" t="inlineStr">
         <is>
-          <t>ATLAS</t>
-        </is>
-      </c>
-      <c r="G110" t="b">
-        <v>0</v>
+          <t>Intraoperative Hemodynamic Optimization: Predictive Value to Fluid Respon-siveness of the Tidal Volume Challenge and the Lung Recruitment Maneuver by Monitoring the Variation of the Pulsed Pressure and the Variation of the Systolic Ejection Volume.</t>
+        </is>
+      </c>
+      <c r="G110" t="inlineStr">
+        <is>
+          <t>TIDALEC</t>
+        </is>
       </c>
       <c r="H110" t="b">
         <v>0</v>
       </c>
       <c r="I110" t="b">
+        <v>0</v>
+      </c>
+      <c r="J110" t="b">
         <v>0</v>
       </c>
     </row>
@@ -4450,32 +5000,37 @@
       </c>
       <c r="B111" t="inlineStr">
         <is>
-          <t>NCT02749110</t>
-        </is>
-      </c>
-      <c r="C111" t="inlineStr"/>
-      <c r="D111" t="inlineStr">
+          <t>vert</t>
+        </is>
+      </c>
+      <c r="C111" t="inlineStr">
+        <is>
+          <t>NCT04381637</t>
+        </is>
+      </c>
+      <c r="D111" t="inlineStr"/>
+      <c r="E111" t="inlineStr">
         <is>
           <t>2021</t>
         </is>
       </c>
-      <c r="E111" t="inlineStr">
-        <is>
-          <t>Participation in Screening for Cervical Cancer: Interest of a Human Papillomavirus (HPV) Self-sampling Device Provided by the General Practitioner; a Cluster Randomized Clinical Trial</t>
-        </is>
-      </c>
       <c r="F111" t="inlineStr">
         <is>
-          <t>PaCUDAHL-Gé</t>
-        </is>
-      </c>
-      <c r="G111" t="b">
-        <v>1</v>
+          <t>Newborn Infant Parasympathetic Evaluation (NIPE) Index After Three Standardized Tetanic Stimulations (10, 30 and 60 Miliamps) Performed in a Randomized Sequence Under General Anesthesia in a Pediatric Population</t>
+        </is>
+      </c>
+      <c r="G111" t="inlineStr">
+        <is>
+          <t>NIPESTIM</t>
+        </is>
       </c>
       <c r="H111" t="b">
         <v>1</v>
       </c>
       <c r="I111" t="b">
+        <v>1</v>
+      </c>
+      <c r="J111" t="b">
         <v>1</v>
       </c>
     </row>
@@ -4487,70 +5042,80 @@
       </c>
       <c r="B112" t="inlineStr">
         <is>
-          <t>NCT04381637</t>
-        </is>
-      </c>
-      <c r="C112" t="inlineStr"/>
-      <c r="D112" t="inlineStr">
+          <t>vert</t>
+        </is>
+      </c>
+      <c r="C112" t="inlineStr">
+        <is>
+          <t>NCT02086214</t>
+        </is>
+      </c>
+      <c r="D112" t="inlineStr"/>
+      <c r="E112" t="inlineStr">
         <is>
           <t>2021</t>
         </is>
       </c>
-      <c r="E112" t="inlineStr">
-        <is>
-          <t>Newborn Infant Parasympathetic Evaluation (NIPE) Index After Three Standardized Tetanic Stimulations (10, 30 and 60 Miliamps) Performed in a Randomized Sequence Under General Anesthesia in a Pediatric Population</t>
-        </is>
-      </c>
       <c r="F112" t="inlineStr">
         <is>
-          <t>NIPESTIM</t>
-        </is>
-      </c>
-      <c r="G112" t="b">
-        <v>1</v>
+          <t>Pressure Therapy in the Treatment of Upper Arm of Cerebral Palsy Children</t>
+        </is>
+      </c>
+      <c r="G112" t="inlineStr">
+        <is>
+          <t>PROPENSIX</t>
+        </is>
       </c>
       <c r="H112" t="b">
         <v>1</v>
       </c>
       <c r="I112" t="b">
+        <v>1</v>
+      </c>
+      <c r="J112" t="b">
         <v>1</v>
       </c>
     </row>
     <row r="113">
       <c r="A113" t="inlineStr">
         <is>
-          <t>🟥</t>
+          <t>🟩</t>
         </is>
       </c>
       <c r="B113" t="inlineStr">
         <is>
-          <t>NCT05994196</t>
-        </is>
-      </c>
-      <c r="C113" t="inlineStr"/>
-      <c r="D113" t="inlineStr">
+          <t>vert</t>
+        </is>
+      </c>
+      <c r="C113" t="inlineStr">
+        <is>
+          <t>NCT02749110</t>
+        </is>
+      </c>
+      <c r="D113" t="inlineStr"/>
+      <c r="E113" t="inlineStr">
         <is>
           <t>2021</t>
         </is>
       </c>
-      <c r="E113" t="inlineStr">
-        <is>
-          <t>Evaluation of a Patient Prioritization Software for the Secondary Prioritization of Patients in the Pediatric Emergency Department</t>
-        </is>
-      </c>
       <c r="F113" t="inlineStr">
         <is>
-          <t>OPTIMUM</t>
-        </is>
-      </c>
-      <c r="G113" t="b">
-        <v>0</v>
+          <t>Participation in Screening for Cervical Cancer: Interest of a Human Papillomavirus (HPV) Self-sampling Device Provided by the General Practitioner; a Cluster Randomized Clinical Trial</t>
+        </is>
+      </c>
+      <c r="G113" t="inlineStr">
+        <is>
+          <t>PaCUDAHL-Gé</t>
+        </is>
       </c>
       <c r="H113" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I113" t="b">
-        <v>0</v>
+        <v>1</v>
+      </c>
+      <c r="J113" t="b">
+        <v>1</v>
       </c>
     </row>
     <row r="114">
@@ -4561,70 +5126,80 @@
       </c>
       <c r="B114" t="inlineStr">
         <is>
+          <t>vert</t>
+        </is>
+      </c>
+      <c r="C114" t="inlineStr">
+        <is>
           <t>NCT03048240</t>
         </is>
       </c>
-      <c r="C114" t="inlineStr"/>
-      <c r="D114" t="inlineStr">
+      <c r="D114" t="inlineStr"/>
+      <c r="E114" t="inlineStr">
         <is>
           <t>2021</t>
         </is>
       </c>
-      <c r="E114" t="inlineStr">
+      <c r="F114" t="inlineStr">
         <is>
           <t>A Pilot Study of the Feasibility of Intraoperative Photodynamic Therapy of Glioblastoma.</t>
         </is>
       </c>
-      <c r="F114" t="inlineStr">
+      <c r="G114" t="inlineStr">
         <is>
           <t>INDYGO</t>
         </is>
       </c>
-      <c r="G114" t="b">
-        <v>1</v>
-      </c>
       <c r="H114" t="b">
         <v>1</v>
       </c>
       <c r="I114" t="b">
+        <v>1</v>
+      </c>
+      <c r="J114" t="b">
         <v>1</v>
       </c>
     </row>
     <row r="115">
       <c r="A115" t="inlineStr">
         <is>
-          <t>🟩</t>
+          <t>🟥</t>
         </is>
       </c>
       <c r="B115" t="inlineStr">
         <is>
-          <t>NCT02086214</t>
-        </is>
-      </c>
-      <c r="C115" t="inlineStr"/>
-      <c r="D115" t="inlineStr">
+          <t>rouge</t>
+        </is>
+      </c>
+      <c r="C115" t="inlineStr">
+        <is>
+          <t>NCT03726203</t>
+        </is>
+      </c>
+      <c r="D115" t="inlineStr"/>
+      <c r="E115" t="inlineStr">
         <is>
           <t>2021</t>
         </is>
       </c>
-      <c r="E115" t="inlineStr">
-        <is>
-          <t>Pressure Therapy in the Treatment of Upper Arm of Cerebral Palsy Children</t>
-        </is>
-      </c>
       <c r="F115" t="inlineStr">
         <is>
-          <t>PROPENSIX</t>
-        </is>
-      </c>
-      <c r="G115" t="b">
-        <v>1</v>
+          <t>Benign Gynecologic Laparoscopic Surgery: Comparison of Conventional Trocars to the Teleflex® MiniLap® System in Length of Hospitalization, Pain and Aesthetics, a Randomized Study.</t>
+        </is>
+      </c>
+      <c r="G115" t="inlineStr">
+        <is>
+          <t>MiniTroc</t>
+        </is>
       </c>
       <c r="H115" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I115" t="b">
-        <v>1</v>
+        <v>0</v>
+      </c>
+      <c r="J115" t="b">
+        <v>0</v>
       </c>
     </row>
     <row r="116">
@@ -4635,32 +5210,37 @@
       </c>
       <c r="B116" t="inlineStr">
         <is>
-          <t>NCT04535115</t>
-        </is>
-      </c>
-      <c r="C116" t="inlineStr"/>
-      <c r="D116" t="inlineStr">
+          <t>rouge</t>
+        </is>
+      </c>
+      <c r="C116" t="inlineStr">
+        <is>
+          <t>NCT05994196</t>
+        </is>
+      </c>
+      <c r="D116" t="inlineStr"/>
+      <c r="E116" t="inlineStr">
         <is>
           <t>2021</t>
         </is>
       </c>
-      <c r="E116" t="inlineStr">
-        <is>
-          <t>Intraoperative Hemodynamic Optimization: Predictive Value to Fluid Respon-siveness of the Tidal Volume Challenge and the Lung Recruitment Maneuver by Monitoring the Variation of the Pulsed Pressure and the Variation of the Systolic Ejection Volume.</t>
-        </is>
-      </c>
       <c r="F116" t="inlineStr">
         <is>
-          <t>TIDALEC</t>
-        </is>
-      </c>
-      <c r="G116" t="b">
-        <v>0</v>
+          <t>Evaluation of a Patient Prioritization Software for the Secondary Prioritization of Patients in the Pediatric Emergency Department</t>
+        </is>
+      </c>
+      <c r="G116" t="inlineStr">
+        <is>
+          <t>OPTIMUM</t>
+        </is>
       </c>
       <c r="H116" t="b">
         <v>0</v>
       </c>
       <c r="I116" t="b">
+        <v>0</v>
+      </c>
+      <c r="J116" t="b">
         <v>0</v>
       </c>
     </row>
@@ -4672,32 +5252,37 @@
       </c>
       <c r="B117" t="inlineStr">
         <is>
-          <t>NCT03726203</t>
-        </is>
-      </c>
-      <c r="C117" t="inlineStr"/>
-      <c r="D117" t="inlineStr">
+          <t>rouge</t>
+        </is>
+      </c>
+      <c r="C117" t="inlineStr">
+        <is>
+          <t>NCT03200769</t>
+        </is>
+      </c>
+      <c r="D117" t="inlineStr"/>
+      <c r="E117" t="inlineStr">
         <is>
           <t>2021</t>
         </is>
       </c>
-      <c r="E117" t="inlineStr">
-        <is>
-          <t>Benign Gynecologic Laparoscopic Surgery: Comparison of Conventional Trocars to the Teleflex® MiniLap® System in Length of Hospitalization, Pain and Aesthetics, a Randomized Study.</t>
-        </is>
-      </c>
       <c r="F117" t="inlineStr">
         <is>
-          <t>MiniTroc</t>
-        </is>
-      </c>
-      <c r="G117" t="b">
-        <v>0</v>
+          <t>Study of the Efficacy of the Treatment of Sleep Apnea Syndrome by CPAP in Pharmacoresistant Epilepsy</t>
+        </is>
+      </c>
+      <c r="G117" t="inlineStr">
+        <is>
+          <t>SASER</t>
+        </is>
       </c>
       <c r="H117" t="b">
         <v>0</v>
       </c>
       <c r="I117" t="b">
+        <v>0</v>
+      </c>
+      <c r="J117" t="b">
         <v>0</v>
       </c>
     </row>
@@ -4709,107 +5294,122 @@
       </c>
       <c r="B118" t="inlineStr">
         <is>
-          <t>NCT03200769</t>
-        </is>
-      </c>
-      <c r="C118" t="inlineStr"/>
-      <c r="D118" t="inlineStr">
+          <t>rouge</t>
+        </is>
+      </c>
+      <c r="C118" t="inlineStr">
+        <is>
+          <t>NCT03801941</t>
+        </is>
+      </c>
+      <c r="D118" t="inlineStr"/>
+      <c r="E118" t="inlineStr">
         <is>
           <t>2021</t>
         </is>
       </c>
-      <c r="E118" t="inlineStr">
-        <is>
-          <t>Study of the Efficacy of the Treatment of Sleep Apnea Syndrome by CPAP in Pharmacoresistant Epilepsy</t>
-        </is>
-      </c>
       <c r="F118" t="inlineStr">
         <is>
-          <t>SASER</t>
-        </is>
-      </c>
-      <c r="G118" t="b">
-        <v>0</v>
+          <t>Cross Over Pilot Study for Evaluation of Pain Reduction in Patients With Chronic Low Back Pain (for More Than 3 Month) Using an Innovative Handheld Device</t>
+        </is>
+      </c>
+      <c r="G118" t="inlineStr">
+        <is>
+          <t>ATLAS</t>
+        </is>
       </c>
       <c r="H118" t="b">
         <v>0</v>
       </c>
       <c r="I118" t="b">
+        <v>0</v>
+      </c>
+      <c r="J118" t="b">
         <v>0</v>
       </c>
     </row>
     <row r="119">
       <c r="A119" t="inlineStr">
         <is>
-          <t>🟩</t>
+          <t>🟥</t>
         </is>
       </c>
       <c r="B119" t="inlineStr">
         <is>
-          <t>NCT01373866</t>
-        </is>
-      </c>
-      <c r="C119" t="inlineStr"/>
-      <c r="D119" t="inlineStr">
+          <t>rouge</t>
+        </is>
+      </c>
+      <c r="C119" t="inlineStr">
+        <is>
+          <t>NCT03741569</t>
+        </is>
+      </c>
+      <c r="D119" t="inlineStr"/>
+      <c r="E119" t="inlineStr">
         <is>
           <t>2022</t>
         </is>
       </c>
-      <c r="E119" t="inlineStr">
-        <is>
-          <t>Multimodal MRI-guided Repetitive Transcranial Magnetic Stimulation to Treat Drug-resistant Hallucinations: a Randomized Control Trial</t>
-        </is>
-      </c>
       <c r="F119" t="inlineStr">
         <is>
-          <t>MULTIMODHAL</t>
-        </is>
-      </c>
-      <c r="G119" t="b">
-        <v>1</v>
+          <t>Development of a Real-time Signal Processing Algorithm, for Beat-beat Measurement of Fetal Heart Rate and Uterine Contractions by Coupling Non-invasive ABDOminal Sensors</t>
+        </is>
+      </c>
+      <c r="G119" t="inlineStr">
+        <is>
+          <t>RCF-ABDO</t>
+        </is>
       </c>
       <c r="H119" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I119" t="b">
-        <v>1</v>
+        <v>0</v>
+      </c>
+      <c r="J119" t="b">
+        <v>0</v>
       </c>
     </row>
     <row r="120">
       <c r="A120" t="inlineStr">
         <is>
-          <t>🟥</t>
+          <t>🟩</t>
         </is>
       </c>
       <c r="B120" t="inlineStr">
         <is>
-          <t>NCT03556696</t>
-        </is>
-      </c>
-      <c r="C120" t="inlineStr"/>
-      <c r="D120" t="inlineStr">
+          <t>vert</t>
+        </is>
+      </c>
+      <c r="C120" t="inlineStr">
+        <is>
+          <t>NCT01373866</t>
+        </is>
+      </c>
+      <c r="D120" t="inlineStr"/>
+      <c r="E120" t="inlineStr">
         <is>
           <t>2022</t>
         </is>
       </c>
-      <c r="E120" t="inlineStr">
-        <is>
-          <t>Automatic Remifentanil Administration Guided by the Analgesia Nociception Index During Propofol Anesthesia</t>
-        </is>
-      </c>
       <c r="F120" t="inlineStr">
         <is>
-          <t>ANI-LOOP</t>
-        </is>
-      </c>
-      <c r="G120" t="b">
-        <v>0</v>
+          <t>Multimodal MRI-guided Repetitive Transcranial Magnetic Stimulation to Treat Drug-resistant Hallucinations: a Randomized Control Trial</t>
+        </is>
+      </c>
+      <c r="G120" t="inlineStr">
+        <is>
+          <t>MULTIMODHAL</t>
+        </is>
       </c>
       <c r="H120" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I120" t="b">
-        <v>0</v>
+        <v>1</v>
+      </c>
+      <c r="J120" t="b">
+        <v>1</v>
       </c>
     </row>
     <row r="121">
@@ -4820,32 +5420,37 @@
       </c>
       <c r="B121" t="inlineStr">
         <is>
-          <t>NCT03741569</t>
-        </is>
-      </c>
-      <c r="C121" t="inlineStr"/>
-      <c r="D121" t="inlineStr">
+          <t>rouge</t>
+        </is>
+      </c>
+      <c r="C121" t="inlineStr">
+        <is>
+          <t>NCT03556696</t>
+        </is>
+      </c>
+      <c r="D121" t="inlineStr"/>
+      <c r="E121" t="inlineStr">
         <is>
           <t>2022</t>
         </is>
       </c>
-      <c r="E121" t="inlineStr">
-        <is>
-          <t>Development of a Real-time Signal Processing Algorithm, for Beat-beat Measurement of Fetal Heart Rate and Uterine Contractions by Coupling Non-invasive ABDOminal Sensors</t>
-        </is>
-      </c>
       <c r="F121" t="inlineStr">
         <is>
-          <t>RCF-ABDO</t>
-        </is>
-      </c>
-      <c r="G121" t="b">
-        <v>0</v>
+          <t>Automatic Remifentanil Administration Guided by the Analgesia Nociception Index During Propofol Anesthesia</t>
+        </is>
+      </c>
+      <c r="G121" t="inlineStr">
+        <is>
+          <t>ANI-LOOP</t>
+        </is>
       </c>
       <c r="H121" t="b">
         <v>0</v>
       </c>
       <c r="I121" t="b">
+        <v>0</v>
+      </c>
+      <c r="J121" t="b">
         <v>0</v>
       </c>
     </row>
@@ -4857,32 +5462,37 @@
       </c>
       <c r="B122" t="inlineStr">
         <is>
+          <t>rouge</t>
+        </is>
+      </c>
+      <c r="C122" t="inlineStr">
+        <is>
           <t>NCT01423396</t>
         </is>
       </c>
-      <c r="C122" t="inlineStr"/>
-      <c r="D122" t="inlineStr">
+      <c r="D122" t="inlineStr"/>
+      <c r="E122" t="inlineStr">
         <is>
           <t>2022</t>
         </is>
       </c>
-      <c r="E122" t="inlineStr">
+      <c r="F122" t="inlineStr">
         <is>
           <t>Impact of Controlling Vascular Risk Factors on the Progression of Alzheimer's Disease</t>
         </is>
       </c>
-      <c r="F122" t="inlineStr">
+      <c r="G122" t="inlineStr">
         <is>
           <t>COVARAD</t>
         </is>
       </c>
-      <c r="G122" t="b">
-        <v>0</v>
-      </c>
       <c r="H122" t="b">
         <v>0</v>
       </c>
       <c r="I122" t="b">
+        <v>0</v>
+      </c>
+      <c r="J122" t="b">
         <v>0</v>
       </c>
     </row>
@@ -4894,32 +5504,37 @@
       </c>
       <c r="B123" t="inlineStr">
         <is>
+          <t>rouge</t>
+        </is>
+      </c>
+      <c r="C123" t="inlineStr">
+        <is>
           <t>NCT04332276</t>
         </is>
       </c>
-      <c r="C123" t="inlineStr"/>
-      <c r="D123" t="inlineStr">
+      <c r="D123" t="inlineStr"/>
+      <c r="E123" t="inlineStr">
         <is>
           <t>2024</t>
         </is>
       </c>
-      <c r="E123" t="inlineStr">
+      <c r="F123" t="inlineStr">
         <is>
           <t>A New Concept of Continuous Dopaminergic Stimulation by Cerebroventricular Administration of A-dopamine (dopamine Stored in Anaerobia) for Severe Motor Fluctuations in Parkinson's Disease?</t>
         </is>
       </c>
-      <c r="F123" t="inlineStr">
+      <c r="G123" t="inlineStr">
         <is>
           <t>DIVE</t>
         </is>
       </c>
-      <c r="G123" t="b">
-        <v>0</v>
-      </c>
       <c r="H123" t="b">
         <v>0</v>
       </c>
       <c r="I123" t="b">
+        <v>0</v>
+      </c>
+      <c r="J123" t="b">
         <v>0</v>
       </c>
     </row>
@@ -4929,32 +5544,37 @@
           <t>🟥</t>
         </is>
       </c>
-      <c r="B124" t="inlineStr"/>
-      <c r="C124" t="inlineStr">
+      <c r="B124" t="inlineStr">
+        <is>
+          <t>rouge</t>
+        </is>
+      </c>
+      <c r="C124" t="inlineStr"/>
+      <c r="D124" t="inlineStr">
         <is>
           <t>2016-001480-36</t>
         </is>
       </c>
-      <c r="D124" t="inlineStr"/>
-      <c r="E124" t="inlineStr">
+      <c r="E124" t="inlineStr"/>
+      <c r="F124" t="inlineStr">
         <is>
           <t>Assessment of the IgG trough level in subjects with primary immunodeficiency switching from standard subcutaneous immunoglobulin (SCIG) to every other week HyQvia  
  Évaluation du taux résiduel d’IgG chez des sujets atteints de déficit Immunitaire Primitif (DIP), après substitution d’injections sous-cutanées d’immunoglobuline standard (IGSC) par HyQvia administré toutes les deux semaines.</t>
         </is>
       </c>
-      <c r="F124" t="inlineStr">
+      <c r="G124" t="inlineStr">
         <is>
           <t>HyQvia 
  HyQvia</t>
         </is>
       </c>
-      <c r="G124" t="b">
-        <v>0</v>
-      </c>
       <c r="H124" t="b">
         <v>0</v>
       </c>
       <c r="I124" t="b">
+        <v>0</v>
+      </c>
+      <c r="J124" t="b">
         <v>0</v>
       </c>
     </row>

--- a/publipostage/02ppyfa04/liste_essais_cliniques_identifies_02ppyfa04.xlsx
+++ b/publipostage/02ppyfa04/liste_essais_cliniques_identifies_02ppyfa04.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:J124"/>
+  <dimension ref="A1:K124"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -484,6 +484,11 @@
           <t>results</t>
         </is>
       </c>
+      <c r="K1" s="1" t="inlineStr">
+        <is>
+          <t>intervention_type</t>
+        </is>
+      </c>
     </row>
     <row r="2">
       <c r="A2" t="inlineStr">
@@ -526,6 +531,11 @@
       <c r="J2" t="b">
         <v>1</v>
       </c>
+      <c r="K2" t="inlineStr">
+        <is>
+          <t>BIOLOGICAL</t>
+        </is>
+      </c>
     </row>
     <row r="3">
       <c r="A3" t="inlineStr">
@@ -564,6 +574,11 @@
       <c r="J3" t="b">
         <v>1</v>
       </c>
+      <c r="K3" t="inlineStr">
+        <is>
+          <t>DRUG</t>
+        </is>
+      </c>
     </row>
     <row r="4">
       <c r="A4" t="inlineStr">
@@ -605,6 +620,11 @@
       </c>
       <c r="J4" t="b">
         <v>0</v>
+      </c>
+      <c r="K4" t="inlineStr">
+        <is>
+          <t>DRUG</t>
+        </is>
       </c>
     </row>
     <row r="5">
@@ -640,6 +660,11 @@
       <c r="J5" t="b">
         <v>1</v>
       </c>
+      <c r="K5" t="inlineStr">
+        <is>
+          <t>DRUG</t>
+        </is>
+      </c>
     </row>
     <row r="6">
       <c r="A6" t="inlineStr">
@@ -682,6 +707,11 @@
       <c r="J6" t="b">
         <v>0</v>
       </c>
+      <c r="K6" t="inlineStr">
+        <is>
+          <t>OTHER</t>
+        </is>
+      </c>
     </row>
     <row r="7">
       <c r="A7" t="inlineStr">
@@ -720,6 +750,11 @@
       <c r="J7" t="b">
         <v>1</v>
       </c>
+      <c r="K7" t="inlineStr">
+        <is>
+          <t>PROCEDURE</t>
+        </is>
+      </c>
     </row>
     <row r="8">
       <c r="A8" t="inlineStr">
@@ -758,6 +793,11 @@
       <c r="J8" t="b">
         <v>0</v>
       </c>
+      <c r="K8" t="inlineStr">
+        <is>
+          <t>DEVICE</t>
+        </is>
+      </c>
     </row>
     <row r="9">
       <c r="A9" t="inlineStr">
@@ -800,6 +840,11 @@
       <c r="J9" t="b">
         <v>1</v>
       </c>
+      <c r="K9" t="inlineStr">
+        <is>
+          <t>DRUG</t>
+        </is>
+      </c>
     </row>
     <row r="10">
       <c r="A10" t="inlineStr">
@@ -842,6 +887,11 @@
       <c r="J10" t="b">
         <v>1</v>
       </c>
+      <c r="K10" t="inlineStr">
+        <is>
+          <t>OTHER</t>
+        </is>
+      </c>
     </row>
     <row r="11">
       <c r="A11" t="inlineStr">
@@ -884,6 +934,11 @@
       <c r="J11" t="b">
         <v>1</v>
       </c>
+      <c r="K11" t="inlineStr">
+        <is>
+          <t>DRUG</t>
+        </is>
+      </c>
     </row>
     <row r="12">
       <c r="A12" t="inlineStr">
@@ -926,6 +981,11 @@
       <c r="J12" t="b">
         <v>1</v>
       </c>
+      <c r="K12" t="inlineStr">
+        <is>
+          <t>DRUG</t>
+        </is>
+      </c>
     </row>
     <row r="13">
       <c r="A13" t="inlineStr">
@@ -968,6 +1028,11 @@
       <c r="J13" t="b">
         <v>1</v>
       </c>
+      <c r="K13" t="inlineStr">
+        <is>
+          <t>DRUG</t>
+        </is>
+      </c>
     </row>
     <row r="14">
       <c r="A14" t="inlineStr">
@@ -1010,6 +1075,7 @@
       <c r="J14" t="b">
         <v>1</v>
       </c>
+      <c r="K14" t="inlineStr"/>
     </row>
     <row r="15">
       <c r="A15" t="inlineStr">
@@ -1052,6 +1118,11 @@
       <c r="J15" t="b">
         <v>1</v>
       </c>
+      <c r="K15" t="inlineStr">
+        <is>
+          <t>DEVICE</t>
+        </is>
+      </c>
     </row>
     <row r="16">
       <c r="A16" t="inlineStr">
@@ -1094,6 +1165,11 @@
       <c r="J16" t="b">
         <v>1</v>
       </c>
+      <c r="K16" t="inlineStr">
+        <is>
+          <t>DRUG</t>
+        </is>
+      </c>
     </row>
     <row r="17">
       <c r="A17" t="inlineStr">
@@ -1136,6 +1212,7 @@
       <c r="J17" t="b">
         <v>1</v>
       </c>
+      <c r="K17" t="inlineStr"/>
     </row>
     <row r="18">
       <c r="A18" t="inlineStr">
@@ -1178,6 +1255,11 @@
       <c r="J18" t="b">
         <v>0</v>
       </c>
+      <c r="K18" t="inlineStr">
+        <is>
+          <t>DRUG</t>
+        </is>
+      </c>
     </row>
     <row r="19">
       <c r="A19" t="inlineStr">
@@ -1220,6 +1302,11 @@
       <c r="J19" t="b">
         <v>1</v>
       </c>
+      <c r="K19" t="inlineStr">
+        <is>
+          <t>DRUG</t>
+        </is>
+      </c>
     </row>
     <row r="20">
       <c r="A20" t="inlineStr">
@@ -1262,6 +1349,11 @@
       <c r="J20" t="b">
         <v>0</v>
       </c>
+      <c r="K20" t="inlineStr">
+        <is>
+          <t>OTHER</t>
+        </is>
+      </c>
     </row>
     <row r="21">
       <c r="A21" t="inlineStr">
@@ -1304,6 +1396,11 @@
       <c r="J21" t="b">
         <v>1</v>
       </c>
+      <c r="K21" t="inlineStr">
+        <is>
+          <t>DRUG</t>
+        </is>
+      </c>
     </row>
     <row r="22">
       <c r="A22" t="inlineStr">
@@ -1346,6 +1443,11 @@
       <c r="J22" t="b">
         <v>0</v>
       </c>
+      <c r="K22" t="inlineStr">
+        <is>
+          <t>DRUG</t>
+        </is>
+      </c>
     </row>
     <row r="23">
       <c r="A23" t="inlineStr">
@@ -1384,6 +1486,11 @@
       <c r="J23" t="b">
         <v>1</v>
       </c>
+      <c r="K23" t="inlineStr">
+        <is>
+          <t>OTHER</t>
+        </is>
+      </c>
     </row>
     <row r="24">
       <c r="A24" t="inlineStr">
@@ -1426,6 +1533,11 @@
       <c r="J24" t="b">
         <v>0</v>
       </c>
+      <c r="K24" t="inlineStr">
+        <is>
+          <t>DRUG</t>
+        </is>
+      </c>
     </row>
     <row r="25">
       <c r="A25" t="inlineStr">
@@ -1468,6 +1580,11 @@
       <c r="J25" t="b">
         <v>0</v>
       </c>
+      <c r="K25" t="inlineStr">
+        <is>
+          <t>OTHER</t>
+        </is>
+      </c>
     </row>
     <row r="26">
       <c r="A26" t="inlineStr">
@@ -1510,6 +1627,11 @@
       <c r="J26" t="b">
         <v>1</v>
       </c>
+      <c r="K26" t="inlineStr">
+        <is>
+          <t>OTHER</t>
+        </is>
+      </c>
     </row>
     <row r="27">
       <c r="A27" t="inlineStr">
@@ -1548,6 +1670,11 @@
       <c r="J27" t="b">
         <v>0</v>
       </c>
+      <c r="K27" t="inlineStr">
+        <is>
+          <t>PROCEDURE</t>
+        </is>
+      </c>
     </row>
     <row r="28">
       <c r="A28" t="inlineStr">
@@ -1590,6 +1717,11 @@
       <c r="J28" t="b">
         <v>1</v>
       </c>
+      <c r="K28" t="inlineStr">
+        <is>
+          <t>DEVICE</t>
+        </is>
+      </c>
     </row>
     <row r="29">
       <c r="A29" t="inlineStr">
@@ -1632,6 +1764,11 @@
       <c r="J29" t="b">
         <v>1</v>
       </c>
+      <c r="K29" t="inlineStr">
+        <is>
+          <t>DEVICE</t>
+        </is>
+      </c>
     </row>
     <row r="30">
       <c r="A30" t="inlineStr">
@@ -1674,6 +1811,11 @@
       <c r="J30" t="b">
         <v>1</v>
       </c>
+      <c r="K30" t="inlineStr">
+        <is>
+          <t>BEHAVIORAL</t>
+        </is>
+      </c>
     </row>
     <row r="31">
       <c r="A31" t="inlineStr">
@@ -1716,6 +1858,11 @@
       <c r="J31" t="b">
         <v>0</v>
       </c>
+      <c r="K31" t="inlineStr">
+        <is>
+          <t>OTHER</t>
+        </is>
+      </c>
     </row>
     <row r="32">
       <c r="A32" t="inlineStr">
@@ -1754,6 +1901,11 @@
       <c r="J32" t="b">
         <v>1</v>
       </c>
+      <c r="K32" t="inlineStr">
+        <is>
+          <t>PROCEDURE</t>
+        </is>
+      </c>
     </row>
     <row r="33">
       <c r="A33" t="inlineStr">
@@ -1796,6 +1948,11 @@
       <c r="J33" t="b">
         <v>0</v>
       </c>
+      <c r="K33" t="inlineStr">
+        <is>
+          <t>PROCEDURE</t>
+        </is>
+      </c>
     </row>
     <row r="34">
       <c r="A34" t="inlineStr">
@@ -1838,6 +1995,11 @@
       <c r="J34" t="b">
         <v>0</v>
       </c>
+      <c r="K34" t="inlineStr">
+        <is>
+          <t>DEVICE</t>
+        </is>
+      </c>
     </row>
     <row r="35">
       <c r="A35" t="inlineStr">
@@ -1880,6 +2042,11 @@
       <c r="J35" t="b">
         <v>0</v>
       </c>
+      <c r="K35" t="inlineStr">
+        <is>
+          <t>PROCEDURE</t>
+        </is>
+      </c>
     </row>
     <row r="36">
       <c r="A36" t="inlineStr">
@@ -1922,6 +2089,11 @@
       <c r="J36" t="b">
         <v>1</v>
       </c>
+      <c r="K36" t="inlineStr">
+        <is>
+          <t>DRUG</t>
+        </is>
+      </c>
     </row>
     <row r="37">
       <c r="A37" t="inlineStr">
@@ -1964,6 +2136,11 @@
       <c r="J37" t="b">
         <v>1</v>
       </c>
+      <c r="K37" t="inlineStr">
+        <is>
+          <t>DEVICE</t>
+        </is>
+      </c>
     </row>
     <row r="38">
       <c r="A38" t="inlineStr">
@@ -2006,6 +2183,11 @@
       <c r="J38" t="b">
         <v>0</v>
       </c>
+      <c r="K38" t="inlineStr">
+        <is>
+          <t>BIOLOGICAL</t>
+        </is>
+      </c>
     </row>
     <row r="39">
       <c r="A39" t="inlineStr">
@@ -2048,6 +2230,11 @@
       <c r="J39" t="b">
         <v>1</v>
       </c>
+      <c r="K39" t="inlineStr">
+        <is>
+          <t>DRUG</t>
+        </is>
+      </c>
     </row>
     <row r="40">
       <c r="A40" t="inlineStr">
@@ -2090,6 +2277,11 @@
       <c r="J40" t="b">
         <v>1</v>
       </c>
+      <c r="K40" t="inlineStr">
+        <is>
+          <t>DEVICE</t>
+        </is>
+      </c>
     </row>
     <row r="41">
       <c r="A41" t="inlineStr">
@@ -2132,6 +2324,11 @@
       <c r="J41" t="b">
         <v>0</v>
       </c>
+      <c r="K41" t="inlineStr">
+        <is>
+          <t>RADIATION</t>
+        </is>
+      </c>
     </row>
     <row r="42">
       <c r="A42" t="inlineStr">
@@ -2174,6 +2371,11 @@
       <c r="J42" t="b">
         <v>0</v>
       </c>
+      <c r="K42" t="inlineStr">
+        <is>
+          <t>OTHER</t>
+        </is>
+      </c>
     </row>
     <row r="43">
       <c r="A43" t="inlineStr">
@@ -2216,6 +2418,11 @@
       <c r="J43" t="b">
         <v>0</v>
       </c>
+      <c r="K43" t="inlineStr">
+        <is>
+          <t>DRUG</t>
+        </is>
+      </c>
     </row>
     <row r="44">
       <c r="A44" t="inlineStr">
@@ -2254,6 +2461,11 @@
       <c r="J44" t="b">
         <v>0</v>
       </c>
+      <c r="K44" t="inlineStr">
+        <is>
+          <t>OTHER</t>
+        </is>
+      </c>
     </row>
     <row r="45">
       <c r="A45" t="inlineStr">
@@ -2296,6 +2508,11 @@
       <c r="J45" t="b">
         <v>1</v>
       </c>
+      <c r="K45" t="inlineStr">
+        <is>
+          <t>OTHER</t>
+        </is>
+      </c>
     </row>
     <row r="46">
       <c r="A46" t="inlineStr">
@@ -2338,6 +2555,11 @@
       <c r="J46" t="b">
         <v>0</v>
       </c>
+      <c r="K46" t="inlineStr">
+        <is>
+          <t>DEVICE</t>
+        </is>
+      </c>
     </row>
     <row r="47">
       <c r="A47" t="inlineStr">
@@ -2380,6 +2602,11 @@
       <c r="J47" t="b">
         <v>0</v>
       </c>
+      <c r="K47" t="inlineStr">
+        <is>
+          <t>PROCEDURE</t>
+        </is>
+      </c>
     </row>
     <row r="48">
       <c r="A48" t="inlineStr">
@@ -2418,6 +2645,11 @@
       <c r="J48" t="b">
         <v>0</v>
       </c>
+      <c r="K48" t="inlineStr">
+        <is>
+          <t>OTHER</t>
+        </is>
+      </c>
     </row>
     <row r="49">
       <c r="A49" t="inlineStr">
@@ -2456,6 +2688,11 @@
       <c r="J49" t="b">
         <v>1</v>
       </c>
+      <c r="K49" t="inlineStr">
+        <is>
+          <t>PROCEDURE</t>
+        </is>
+      </c>
     </row>
     <row r="50">
       <c r="A50" t="inlineStr">
@@ -2498,6 +2735,11 @@
       <c r="J50" t="b">
         <v>0</v>
       </c>
+      <c r="K50" t="inlineStr">
+        <is>
+          <t>OTHER</t>
+        </is>
+      </c>
     </row>
     <row r="51">
       <c r="A51" t="inlineStr">
@@ -2540,6 +2782,11 @@
       <c r="J51" t="b">
         <v>0</v>
       </c>
+      <c r="K51" t="inlineStr">
+        <is>
+          <t>DRUG</t>
+        </is>
+      </c>
     </row>
     <row r="52">
       <c r="A52" t="inlineStr">
@@ -2582,6 +2829,11 @@
       <c r="J52" t="b">
         <v>0</v>
       </c>
+      <c r="K52" t="inlineStr">
+        <is>
+          <t>DRUG</t>
+        </is>
+      </c>
     </row>
     <row r="53">
       <c r="A53" t="inlineStr">
@@ -2620,6 +2872,11 @@
       <c r="J53" t="b">
         <v>1</v>
       </c>
+      <c r="K53" t="inlineStr">
+        <is>
+          <t>DRUG</t>
+        </is>
+      </c>
     </row>
     <row r="54">
       <c r="A54" t="inlineStr">
@@ -2662,6 +2919,11 @@
       <c r="J54" t="b">
         <v>0</v>
       </c>
+      <c r="K54" t="inlineStr">
+        <is>
+          <t>BIOLOGICAL</t>
+        </is>
+      </c>
     </row>
     <row r="55">
       <c r="A55" t="inlineStr">
@@ -2704,6 +2966,11 @@
       <c r="J55" t="b">
         <v>1</v>
       </c>
+      <c r="K55" t="inlineStr">
+        <is>
+          <t>DIAGNOSTIC_TEST</t>
+        </is>
+      </c>
     </row>
     <row r="56">
       <c r="A56" t="inlineStr">
@@ -2746,6 +3013,11 @@
       <c r="J56" t="b">
         <v>1</v>
       </c>
+      <c r="K56" t="inlineStr">
+        <is>
+          <t>OTHER</t>
+        </is>
+      </c>
     </row>
     <row r="57">
       <c r="A57" t="inlineStr">
@@ -2788,6 +3060,11 @@
       <c r="J57" t="b">
         <v>0</v>
       </c>
+      <c r="K57" t="inlineStr">
+        <is>
+          <t>DRUG</t>
+        </is>
+      </c>
     </row>
     <row r="58">
       <c r="A58" t="inlineStr">
@@ -2830,6 +3107,11 @@
       <c r="J58" t="b">
         <v>1</v>
       </c>
+      <c r="K58" t="inlineStr">
+        <is>
+          <t>OTHER</t>
+        </is>
+      </c>
     </row>
     <row r="59">
       <c r="A59" t="inlineStr">
@@ -2872,6 +3154,11 @@
       <c r="J59" t="b">
         <v>1</v>
       </c>
+      <c r="K59" t="inlineStr">
+        <is>
+          <t>DEVICE</t>
+        </is>
+      </c>
     </row>
     <row r="60">
       <c r="A60" t="inlineStr">
@@ -2914,6 +3201,11 @@
       <c r="J60" t="b">
         <v>0</v>
       </c>
+      <c r="K60" t="inlineStr">
+        <is>
+          <t>DEVICE</t>
+        </is>
+      </c>
     </row>
     <row r="61">
       <c r="A61" t="inlineStr">
@@ -2956,6 +3248,11 @@
       <c r="J61" t="b">
         <v>1</v>
       </c>
+      <c r="K61" t="inlineStr">
+        <is>
+          <t>DRUG</t>
+        </is>
+      </c>
     </row>
     <row r="62">
       <c r="A62" t="inlineStr">
@@ -2994,6 +3291,11 @@
       <c r="J62" t="b">
         <v>0</v>
       </c>
+      <c r="K62" t="inlineStr">
+        <is>
+          <t>DRUG</t>
+        </is>
+      </c>
     </row>
     <row r="63">
       <c r="A63" t="inlineStr">
@@ -3032,6 +3334,11 @@
       <c r="J63" t="b">
         <v>0</v>
       </c>
+      <c r="K63" t="inlineStr">
+        <is>
+          <t>PROCEDURE</t>
+        </is>
+      </c>
     </row>
     <row r="64">
       <c r="A64" t="inlineStr">
@@ -3074,6 +3381,11 @@
       <c r="J64" t="b">
         <v>1</v>
       </c>
+      <c r="K64" t="inlineStr">
+        <is>
+          <t>PROCEDURE</t>
+        </is>
+      </c>
     </row>
     <row r="65">
       <c r="A65" t="inlineStr">
@@ -3116,6 +3428,11 @@
       <c r="J65" t="b">
         <v>0</v>
       </c>
+      <c r="K65" t="inlineStr">
+        <is>
+          <t>DRUG</t>
+        </is>
+      </c>
     </row>
     <row r="66">
       <c r="A66" t="inlineStr">
@@ -3158,6 +3475,11 @@
       <c r="J66" t="b">
         <v>0</v>
       </c>
+      <c r="K66" t="inlineStr">
+        <is>
+          <t>DEVICE</t>
+        </is>
+      </c>
     </row>
     <row r="67">
       <c r="A67" t="inlineStr">
@@ -3196,6 +3518,11 @@
       <c r="J67" t="b">
         <v>0</v>
       </c>
+      <c r="K67" t="inlineStr">
+        <is>
+          <t>DIAGNOSTIC_TEST</t>
+        </is>
+      </c>
     </row>
     <row r="68">
       <c r="A68" t="inlineStr">
@@ -3238,6 +3565,11 @@
       <c r="J68" t="b">
         <v>0</v>
       </c>
+      <c r="K68" t="inlineStr">
+        <is>
+          <t>OTHER</t>
+        </is>
+      </c>
     </row>
     <row r="69">
       <c r="A69" t="inlineStr">
@@ -3280,6 +3612,7 @@
       <c r="J69" t="b">
         <v>0</v>
       </c>
+      <c r="K69" t="inlineStr"/>
     </row>
     <row r="70">
       <c r="A70" t="inlineStr">
@@ -3322,6 +3655,11 @@
       <c r="J70" t="b">
         <v>0</v>
       </c>
+      <c r="K70" t="inlineStr">
+        <is>
+          <t>DRUG</t>
+        </is>
+      </c>
     </row>
     <row r="71">
       <c r="A71" t="inlineStr">
@@ -3364,6 +3702,11 @@
       <c r="J71" t="b">
         <v>0</v>
       </c>
+      <c r="K71" t="inlineStr">
+        <is>
+          <t>PROCEDURE</t>
+        </is>
+      </c>
     </row>
     <row r="72">
       <c r="A72" t="inlineStr">
@@ -3406,6 +3749,11 @@
       <c r="J72" t="b">
         <v>1</v>
       </c>
+      <c r="K72" t="inlineStr">
+        <is>
+          <t>BIOLOGICAL</t>
+        </is>
+      </c>
     </row>
     <row r="73">
       <c r="A73" t="inlineStr">
@@ -3448,6 +3796,11 @@
       <c r="J73" t="b">
         <v>0</v>
       </c>
+      <c r="K73" t="inlineStr">
+        <is>
+          <t>OTHER</t>
+        </is>
+      </c>
     </row>
     <row r="74">
       <c r="A74" t="inlineStr">
@@ -3486,6 +3839,11 @@
       <c r="J74" t="b">
         <v>0</v>
       </c>
+      <c r="K74" t="inlineStr">
+        <is>
+          <t>DRUG</t>
+        </is>
+      </c>
     </row>
     <row r="75">
       <c r="A75" t="inlineStr">
@@ -3528,6 +3886,11 @@
       <c r="J75" t="b">
         <v>1</v>
       </c>
+      <c r="K75" t="inlineStr">
+        <is>
+          <t>BEHAVIORAL</t>
+        </is>
+      </c>
     </row>
     <row r="76">
       <c r="A76" t="inlineStr">
@@ -3570,6 +3933,11 @@
       <c r="J76" t="b">
         <v>1</v>
       </c>
+      <c r="K76" t="inlineStr">
+        <is>
+          <t>DRUG</t>
+        </is>
+      </c>
     </row>
     <row r="77">
       <c r="A77" t="inlineStr">
@@ -3612,6 +3980,11 @@
       <c r="J77" t="b">
         <v>0</v>
       </c>
+      <c r="K77" t="inlineStr">
+        <is>
+          <t>DRUG</t>
+        </is>
+      </c>
     </row>
     <row r="78">
       <c r="A78" t="inlineStr">
@@ -3654,6 +4027,11 @@
       <c r="J78" t="b">
         <v>0</v>
       </c>
+      <c r="K78" t="inlineStr">
+        <is>
+          <t>PROCEDURE</t>
+        </is>
+      </c>
     </row>
     <row r="79">
       <c r="A79" t="inlineStr">
@@ -3696,6 +4074,11 @@
       <c r="J79" t="b">
         <v>0</v>
       </c>
+      <c r="K79" t="inlineStr">
+        <is>
+          <t>DRUG</t>
+        </is>
+      </c>
     </row>
     <row r="80">
       <c r="A80" t="inlineStr">
@@ -3738,6 +4121,11 @@
       <c r="J80" t="b">
         <v>0</v>
       </c>
+      <c r="K80" t="inlineStr">
+        <is>
+          <t>BIOLOGICAL</t>
+        </is>
+      </c>
     </row>
     <row r="81">
       <c r="A81" t="inlineStr">
@@ -3780,6 +4168,11 @@
       <c r="J81" t="b">
         <v>1</v>
       </c>
+      <c r="K81" t="inlineStr">
+        <is>
+          <t>DRUG</t>
+        </is>
+      </c>
     </row>
     <row r="82">
       <c r="A82" t="inlineStr">
@@ -3822,6 +4215,11 @@
       <c r="J82" t="b">
         <v>0</v>
       </c>
+      <c r="K82" t="inlineStr">
+        <is>
+          <t>PROCEDURE</t>
+        </is>
+      </c>
     </row>
     <row r="83">
       <c r="A83" t="inlineStr">
@@ -3864,6 +4262,11 @@
       <c r="J83" t="b">
         <v>0</v>
       </c>
+      <c r="K83" t="inlineStr">
+        <is>
+          <t>DRUG</t>
+        </is>
+      </c>
     </row>
     <row r="84">
       <c r="A84" t="inlineStr">
@@ -3906,6 +4309,11 @@
       <c r="J84" t="b">
         <v>0</v>
       </c>
+      <c r="K84" t="inlineStr">
+        <is>
+          <t>OTHER</t>
+        </is>
+      </c>
     </row>
     <row r="85">
       <c r="A85" t="inlineStr">
@@ -3948,6 +4356,11 @@
       <c r="J85" t="b">
         <v>0</v>
       </c>
+      <c r="K85" t="inlineStr">
+        <is>
+          <t>OTHER</t>
+        </is>
+      </c>
     </row>
     <row r="86">
       <c r="A86" t="inlineStr">
@@ -3990,6 +4403,11 @@
       <c r="J86" t="b">
         <v>0</v>
       </c>
+      <c r="K86" t="inlineStr">
+        <is>
+          <t>DIAGNOSTIC_TEST</t>
+        </is>
+      </c>
     </row>
     <row r="87">
       <c r="A87" t="inlineStr">
@@ -4032,6 +4450,11 @@
       <c r="J87" t="b">
         <v>1</v>
       </c>
+      <c r="K87" t="inlineStr">
+        <is>
+          <t>PROCEDURE</t>
+        </is>
+      </c>
     </row>
     <row r="88">
       <c r="A88" t="inlineStr">
@@ -4074,6 +4497,11 @@
       <c r="J88" t="b">
         <v>0</v>
       </c>
+      <c r="K88" t="inlineStr">
+        <is>
+          <t>DEVICE</t>
+        </is>
+      </c>
     </row>
     <row r="89">
       <c r="A89" t="inlineStr">
@@ -4116,6 +4544,11 @@
       <c r="J89" t="b">
         <v>0</v>
       </c>
+      <c r="K89" t="inlineStr">
+        <is>
+          <t>DEVICE</t>
+        </is>
+      </c>
     </row>
     <row r="90">
       <c r="A90" t="inlineStr">
@@ -4158,6 +4591,11 @@
       <c r="J90" t="b">
         <v>1</v>
       </c>
+      <c r="K90" t="inlineStr">
+        <is>
+          <t>PROCEDURE</t>
+        </is>
+      </c>
     </row>
     <row r="91">
       <c r="A91" t="inlineStr">
@@ -4200,6 +4638,11 @@
       <c r="J91" t="b">
         <v>0</v>
       </c>
+      <c r="K91" t="inlineStr">
+        <is>
+          <t>DRUG</t>
+        </is>
+      </c>
     </row>
     <row r="92">
       <c r="A92" t="inlineStr">
@@ -4238,6 +4681,11 @@
       <c r="J92" t="b">
         <v>0</v>
       </c>
+      <c r="K92" t="inlineStr">
+        <is>
+          <t>OTHER</t>
+        </is>
+      </c>
     </row>
     <row r="93">
       <c r="A93" t="inlineStr">
@@ -4280,6 +4728,11 @@
       <c r="J93" t="b">
         <v>1</v>
       </c>
+      <c r="K93" t="inlineStr">
+        <is>
+          <t>BIOLOGICAL</t>
+        </is>
+      </c>
     </row>
     <row r="94">
       <c r="A94" t="inlineStr">
@@ -4322,6 +4775,11 @@
       <c r="J94" t="b">
         <v>0</v>
       </c>
+      <c r="K94" t="inlineStr">
+        <is>
+          <t>OTHER</t>
+        </is>
+      </c>
     </row>
     <row r="95">
       <c r="A95" t="inlineStr">
@@ -4364,6 +4822,11 @@
       <c r="J95" t="b">
         <v>0</v>
       </c>
+      <c r="K95" t="inlineStr">
+        <is>
+          <t>DRUG</t>
+        </is>
+      </c>
     </row>
     <row r="96">
       <c r="A96" t="inlineStr">
@@ -4406,6 +4869,11 @@
       <c r="J96" t="b">
         <v>0</v>
       </c>
+      <c r="K96" t="inlineStr">
+        <is>
+          <t>DRUG</t>
+        </is>
+      </c>
     </row>
     <row r="97">
       <c r="A97" t="inlineStr">
@@ -4449,6 +4917,7 @@
       <c r="J97" t="b">
         <v>0</v>
       </c>
+      <c r="K97" t="inlineStr"/>
     </row>
     <row r="98">
       <c r="A98" t="inlineStr">
@@ -4491,6 +4960,11 @@
       <c r="J98" t="b">
         <v>0</v>
       </c>
+      <c r="K98" t="inlineStr">
+        <is>
+          <t>DEVICE</t>
+        </is>
+      </c>
     </row>
     <row r="99">
       <c r="A99" t="inlineStr">
@@ -4533,6 +5007,11 @@
       <c r="J99" t="b">
         <v>1</v>
       </c>
+      <c r="K99" t="inlineStr">
+        <is>
+          <t>DEVICE</t>
+        </is>
+      </c>
     </row>
     <row r="100">
       <c r="A100" t="inlineStr">
@@ -4575,6 +5054,11 @@
       <c r="J100" t="b">
         <v>0</v>
       </c>
+      <c r="K100" t="inlineStr">
+        <is>
+          <t>PROCEDURE</t>
+        </is>
+      </c>
     </row>
     <row r="101">
       <c r="A101" t="inlineStr">
@@ -4617,6 +5101,11 @@
       <c r="J101" t="b">
         <v>1</v>
       </c>
+      <c r="K101" t="inlineStr">
+        <is>
+          <t>DRUG</t>
+        </is>
+      </c>
     </row>
     <row r="102">
       <c r="A102" t="inlineStr">
@@ -4659,6 +5148,11 @@
       <c r="J102" t="b">
         <v>0</v>
       </c>
+      <c r="K102" t="inlineStr">
+        <is>
+          <t>DRUG</t>
+        </is>
+      </c>
     </row>
     <row r="103">
       <c r="A103" t="inlineStr">
@@ -4701,6 +5195,11 @@
       <c r="J103" t="b">
         <v>0</v>
       </c>
+      <c r="K103" t="inlineStr">
+        <is>
+          <t>OTHER</t>
+        </is>
+      </c>
     </row>
     <row r="104">
       <c r="A104" t="inlineStr">
@@ -4743,6 +5242,11 @@
       <c r="J104" t="b">
         <v>0</v>
       </c>
+      <c r="K104" t="inlineStr">
+        <is>
+          <t>DRUG</t>
+        </is>
+      </c>
     </row>
     <row r="105">
       <c r="A105" t="inlineStr">
@@ -4781,6 +5285,11 @@
       <c r="J105" t="b">
         <v>0</v>
       </c>
+      <c r="K105" t="inlineStr">
+        <is>
+          <t>DRUG</t>
+        </is>
+      </c>
     </row>
     <row r="106">
       <c r="A106" t="inlineStr">
@@ -4823,6 +5332,11 @@
       <c r="J106" t="b">
         <v>0</v>
       </c>
+      <c r="K106" t="inlineStr">
+        <is>
+          <t>OTHER</t>
+        </is>
+      </c>
     </row>
     <row r="107">
       <c r="A107" t="inlineStr">
@@ -4865,6 +5379,11 @@
       <c r="J107" t="b">
         <v>0</v>
       </c>
+      <c r="K107" t="inlineStr">
+        <is>
+          <t>PROCEDURE</t>
+        </is>
+      </c>
     </row>
     <row r="108">
       <c r="A108" t="inlineStr">
@@ -4907,6 +5426,11 @@
       <c r="J108" t="b">
         <v>0</v>
       </c>
+      <c r="K108" t="inlineStr">
+        <is>
+          <t>BEHAVIORAL</t>
+        </is>
+      </c>
     </row>
     <row r="109">
       <c r="A109" t="inlineStr">
@@ -4949,6 +5473,11 @@
       <c r="J109" t="b">
         <v>0</v>
       </c>
+      <c r="K109" t="inlineStr">
+        <is>
+          <t>PROCEDURE</t>
+        </is>
+      </c>
     </row>
     <row r="110">
       <c r="A110" t="inlineStr">
@@ -4991,6 +5520,11 @@
       <c r="J110" t="b">
         <v>0</v>
       </c>
+      <c r="K110" t="inlineStr">
+        <is>
+          <t>PROCEDURE</t>
+        </is>
+      </c>
     </row>
     <row r="111">
       <c r="A111" t="inlineStr">
@@ -5033,6 +5567,11 @@
       <c r="J111" t="b">
         <v>1</v>
       </c>
+      <c r="K111" t="inlineStr">
+        <is>
+          <t>PROCEDURE</t>
+        </is>
+      </c>
     </row>
     <row r="112">
       <c r="A112" t="inlineStr">
@@ -5075,6 +5614,11 @@
       <c r="J112" t="b">
         <v>1</v>
       </c>
+      <c r="K112" t="inlineStr">
+        <is>
+          <t>DEVICE</t>
+        </is>
+      </c>
     </row>
     <row r="113">
       <c r="A113" t="inlineStr">
@@ -5117,6 +5661,11 @@
       <c r="J113" t="b">
         <v>1</v>
       </c>
+      <c r="K113" t="inlineStr">
+        <is>
+          <t>DEVICE</t>
+        </is>
+      </c>
     </row>
     <row r="114">
       <c r="A114" t="inlineStr">
@@ -5159,6 +5708,11 @@
       <c r="J114" t="b">
         <v>1</v>
       </c>
+      <c r="K114" t="inlineStr">
+        <is>
+          <t>DEVICE</t>
+        </is>
+      </c>
     </row>
     <row r="115">
       <c r="A115" t="inlineStr">
@@ -5201,6 +5755,11 @@
       <c r="J115" t="b">
         <v>0</v>
       </c>
+      <c r="K115" t="inlineStr">
+        <is>
+          <t>DEVICE</t>
+        </is>
+      </c>
     </row>
     <row r="116">
       <c r="A116" t="inlineStr">
@@ -5243,6 +5802,11 @@
       <c r="J116" t="b">
         <v>0</v>
       </c>
+      <c r="K116" t="inlineStr">
+        <is>
+          <t>BEHAVIORAL</t>
+        </is>
+      </c>
     </row>
     <row r="117">
       <c r="A117" t="inlineStr">
@@ -5285,6 +5849,11 @@
       <c r="J117" t="b">
         <v>0</v>
       </c>
+      <c r="K117" t="inlineStr">
+        <is>
+          <t>DEVICE</t>
+        </is>
+      </c>
     </row>
     <row r="118">
       <c r="A118" t="inlineStr">
@@ -5327,6 +5896,11 @@
       <c r="J118" t="b">
         <v>0</v>
       </c>
+      <c r="K118" t="inlineStr">
+        <is>
+          <t>DEVICE</t>
+        </is>
+      </c>
     </row>
     <row r="119">
       <c r="A119" t="inlineStr">
@@ -5369,6 +5943,11 @@
       <c r="J119" t="b">
         <v>0</v>
       </c>
+      <c r="K119" t="inlineStr">
+        <is>
+          <t>DEVICE</t>
+        </is>
+      </c>
     </row>
     <row r="120">
       <c r="A120" t="inlineStr">
@@ -5411,6 +5990,11 @@
       <c r="J120" t="b">
         <v>1</v>
       </c>
+      <c r="K120" t="inlineStr">
+        <is>
+          <t>DEVICE</t>
+        </is>
+      </c>
     </row>
     <row r="121">
       <c r="A121" t="inlineStr">
@@ -5453,6 +6037,11 @@
       <c r="J121" t="b">
         <v>0</v>
       </c>
+      <c r="K121" t="inlineStr">
+        <is>
+          <t>DEVICE</t>
+        </is>
+      </c>
     </row>
     <row r="122">
       <c r="A122" t="inlineStr">
@@ -5495,6 +6084,11 @@
       <c r="J122" t="b">
         <v>0</v>
       </c>
+      <c r="K122" t="inlineStr">
+        <is>
+          <t>OTHER</t>
+        </is>
+      </c>
     </row>
     <row r="123">
       <c r="A123" t="inlineStr">
@@ -5537,6 +6131,11 @@
       <c r="J123" t="b">
         <v>0</v>
       </c>
+      <c r="K123" t="inlineStr">
+        <is>
+          <t>DRUG</t>
+        </is>
+      </c>
     </row>
     <row r="124">
       <c r="A124" t="inlineStr">
@@ -5577,6 +6176,7 @@
       <c r="J124" t="b">
         <v>0</v>
       </c>
+      <c r="K124" t="inlineStr"/>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
